--- a/sourceTables/Sliced/FictionTolkienMascMen.xlsx
+++ b/sourceTables/Sliced/FictionTolkienMascMen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\Development\Nickname generator wrap\Names DB\Fiction\Tolkien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nag\PycharmProjects\MyNamesEnvironment\sourceTables\Sliced\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6091,26 +6091,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B305" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F319" sqref="D306:F319"/>
+    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:A344"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.06640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.59765625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.53125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.86328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="28.19921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.265625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.86328125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="40.265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="40.9296875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="39.3984375" customWidth="1"/>
+    <col min="1" max="1" width="8" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="41" style="4" customWidth="1"/>
+    <col min="12" max="12" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>&lt;key&gt;Adrahil I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.1.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Он происходил из знатного Нуменорского рода, что поселился в Белфаласе во Вторую Эпоху. Из-за этого, можно сделать вывод, что он был предком Имразора, Галадора и всех лордов Дол Амрота.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Он происходил из знатного Нуменорского рода, что поселился в Белфаласе во Вторую Эпоху. Из-за этого, можно сделать вывод, что он был предком Имразора, Галадора и всех лордов Дол Амрота.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAdrahil I&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>&lt;key&gt;Adrahil II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.2.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Адрахиль (2917 - 3010 гг.) — 21-й принц Дол-Амрота и правитель Белфаласа.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Адрахиль (2917 - 3010 гг.) — 21-й принц Дол-Амрота и правитель Белфаласа.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAdrahil II&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>&lt;key&gt;Ælfwine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.3.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эльфин (англ.Aelwine) — британский мореход, упоминается в 'Утраченных Преданиях'.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эльфин (англ.Aelwine) — британский мореход, упоминается в 'Утраченных Преданиях'.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascÆlfwine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>&lt;key&gt;Aglahad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.4.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Аглахад — девятнадцатый принц Дол Амрота.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Аглахад — девятнадцатый принц Дол Амрота.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAglahad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>&lt;key&gt;Albert Dreary&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.5.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAlbert Dreary&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>6</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>&lt;key&gt;Aldamir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.6.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Альдамир родился в 1330-ом году Т.Э. в семье Эльдакара, сына Валакара — принца Гондора. Тогда Гондором правил Ромендакиль II. Альдамир был младшим сыном Эльдакара и братом Орнендиля. Во время правления его отца, в стране произошла гражданская война известная как 'Распря Родичей'. Кастамир Узурпатор, пользуясь недовольством южных провинций из-за того, что матерью Эльдакара была северянка, решил захватит трон и в 1437 году Т .Э. напал на Осгилиат.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Альдамир родился в 1330-ом году Т.Э. в семье Эльдакара, сына Валакара — принца Гондора. Тогда Гондором правил Ромендакиль II. Альдамир был младшим сыном Эльдакара и братом Орнендиля. Во время правления его отца, в стране произошла гражданская война известная как 'Распря Родичей'. Кастамир Узурпатор, пользуясь недовольством южных провинций из-за того, что матерью Эльдакара была северянка, решил захватит трон и в 1437 году Т .Э. напал на Осгилиат.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAldamir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>7</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>&lt;key&gt;Aldor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.7.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>8</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>&lt;key&gt;Alfrid Lickspittle&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.8.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAlfrid Lickspittle&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>&lt;key&gt;Algund&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.9.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAlgund&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>&lt;key&gt;Alphros&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.10.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAlphros&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>&lt;key&gt;Amandil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.11.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В Нуменоре Амандиль возглавлял элендилей («друзей эльфов») или Верных, подвергавшихся преследованиям со стороны «Людей Короля». При этом в юности Амандиль был близким другом Ар-Фаразона, последнего из королей Нуменора, с которым вместе вырос. Во дни короля Тар-Палантира он также прославился по всему Нуменору как великий мореплаватель и капитан. Позднее Амандиль был введён в нуменорский Совет Скипетра. Однако, когда Ар-Фаразон привёз на нуменорскую землю покорившегося Саурона, дружба короля и Амандиля дала трещину. Вскоре Амандиль попал в опалу: по наущению Саурона его исключили из числа членов Совета Скипетра и ему пришлось вернуться в Роменну.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;В Нуменоре Амандиль возглавлял элендилей («друзей эльфов») или Верных, подвергавшихся преследованиям со стороны «Людей Короля». При этом в юности Амандиль был близким другом Ар-Фаразона, последнего из королей Нуменора, с которым вместе вырос. Во дни короля Тар-Палантира он также прославился по всему Нуменору как великий мореплаватель и капитан. Позднее Амандиль был введён в нуменорский Совет Скипетра. Однако, когда Ар-Фаразон привёз на нуменорскую землю покорившегося Саурона, дружба короля и Амандиля дала трещину. Вскоре Амандиль попал в опалу: по наущению Саурона его исключили из числа членов Совета Скипетра и ему пришлось вернуться в Роменну.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAmandil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>&lt;key&gt;Amrothos&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.12.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Имя Амротос связано с эльфом по имени Амрот, в честь коего был назван Дол-Амрот. Само имя означает «высоко лезущий» от am(amba), означающего «вверх», и rath, означающего «лезть, карабкаться». Имя не на чистом синдарине и, возможно, подверглось влиянию языка лесных эльфов.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Имя Амротос связано с эльфом по имени Амрот, в честь коего был назван Дол-Амрот. Само имя означает «высоко лезущий» от am(amba), означающего «вверх», и rath, означающего «лезть, карабкаться». Имя не на чистом синдарине и, возможно, подверглось влиянию языка лесных эльфов.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAmrothos&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>&lt;key&gt;Anardil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.13.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Анардиль родился в 136-ом году Третьей эпохи в семье Эарендиля, тогда правил ещё его прадед Менельдиль. Анардиля назвали так, потому, что он должен был стать 6-м королём королевства, а 6-м королём Падшего Нуменора был Тар-Алдарион, имя которого на квенья, до вступления на престол было Анардиль.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Анардиль родился в 136-ом году Третьей эпохи в семье Эарендиля, тогда правил ещё его прадед Менельдиль. Анардиля назвали так, потому, что он должен был стать 6-м королём королевства, а 6-м королём Падшего Нуменора был Тар-Алдарион, имя которого на квенья, до вступления на престол было Анардиль.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAnardil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>14</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>&lt;key&gt;Anárion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.14.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Анарион (Anarion | кв. Сын Солнца) — был вторым младшим сыном Элендиля и братом Исильдура. Его сын, Менелдиль, был последним человеком, который родился в Нуменоре, прежде чем тот низвергся в морскую пучину.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Анарион (Anarion | кв. Сын Солнца) — был вторым младшим сыном Элендиля и братом Исильдура. Его сын, Менелдиль, был последним человеком, который родился в Нуменоре, прежде чем тот низвергся в морскую пучину.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAnárion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>15</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>&lt;key&gt;Anborn&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.15.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAnborn&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>16</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>&lt;key&gt;Andróg&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.16.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Андрог бежал из Дор-ломина от преследования после того, как убил женщину, и в лесах к западу от Дориата примкнут к Гаурвайт, которыми руководил Форвег. Он был в отряде, когда они встретили на своей земле незнакомца. Это был Турин, который отказался выкупить свою жизнь, но пообещал дорого продать свою жизнь. После того, как Турин убил одного из гаурвайт и Форвег вынес решение о присоединение Турина к отряду на голосование, Андрог сперва был против. Однако когда Турин намеревался сразиться с ним, Андрог бросил свой лук и подойдя к Турину, признал себя не ровней ему, хотя признал таковыми и всех остальных, под конец, Андрог проголосовал за присоединение Турина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Андрог бежал из Дор-ломина от преследования после того, как убил женщину, и в лесах к западу от Дориата примкнут к Гаурвайт, которыми руководил Форвег. Он был в отряде, когда они встретили на своей земле незнакомца. Это был Турин, который отказался выкупить свою жизнь, но пообещал дорого продать свою жизнь. После того, как Турин убил одного из гаурвайт и Форвег вынес решение о присоединение Турина к отряду на голосование, Андрог сперва был против. Однако когда Турин намеревался сразиться с ним, Андрог бросил свой лук и подойдя к Турину, признал себя не ровней ему, хотя признал таковыми и всех остальных, под конец, Андрог проголосовал за присоединение Турина.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAndróg&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>17</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>&lt;key&gt;Andvír&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.17.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Андвир не упомянут ни в одной из версий Детей Хурина. Однако, его роль описана во вступительном тексте, не включённом в опубликованную версию.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Андвир не упомянут ни в одной из версий Детей Хурина. Однако, его роль описана во вступительном тексте, не включённом в опубликованную версию.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAndvír&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>18</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>&lt;key&gt;Angamaitë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.18.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAngamaitë&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>19</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>&lt;key&gt;Angbor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.19.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAngbor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>20</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>&lt;key&gt;Angelimir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.20.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ангелимир (2866—2977 гг.) — 20-й принц Дол Амрота.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Ангелимир (2866—2977 гг.) — 20-й принц Дол Амрота.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAngelimir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>21</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>&lt;key&gt;Angrim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.21.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAngrim&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>22</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>&lt;key&gt;Ar-Adûnakhôr&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.22.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Первый король, который официально и без сокрытия от всех провозгласил себя королём с именем на адунаике.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Первый король, который официально и без сокрытия от всех провозгласил себя королём с именем на адунаике.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAr-Adûnakhôr&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>23</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>&lt;key&gt;Aragorn II Elessar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.23.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Арагорн (синд. Aragorn) — сын Араторна II и Гильраэн. Вождь дунэдайн Севера. Прямой наследник Исильдура, последнего Верховного Короля Арнора и Гондора. Арагорн стал величайшим из Людей своей эпохи, возглавлял Людей Запада в войне против сил Саурона, помог уничтожить Кольцо Всевластия (был одним из Девяти его Хранителей), воссоединил королевства Арнора и Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Арагорн (синд. Aragorn) — сын Араторна II и Гильраэн. Вождь дунэдайн Севера. Прямой наследник Исильдура, последнего Верховного Короля Арнора и Гондора. Арагорн стал величайшим из Людей своей эпохи, возглавлял Людей Запада в войне против сил Саурона, помог уничтожить Кольцо Всевластия (был одним из Девяти его Хранителей), воссоединил королевства Арнора и Гондора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAragorn II Elessar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>24</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>&lt;key&gt;Aratan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.24.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Аратан родился в Гондоре в 3339 В. Э. У него был старший брат, Элендур и младшие братья, Кирьон и Валандиль.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Аратан родился в Гондоре в 3339 В. Э. У него был старший брат, Элендур и младшие братья, Кирьон и Валандиль.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAratan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>25</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>&lt;key&gt;Arciryas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.25.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Аркирьяс — сын короля Телумехтара Умбардакила.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Аркирьяс — сын короля Телумехтара Умбардакила.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascArciryas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>26</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>&lt;key&gt;Ardamir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.26.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascArdamir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>27</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>&lt;key&gt;Ar-Gimilzôr&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.27.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Родился в 2960 В. Э. и был сыном Ар-Сакальтора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Родился в 2960 В. Э. и был сыном Ар-Сакальтора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAr-Gimilzôr&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>28</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>&lt;key&gt;Ar-Pharazôn&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.28.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;А́р-Фа́разон (англ. Ar-Pharazôn | кв. Тар-Калион) — человек-дунадан. 25-й и последний Король Нуменора, узурпировавший титул, но признанный большинством нуменорцев.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;А́р-Фа́разон (англ. Ar-Pharazôn | кв. Тар-Калион) — человек-дунадан. 25-й и последний Король Нуменора, узурпировавший титул, но признанный большинством нуменорцев.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAr-Pharazôn&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>29</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>&lt;key&gt;Ar-Sakalthôr&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.29.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;После смерти отца, Ар-Зимратона, в 3033 В. Э., Сакальтор стал править в Нуменоре, взяв королевскую приставку к имени на адунаике - Ар-.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;После смерти отца, Ар-Зимратона, в 3033 В. Э., Сакальтор стал править в Нуменоре, взяв королевскую приставку к имени на адунаике - Ар-.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAr-Sakalthôr&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>30</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>&lt;key&gt;Artamir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.30.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Артамир и его отец Ондогер были главнокомандующими армий Гондора на его северных границах, когда королевство подверглось одновременной атаке с Востока и Юга. Фортвини, глава Эотеода, предупредил короля Ондогера о выступлении в поход Людей Повозок, поэтому в 1944 Т.Э. он и Артамир переместились с войском в Итилиен, чтобы затем занять позиции на Дагорладе, где и предстояло встретить врага. К несчастью, враг пришёл не с северного направления, как ожидалось, а с востока, через склоны Эред Луин. Более того, они оказались в Дагорладе быстрее, чем расчитывали гондорцы. Армия короля Ондогера оказалось сильно растянутой по большой территории, когда авангард был уничтожен мощным ударом кавалерии и колесничих. Артамир был убит в этой атаке, вместе с отцом и практически всеми гвардейцами.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Артамир и его отец Ондогер были главнокомандующими армий Гондора на его северных границах, когда королевство подверглось одновременной атаке с Востока и Юга. Фортвини, глава Эотеода, предупредил короля Ондогера о выступлении в поход Людей Повозок, поэтому в 1944 Т.Э. он и Артамир переместились с войском в Итилиен, чтобы затем занять позиции на Дагорладе, где и предстояло встретить врага. К несчастью, враг пришёл не с северного направления, как ожидалось, а с востока, через склоны Эред Луин. Более того, они оказались в Дагорладе быстрее, чем расчитывали гондорцы. Армия короля Ондогера оказалось сильно растянутой по большой территории, когда авангард был уничтожен мощным ударом кавалерии и колесничих. Артамир был убит в этой атаке, вместе с отцом и практически всеми гвардейцами.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascArtamir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>31</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>&lt;key&gt;Arthad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.31.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Артад сражался в Дагор Браголлах под коммандованием Барахира. Он был одним из немногим выживших в битве, что остались верны своему сюзерену. Они сформировали небольшой отряд, скрывающийся в Дортонионе, вблизи Тарн Аэлуин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Артад сражался в Дагор Браголлах под коммандованием Барахира. Он был одним из немногим выживших в битве, что остались верны своему сюзерену. Они сформировали небольшой отряд, скрывающийся в Дортонионе, вблизи Тарн Аэлуин.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascArthad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>32</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>&lt;key&gt;Ar-Zimrathôn&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.32.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Сын Ар-Адунакора, который на квенья должен был бы зваться как Тар-Хостамир.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Сын Ар-Адунакора, который на квенья должен был бы зваться как Тар-Хостамир.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAr-Zimrathôn&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>33</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>&lt;key&gt;Asgon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.33.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Асгон - человек из Дор-ломина, живший там во время правления захвативших край истерлингов, после Нирнаэт Арноэдиад. Он стал изгнанником в Эред Ветрин после того, как Турин убил Бродду. Позже, Асгон встретил Хурина, рассказал ему о деяниях его сына, и сопровождал его в дальнейших странствиях.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Асгон - человек из Дор-ломина, живший там во время правления захвативших край истерлингов, после Нирнаэт Арноэдиад. Он стал изгнанником в Эред Ветрин после того, как Турин убил Бродду. Позже, Асгон встретил Хурина, рассказал ему о деяниях его сына, и сопровождал его в дальнейших странствиях.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAsgon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>34</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>&lt;key&gt;Atanalcar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.34.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAtanalcar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>35</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>&lt;key&gt;Atanatar I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.35.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Атанатар I (англ. Atanatar) — 10-ый Король Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Атанатар I (англ. Atanatar) — 10-ый Король Гондора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAtanatar I&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>36</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>&lt;key&gt;Atanatar II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.36.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Атанатар родился в 977 году Третьей Эпохи в семье принца Гондора Кирьягера, тогда правил еще его дед Кирьяндиль, но после того как он погиб в 1015, Кирьягер стал королем и отомстил харадрим и Черным нуменорцам за отца, а за время его правления, королевство достигло пика могущества. Но Атанатар вырос ленивым человеком и любил легкую и роскошную жизнь, так что люди говорили,&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Атанатар родился в 977 году Третьей Эпохи в семье принца Гондора Кирьягера, тогда правил еще его дед Кирьяндиль, но после того как он погиб в 1015, Кирьягер стал королем и отомстил харадрим и Черным нуменорцам за отца, а за время его правления, королевство достигло пика могущества. Но Атанатар вырос ленивым человеком и любил легкую и роскошную жизнь, так что люди говорили,&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAtanatar II&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>37</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>&lt;key&gt;Aulendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.37.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAulendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>38</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>&lt;key&gt;Axantur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.38.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Аксантур — внук Вардамира Нолимона. Аксантур родился в 395 году Второй Эпохи. Его отцом был Нолондиль, сын Вардамира, второго правителя Нуменора. У него были старшая сестра Йавиэн и старший брат Оромэндиль.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Аксантур — внук Вардамира Нолимона. Аксантур родился в 395 году Второй Эпохи. Его отцом был Нолондиль, сын Вардамира, второго правителя Нуменора. У него были старшая сестра Йавиэн и старший брат Оромэндиль.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAxantur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>39</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>&lt;key&gt;Baldor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.39.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Балдор (англ.Baldor) — наследник короля Брего, второго короля Рохана. На пиру, где праздновалось завершение строительства Медусельда, он поклялся войти на Тропы Мёртвых и, попытавшись сделать это, пропал без вести. Его останки обнаружил Арагорн во время Войны Кольца: его скелет со сломанными ногами, одетый в кольчугу, лежал рядом с каменной дверью, а рядом с ним был сломанный меч. На двери были отметины от пальцев, что указывало на тщетные попытки Балдора открыть дверь[1].&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Балдор (англ.Baldor) — наследник короля Брего, второго короля Рохана. На пиру, где праздновалось завершение строительства Медусельда, он поклялся войти на Тропы Мёртвых и, попытавшись сделать это, пропал без вести. Его останки обнаружил Арагорн во время Войны Кольца: его скелет со сломанными ногами, одетый в кольчугу, лежал рядом с каменной дверью, а рядом с ним был сломанный меч. На двери были отметины от пальцев, что указывало на тщетные попытки Балдора открыть дверь[1].&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBaldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>40</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>&lt;key&gt;Barach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.40.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Барах (англ.Barach — мужчина из народа Халет, обитавший в лесу Бретиль в Первую Эпоху.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Барах (англ.Barach — мужчина из народа Халет, обитавший в лесу Бретиль в Первую Эпоху.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBarach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>41</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>&lt;key&gt;Baragund&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.41.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В 443 П.Э. у Барагунда родилась дочь Морвен. Вместе со своим братом Белегундом участвовал в Дагор Браголлах под командованием своего дяди Барахира. Они пережили битву, но оказались отброшены со своей земли. Вместе с Барахиром и ещё десятью товарищами, они создали небольшой отряд изгнанников в Дортонионе, вблизи Тарн Аэлуин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;В 443 П.Э. у Барагунда родилась дочь Морвен. Вместе со своим братом Белегундом участвовал в Дагор Браголлах под командованием своего дяди Барахира. Они пережили битву, но оказались отброшены со своей земли. Вместе с Барахиром и ещё десятью товарищами, они создали небольшой отряд изгнанников в Дортонионе, вблизи Тарн Аэлуин.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBaragund&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>42</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>&lt;key&gt;Barahir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.42.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Барахир, сын Брегора и младший брат Бреголаса, взял в жёны Эмельдир Мужесердую. У них был единственный сын, Берен.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Барахир, сын Брегора и младший брат Бреголаса, взял в жёны Эмельдир Мужесердую. У них был единственный сын, Берен.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBarahir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>43</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>&lt;key&gt;Baran&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.43.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Баран был старшим сыном вождя Первого дома эдайн Беора, правившего в Эстоладе. Его братом был Белен, и оба они родились к востоку от Голубых гор, прежде, чем их народ поселился в Белерианде. У него было двое сыновей - Борон и Баранор. В 335 П. Э. Беор отправился на службу к Финроду Фелагунду, и Баран стал новым вождём.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Баран был старшим сыном вождя Первого дома эдайн Беора, правившего в Эстоладе. Его братом был Белен, и оба они родились к востоку от Голубых гор, прежде, чем их народ поселился в Белерианде. У него было двое сыновей - Борон и Баранор. В 335 П. Э. Беор отправился на службу к Финроду Фелагунду, и Баран стал новым вождём.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBaran&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>44</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>&lt;key&gt;Baranor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.44.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBaranor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>45</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>&lt;key&gt;Barney Butterbur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.45.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBarney Butterbur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>46</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>&lt;key&gt;Beldir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.46.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Бельдир был сыном Белена. У него был единственный сын, Белемир, рождённый в 339 П.Э.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Бельдир был сыном Белена. У него был единственный сын, Белемир, рождённый в 339 П.Э.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBeldir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>47</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>&lt;key&gt;Belecthor I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.47.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Белектор I (англ. Belecthor I) пятнадцатый Наместник Гондора принявший бразды правления после смерти отца Хурина II в 2628 Т.Э.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Белектор I (англ. Belecthor I) пятнадцатый Наместник Гондора принявший бразды правления после смерти отца Хурина II в 2628 Т.Э.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBelecthor I&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>48</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>&lt;key&gt;Belecthor II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.48.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Белектор II — 21-й наместник Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Белектор II — 21-й наместник Гондора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBelecthor II&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>49</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>&lt;key&gt;Belegorn&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.49.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBelegorn&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>50</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>&lt;key&gt;Belegund&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.50.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Белегунд был сыном Бреголаса, братом Барагунда и Белет У него была единственная дочь, Риан, от неназванной жены. Белегунд вместе со своим братом сражался в Дагор Браголлах под командованием их дяди Барахира. Они пережили битву, но были отброшены со своей земли. С Барахиром и ещё десятью спутниками он жил изгнанником в Дортонионе, вблизи Тарн Аэлуин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Белегунд был сыном Бреголаса, братом Барагунда и Белет У него была единственная дочь, Риан, от неназванной жены. Белегунд вместе со своим братом сражался в Дагор Браголлах под командованием их дяди Барахира. Они пережили битву, но были отброшены со своей земли. С Барахиром и ещё десятью спутниками он жил изгнанником в Дортонионе, вблизи Тарн Аэлуин.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBelegund&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>51</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>&lt;key&gt;Belemir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.51.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Белемир был сыном Бельдира и мужем Аданэль из дома Мараха. Его сыном был Берен, дед героя Первой Эпохи Берена Эрхамиона. Сказано также, что прежде Берена у него и Аданэль родились ещё четверо детей. В его доме несколько лет жила Андрет, мудрая женщина народа Беора, где она и узнала от Аданэль многие предания эдайн.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Белемир был сыном Бельдира и мужем Аданэль из дома Мараха. Его сыном был Берен, дед героя Первой Эпохи Берена Эрхамиона. Сказано также, что прежде Берена у него и Аданэль родились ещё четверо детей. В его доме несколько лет жила Андрет, мудрая женщина народа Беора, где она и узнала от Аданэль многие предания эдайн.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBelemir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>52</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>&lt;key&gt;Belen&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.52.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Белен (р. 292 П.Э.) — младший сын Беора Старого.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Белен (р. 292 П.Э.) — младший сын Беора Старого.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBelen&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>53</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>&lt;key&gt;Bëor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.53.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Будущий вождь эдайн был рождён в Эриадоре под именем Балан. Он был одним из людей, желавших достичь края Богов на Западе. Вместо со своими сыновьями Беленом и Бараном он повёл свой народ в Белерианд. Прежде, чем пересечь Голубые горы в 310 П.Э., они встретили на своём пути гномов и авари. Именно по гномьему тракту они прошли большую часть пути.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Будущий вождь эдайн был рождён в Эриадоре под именем Балан. Он был одним из людей, желавших достичь края Богов на Западе. Вместо со своими сыновьями Беленом и Бараном он повёл свой народ в Белерианд. Прежде, чем пересечь Голубые горы в 310 П.Э., они встретили на своём пути гномов и авари. Именно по гномьему тракту они прошли большую часть пути.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBëor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>54</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>&lt;key&gt;Bereg&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.54.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Берег был сыном Баранора и правнуком Беора Старого. Он поднял недовольство среди людей, стоявших лагерем в Эстоладе. Тысяча людей поддержали его, и последовали за ним из Белерианда в 369 П.Э..&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Берег был сыном Баранора и правнуком Беора Старого. Он поднял недовольство среди людей, стоявших лагерем в Эстоладе. Тысяча людей поддержали его, и последовали за ним из Белерианда в 369 П.Э..&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBereg&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>55</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>&lt;key&gt;Beregar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.55.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBeregar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>56</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>&lt;key&gt;Beregond&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.56.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Берегонд — 20-й наместник-правитель Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Берегонд — 20-й наместник-правитель Гондора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBeregond&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>57</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>&lt;key&gt;Berelach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.57.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBerelach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>58</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>&lt;key&gt;Beren&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.58.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Берен родился в 432 П. Э. принадлежал к Дому Беора, владевшему Ладросом в Дортонионе.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Берен родился в 432 П. Э. принадлежал к Дому Беора, владевшему Ладросом в Дортонионе.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBeren&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>59</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>&lt;key&gt;Bergil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.59.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBergil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>60</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>&lt;key&gt;Bladorthin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.60.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Бладортин - король людей, упоминаемый в 'Хоббите'.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Бладортин - король людей, упоминаемый в 'Хоббите'.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBladorthin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>61</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>&lt;key&gt;Bór&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.61.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Племя Бора было землевладельцами и многие осели на севере Эриадора, составляя его населения во Вторую и Третью Эпохи. Народ Бора пришёл в Белерианд в 463 году П. Э. Он сам и его сыновья, Борлад, Борлах и Бортанд, были верными союзниками Маэдроса и Маглора. Во время Нирнаэт Арноэдиад, они со своими воинами единственные из истерлингов сохранили верность эльдар. Сыновья Бора пали в той битве, войдя в летописи как 'Верные'.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Племя Бора было землевладельцами и многие осели на севере Эриадора, составляя его населения во Вторую и Третью Эпохи. Народ Бора пришёл в Белерианд в 463 году П. Э. Он сам и его сыновья, Борлад, Борлах и Бортанд, были верными союзниками Маэдроса и Маглора. Во время Нирнаэт Арноэдиад, они со своими воинами единственные из истерлингов сохранили верность эльдар. Сыновья Бора пали в той битве, войдя в летописи как 'Верные'.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBór&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>62</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>&lt;key&gt;Borlach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.62.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Борлах (англ.Borlach) — один из сыновей Бора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Борлах (англ.Borlach) — один из сыновей Бора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBorlach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>63</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>&lt;key&gt;Borlad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.63.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Род Борлада был вассалом Маэдроса и Маглора, старших сыновей Феанора. Он с братьями и отцом сражался в Нирнаэт Арноэдиад, сохранив верность нолдор. Перед тем, как все они были убиты, им удалось сразить сыновей Улфанга.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Род Борлада был вассалом Маэдроса и Маглора, старших сыновей Феанора. Он с братьями и отцом сражался в Нирнаэт Арноэдиад, сохранив верность нолдор. Перед тем, как все они были убиты, им удалось сразить сыновей Улфанга.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBorlad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>64</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>&lt;key&gt;Borlas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.64.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBorlas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>65</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>&lt;key&gt;Boromir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.65.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Боромир — старший сын и наследник наместника Гондора Дэнетора II и его жены Финдуилас, брат Фарамира.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Боромир — старший сын и наследник наместника Гондора Дэнетора II и его жены Финдуилас, брат Фарамира.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBoromir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>66</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>&lt;key&gt;Boron&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.66.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Борон родился в Эстоладе в семье Барана, сына великого вождя Беора Старого. Когда он был ещё ребёнком, его племя покинуло Эстолад и двинулось в Дортонион. В пути родился младший брат Борона, Баранор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Борон родился в Эстоладе в семье Барана, сына великого вождя Беора Старого. Когда он был ещё ребёнком, его племя покинуло Эстолад и двинулось в Дортонион. В пути родился младший брат Борона, Баранор.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBoron&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>67</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>&lt;key&gt;Borondir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.67.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBorondir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>68</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>&lt;key&gt;Borthand&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.68.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;После того, как род Борлаха пересёк Голубые горы,  они стали вассалами Маэдроса и Маглора, старших сыновей Феанора. Бортанд вместе с братьями и отцом сражался в Нирнаэт Арноэдиад, сохранив верность нолдор. Перед тем, как все они были убиты, им удалось сразить сыновей Улфанга .&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;После того, как род Борлаха пересёк Голубые горы,  они стали вассалами Маэдроса и Маглора, старших сыновей Феанора. Бортанд вместе с братьями и отцом сражался в Нирнаэт Арноэдиад, сохранив верность нолдор. Перед тем, как все они были убиты, им удалось сразить сыновей Улфанга .&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBorthand&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>69</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>&lt;key&gt;Brego&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.69.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBrego&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>70</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>&lt;key&gt;Bregolas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.70.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBregolas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>71</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>&lt;key&gt;Bregor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.71.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Брегор (англ.Bregor) — второй правитель Ладроса.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Брегор (англ.Bregor) — второй правитель Ладроса.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBregor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>72</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>&lt;key&gt;Brodda&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.72.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Бродда был человеком из истерлингов, что служили Властелину Тьмы Морготу. Он не пользовался особым почётом среди своего народа до тех пор, пока истерлинги не оккупировали Хитлум. Бродда храбрым, дерзким и жадным до богатства, потому захватил всё добро прежнего владыки Дор-ломина, Хурина и поработил его народ. Бродда также взял Аэрин из дома Хадора в жёны, против её воли, желая обеспечить себя наследником и создать династию. Бродда хотел разграбить и усадьбу Хурина, однако там он встретил Морвен, жену Хурина. В её глазах Бродде померещился беспощадный взгляд белого демона, и испугавшись возможного зла, он оставил её дом нетронутым.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Бродда был человеком из истерлингов, что служили Властелину Тьмы Морготу. Он не пользовался особым почётом среди своего народа до тех пор, пока истерлинги не оккупировали Хитлум. Бродда храбрым, дерзким и жадным до богатства, потому захватил всё добро прежнего владыки Дор-ломина, Хурина и поработил его народ. Бродда также взял Аэрин из дома Хадора в жёны, против её воли, желая обеспечить себя наследником и создать династию. Бродда хотел разграбить и усадьбу Хурина, однако там он встретил Морвен, жену Хурина. В её глазах Бродде померещился беспощадный взгляд белого демона, и испугавшись возможного зла, он оставил её дом нетронутым.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBrodda&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>73</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>&lt;key&gt;Brytta Léofa&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.73.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBrytta Léofa&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>74</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>&lt;key&gt;Calimehtar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.74.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCalimehtar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>75</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>&lt;key&gt;Calimmacil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.75.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Калиммакиль родился в семье Аркирьяса, сына Телумехтара Умбардакиля. О его жизни ничего не известно, в историю королевства он вошёл благодаря тому, что его внук Эарниль, сын Сириондиля, стал королем Гондора после гибели Ондогера и его двух сыновей от рук Истерлингов.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Калиммакиль родился в семье Аркирьяса, сына Телумехтара Умбардакиля. О его жизни ничего не известно, в историю королевства он вошёл благодаря тому, что его внук Эарниль, сын Сириондиля, стал королем Гондора после гибели Ондогера и его двух сыновей от рук Истерлингов.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCalimmacil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>76</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>&lt;key&gt;Caliondo&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.76.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCaliondo&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>77</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>&lt;key&gt;Calmacil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.77.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Калмакиль был сыном Нармакиля I и стал таким же ленивым как он и его старший брат. Его сын Миналькар, не был таким как отец и он служил регентом (то есть исполнял неприятную королевскую работу) и у короля Нармакиля — брата Калмакиля, получил неплохой опыт. Также у Калмакиля был второй сын Калимехтар, чьим потомком является Кастамир Узурпатор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Калмакиль был сыном Нармакиля I и стал таким же ленивым как он и его старший брат. Его сын Миналькар, не был таким как отец и он служил регентом (то есть исполнял неприятную королевскую работу) и у короля Нармакиля — брата Калмакиля, получил неплохой опыт. Также у Калмакиля был второй сын Калимехтар, чьим потомком является Кастамир Узурпатор.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCalmacil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>78</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>&lt;key&gt;Cemendur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.78.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Кемендур (кв. Слуга Земли) — 4-й король Гондора. Кемендур был последним гондорским королём, который родился ещё во Вторую Эпоху.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Кемендур (кв. Слуга Земли) — 4-й король Гондора. Кемендур был последним гондорским королём, который родился ещё во Вторую Эпоху.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCemendur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>79</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>&lt;key&gt;Ceorl&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.79.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCeorl&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>80</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>&lt;key&gt;Cirion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.80.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Кирион - 12-ый наместник-правитель Гондора&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Кирион - 12-ый наместник-правитель Гондора&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCirion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>81</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>&lt;key&gt;Ciryandil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.81.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Кириандиль родился в семье Эарниля, сына принца Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Кириандиль родился в семье Эарниля, сына принца Гондора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCiryandil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>82</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>&lt;key&gt;Ciryatur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.82.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Кирьятур (англ. Ciryatur, в переводе с синд. - владыка кораблей) - адмирал флота Нуменора, посланный Тар-Минастиром в 1700 г. В.Э. против армий Саурона.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Кирьятур (англ. Ciryatur, в переводе с синд. - владыка кораблей) - адмирал флота Нуменора, посланный Тар-Минастиром в 1700 г. В.Э. против армий Саурона.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCiryatur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>83</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>&lt;key&gt;Ciryon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.83.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Кирьон — человек-дунадан, третий сын Исильдура.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Кирьон — человек-дунадан, третий сын Исильдура.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCiryon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>84</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>&lt;key&gt;Corwin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.84.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCorwin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>85</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>&lt;key&gt;Dagnir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.85.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDagnir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>86</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>&lt;key&gt;Dairuin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.86.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDairuin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>87</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>&lt;key&gt;Damrod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.87.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Дамрод - был одним из Итилиенских следопытов и самым надёжным человеком в отряде Фарамира. Компаньон Маблунга. По приказу Фарамира, он и Маблунг присматривали и охраняли Фродо и Сэма во время засады гондорцев на Людей Харада в Итилиене. Дамрод рассказал хоббитам об отношениях Гондора и южных племён. Он также не строил иллюзий насчёт будущего Гондора и Минас Тирита, в частности. Позже, после окончания битвы с Харадрим, Маблунг и Дамрод оставались в качестве охранников при хоббитах в Хеннет Аннун. Дамрод возглавлял ночной патруль, который словил Голлума, ловившего рыбу в Запретном озере Хеннет Аннун.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Дамрод - был одним из Итилиенских следопытов и самым надёжным человеком в отряде Фарамира. Компаньон Маблунга. По приказу Фарамира, он и Маблунг присматривали и охраняли Фродо и Сэма во время засады гондорцев на Людей Харада в Итилиене. Дамрод рассказал хоббитам об отношениях Гондора и южных племён. Он также не строил иллюзий насчёт будущего Гондора и Минас Тирита, в частности. Позже, после окончания битвы с Харадрим, Маблунг и Дамрод оставались в качестве охранников при хоббитах в Хеннет Аннун. Дамрод возглавлял ночной патруль, который словил Голлума, ловившего рыбу в Запретном озере Хеннет Аннун.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDamrod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>88</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>&lt;key&gt;Denethor I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.88.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Дэнетор I – 10-й Наместник Гондора, принявший правление после смерти своего дяди Диора , у которого не было сыновей-наследников. После него стал править наместник Боромир.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Дэнетор I – 10-й Наместник Гондора, принявший правление после смерти своего дяди Диора , у которого не было сыновей-наследников. После него стал править наместник Боромир.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDenethor I&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>89</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>&lt;key&gt;Denethor II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.89.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Дэнетор II (англ.Denethor II) — двадцать шестой наместник-правитель королевства Гондор, отец Боромира и Фарамира.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Дэнетор II (англ.Denethor II) — двадцать шестой наместник-правитель королевства Гондор, отец Боромира и Фарамира.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDenethor II&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>90</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>&lt;key&gt;Déor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.90.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В его правление дундланцы выбили у гондорцев Изенгард, но войска Рохиррим через долгое время освободили крепость, и отдали её Гондору.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;В его правление дундланцы выбили у гондорцев Изенгард, но войска Рохиррим через долгое время освободили крепость, и отдали её Гондору.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDéor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>91</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>&lt;key&gt;Déorwine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.91.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDéorwine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>92</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>&lt;key&gt;Derufin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.92.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDerufin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>93</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>&lt;key&gt;Dervorin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.93.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDervorin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>94</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>&lt;key&gt;Dior&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.94.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Согласно традициям Дома Хурина, Диор получил имя в честь человека Первой Эпохи - Диора, сына Берена и Лутиэн.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Согласно традициям Дома Хурина, Диор получил имя в честь человека Первой Эпохи - Диора, сына Берена и Лутиэн.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDior&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>95</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>&lt;key&gt;Dírhavel&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.95.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDírhavel&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>96</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>&lt;key&gt;Dorlas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.96.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Дорлас — человек из Дома Халет, живший в Первую Эпоху Средиземья.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Дорлас — человек из Дома Халет, живший в Первую Эпоху Средиземья.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDorlas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>97</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>&lt;key&gt;Duilin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.97.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDuilin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>98</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>&lt;key&gt;Duinhir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.98.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDuinhir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>99</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>&lt;key&gt;Dúnhere&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.99.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDúnhere&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>100</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>&lt;key&gt;Eärendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.100.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Был сыном Кемендура — четвёртого короля Гондора, который приходился сыном Менелдиля и внуком Анариона. Родился Эарендиль в 48 году Третьей Эпохи, и стал королём уже в 238 году. Он правил 86 лет и умер в 324 году Т.Э., после чего правление перешло к его сыну, Анардилю.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Был сыном Кемендура — четвёртого короля Гондора, который приходился сыном Менелдиля и внуком Анариона. Родился Эарендиль в 48 году Третьей Эпохи, и стал королём уже в 238 году. Он правил 86 лет и умер в 324 году Т.Э., после чего правление перешло к его сыну, Анардилю.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEärendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>101</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>&lt;key&gt;Eärendur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.101.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эарендур — 15 лорд Андуниэ. Предводитель Верных.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эарендур — 15 лорд Андуниэ. Предводитель Верных.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEärendur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>102</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>&lt;key&gt;Eärnil I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.102.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эарниль родился в семье Таркириана — принца Гондора в 736-ом году Третьей Эпохи. В 830-ом году его дядя развил Гондор, как Морскую Державу и гондорцы захватили контроль над Белфаласом.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эарниль родился в семье Таркириана — принца Гондора в 736-ом году Третьей Эпохи. В 830-ом году его дядя развил Гондор, как Морскую Державу и гондорцы захватили контроль над Белфаласом.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEärnil I&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>103</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>&lt;key&gt;Eärnil II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.103.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эарниль II        Имя:  Эарниль II    Титул:  33-й король Гондора    Раса:  Человек    Культура:  Гондорец, дунэдайн    Пол:  Мужской    Государство:  Гондор    Время жизни:  1883 - 2043 г. Т.Э.(160)    Семья:  Отец — Сириондил сын — Эарнур     Оружие:  Королевский Меч  Эарниль II (кв. Eärnil II) — король Гондора, правил в 1945—2043 гг.  Биография Править Эарниль был сыном Сириондила, который был потомком Аркирьяса сына Телумехтара Умбардакила. В ходе войны с Людьми Повозок в 1944 г. занимал должность главнокомандующего Южной армией Гондора. Сначала Эарниль одержал в Южном Итилиэне победу над войском Харада, перешедшим реку Порос. Затем, совершив марш-бросок на север, он собрал остатки отступающей Северной армии и нанёс сокрушительный удар по главному лагерю Людей Повозок, которые в тот момент пировали и праздновали победу над Гондором. Эарниль напал на лагерь, поджёг повозки и обратил неприятеля в бегство, выдворив его из Итилиэна. Большая часть бежавших сгинула в Мёртвых Топях. После этой блестящей победы наместник Пелендур короновал Эарниля короной королей Гондора. Это решение было горячо поддержано всеми дунэдайн Гондора, так как Эарниль происходил из королевской фамилии, будучи правнуком брата короля Нармакиля II, а также за его отвагу. Не последнюю роль сыграла также поддержка кандидатуры Эарниля Пелендуром. В то же время претензия на престол Арведуи, поданная в тот же период, была отклонена (даже несмотря на его женитьбу на дочери короля Гондора и происхождение по прямой линии от Исильдура) из-за его высокомерия и пренебрежения интересами Гондора. Однако, став королём, Эарниль II (который был дальновидным и умным правителем) отправил Арведуи (тоже ставшему королём Артэдайна) послание, в котором подтверждал добрососедские отношения между двумя государствами и обещал предоставить северянам помощь при необходимости. Скоро такая необходимость возникла: до Гондора дошли вести о том, что Ангмар и его правитель Король-чародей готовятся нанести Артэдайну решающий удар. Эарниль сразу же послал своего сына Эарнура с флотом на север с максимумом войск, которые он мог предоставить для помощи Арведуи. Однако Эарнур опоздал: Арведуи был побежден и бежал на север, где утонул в ледяном заливе Форохел, несмотря на попытки моряков Кирдана спасти его. Однако Эарнур тем не менее уничтожил Ангмар в битве при Форносте с помощью армий эльфов Кирдана из Линдона  и Глорфинделя из Ривенделла. Из-за этого Король-чародей проникся страшной ненавистью к Эарнуру.  В 1980-ом году Т. Э. назгул вернулись в Мордор и собрали огромное войско орков. И в 2000 году войско Мордора вышло. Несмотря на свои военные таланты, Эарнилю пришлось сдать Минас Итиль назгул, которые осаждали город в 2000—2002 гг. После этого поражения Минас Анор (Крепость Солнца) был переименован в Минас Тирит (Крепость-Страж), а Минас Итиль (Крепость Луны) — в Минас Моргул (Колдовская Крепость). Тогда уже во всю шло строительство Барад Дура, он око ещё не зияло на его вершине. Эарниль II умер в 2043 г., оставив трон сыну Эарнуру, не менее талантливому полководцу, но менее дальновидному правителю, чем он сам.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эарниль II        Имя:  Эарниль II    Титул:  33-й король Гондора    Раса:  Человек    Культура:  Гондорец, дунэдайн    Пол:  Мужской    Государство:  Гондор    Время жизни:  1883 - 2043 г. Т.Э.(160)    Семья:  Отец — Сириондил сын — Эарнур     Оружие:  Королевский Меч  Эарниль II (кв. Eärnil II) — король Гондора, правил в 1945—2043 гг.  Биография Править Эарниль был сыном Сириондила, который был потомком Аркирьяса сына Телумехтара Умбардакила. В ходе войны с Людьми Повозок в 1944 г. занимал должность главнокомандующего Южной армией Гондора. Сначала Эарниль одержал в Южном Итилиэне победу над войском Харада, перешедшим реку Порос. Затем, совершив марш-бросок на север, он собрал остатки отступающей Северной армии и нанёс сокрушительный удар по главному лагерю Людей Повозок, которые в тот момент пировали и праздновали победу над Гондором. Эарниль напал на лагерь, поджёг повозки и обратил неприятеля в бегство, выдворив его из Итилиэна. Большая часть бежавших сгинула в Мёртвых Топях. После этой блестящей победы наместник Пелендур короновал Эарниля короной королей Гондора. Это решение было горячо поддержано всеми дунэдайн Гондора, так как Эарниль происходил из королевской фамилии, будучи правнуком брата короля Нармакиля II, а также за его отвагу. Не последнюю роль сыграла также поддержка кандидатуры Эарниля Пелендуром. В то же время претензия на престол Арведуи, поданная в тот же период, была отклонена (даже несмотря на его женитьбу на дочери короля Гондора и происхождение по прямой линии от Исильдура) из-за его высокомерия и пренебрежения интересами Гондора. Однако, став королём, Эарниль II (который был дальновидным и умным правителем) отправил Арведуи (тоже ставшему королём Артэдайна) послание, в котором подтверждал добрососедские отношения между двумя государствами и обещал предоставить северянам помощь при необходимости. Скоро такая необходимость возникла: до Гондора дошли вести о том, что Ангмар и его правитель Король-чародей готовятся нанести Артэдайну решающий удар. Эарниль сразу же послал своего сына Эарнура с флотом на север с максимумом войск, которые он мог предоставить для помощи Арведуи. Однако Эарнур опоздал: Арведуи был побежден и бежал на север, где утонул в ледяном заливе Форохел, несмотря на попытки моряков Кирдана спасти его. Однако Эарнур тем не менее уничтожил Ангмар в битве при Форносте с помощью армий эльфов Кирдана из Линдона  и Глорфинделя из Ривенделла. Из-за этого Король-чародей проникся страшной ненавистью к Эарнуру.  В 1980-ом году Т. Э. назгул вернулись в Мордор и собрали огромное войско орков. И в 2000 году войско Мордора вышло. Несмотря на свои военные таланты, Эарнилю пришлось сдать Минас Итиль назгул, которые осаждали город в 2000—2002 гг. После этого поражения Минас Анор (Крепость Солнца) был переименован в Минас Тирит (Крепость-Страж), а Минас Итиль (Крепость Луны) — в Минас Моргул (Колдовская Крепость). Тогда уже во всю шло строительство Барад Дура, он око ещё не зияло на его вершине. Эарниль II умер в 2043 г., оставив трон сыну Эарнуру, не менее талантливому полководцу, но менее дальновидному правителю, чем он сам.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEärnil II&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>104</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>&lt;key&gt;Eärnur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.104.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эарнур — 34-й король Гондора, сын Эарниля II.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эарнур — 34-й король Гондора, сын Эарниля II.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEärnur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>105</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>&lt;key&gt;Ecthelion I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.105.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эктелион наследовал своему отцу Ородрету, после его смерти в 2685 Т.Э. Он перестроил Белую Башню Минас Тирита, и с тех пор она носит его имя.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эктелион наследовал своему отцу Ородрету, после его смерти в 2685 Т.Э. Он перестроил Белую Башню Минас Тирита, и с тех пор она носит его имя.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEcthelion I&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>106</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>&lt;key&gt;Ecthelion II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.106.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эктелион II (англ.Ecthelion II) — 25-й наместник-правитель Гондора, отец Дэнетора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эктелион II (англ.Ecthelion II) — 25-й наместник-правитель Гондора, отец Дэнетора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEcthelion II&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>107</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>&lt;key&gt;Egalmoth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.107.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эгалмот (англ. Egalmoth) — 18-ый наместник-правитель Гондора&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эгалмот (англ. Egalmoth) — 18-ый наместник-правитель Гондора&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEgalmoth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>108</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>&lt;key&gt;Elanor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.108.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElanor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>109</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>&lt;key&gt;Elatan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.109.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Элатан (англ. Elatan) - предок владык Андуниэ. Элатан родом из гавани Андуниэ на западном побережье Нуменора. Он женился на Сильмариэнь, которая была старшим ребенком Тар-Элендиля из Нуменора. В то время женщины не могли править, так как у Тар-Элендиля был наследник - его младший ребёнок, сын Тар-Менельдур.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Элатан (англ. Elatan) - предок владык Андуниэ. Элатан родом из гавани Андуниэ на западном побережье Нуменора. Он женился на Сильмариэнь, которая была старшим ребенком Тар-Элендиля из Нуменора. В то время женщины не могли править, так как у Тар-Элендиля был наследник - его младший ребёнок, сын Тар-Менельдур.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElatan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>110</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>&lt;key&gt;Elboron&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.110.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Именем Эльборон звался в Ранних и Поздних Анналах Белерианда сын Диора, Элуред, которого слуги Маэдроса бросили умирать в лесу (в поздних версиях слуги Келегорма).&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Именем Эльборон звался в Ранних и Поздних Анналах Белерианда сын Диора, Элуред, которого слуги Маэдроса бросили умирать в лесу (в поздних версиях слуги Келегорма).&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElboron&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>111</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>&lt;key&gt;Eldacar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.111.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эльдакар родился в 1255-ом году Третьей эпохи, в семье Валакара сына Миналькара — регента короля Калмакиля. Эльдакар был сыном Валакара и Видумави — северянки, которая умерла при его родах. Эльдакар родился в Рованионе, именно поэтому некоторые Дунэдайн не хотели признавать его королём.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эльдакар родился в 1255-ом году Третьей эпохи, в семье Валакара сына Миналькара — регента короля Калмакиля. Эльдакар был сыном Валакара и Видумави — северянки, которая умерла при его родах. Эльдакар родился в Рованионе, именно поэтому некоторые Дунэдайн не хотели признавать его королём.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEldacar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>112</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>&lt;key&gt;Eldarion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.112.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эльдарион — сын Арагорна и Арвен. Предположительно Эльдарион родился в 43 году Четвёртой Эпохи. У него было несколько сестер.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эльдарион — сын Арагорна и Арвен. Предположительно Эльдарион родился в 43 году Четвёртой Эпохи. У него было несколько сестер.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEldarion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>113</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>&lt;key&gt;Elendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.113.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эле́ндиль (англ.Elendil | вариант перевода Элендил) — человек-дунадан, сын Амандиля, отец Исильдура и Анариона. Законный наследник королевской династии Властителей Нуменора, после пресечения прямой родовой ветви на короле Ар-Фаразоне. Последний, приходился Элендилю родичем через дальнего предка, четвертого короля Нуменора, Тар-Элендиля.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эле́ндиль (англ.Elendil | вариант перевода Элендил) — человек-дунадан, сын Амандиля, отец Исильдура и Анариона. Законный наследник королевской династии Властителей Нуменора, после пресечения прямой родовой ветви на короле Ар-Фаразоне. Последний, приходился Элендилю родичем через дальнего предка, четвертого короля Нуменора, Тар-Элендиля.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>114</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>&lt;key&gt;Elendur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.114.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Элендур (англ. Elendur) - человек-дунадан, старший сын Исильдура, старший брат Аратана, Кирьона и Валандиля.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Элендур (англ. Elendur) - человек-дунадан, старший сын Исильдура, старший брат Аратана, Кирьона и Валандиля.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElendur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>115</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>&lt;key&gt;Elfhelm&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.115.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эльфхельм — маршал Рохана, изначально охранявший Эдорас и его земли по приказу Теодреда, взявшего на себя правление на время. Теодред во время битвы при Изенских бродах, поняв, что не выстоит, отправил гонца с просьбой о помощи в Эдорас. Эльфхельм привёл помощь, но слишком поздно: Теодред и его отряд пали. Он отбил врагов, и поставил точку во время первой битвы. Несмотря на полководческий талант Эльфхельма, вторая битва была проиграна, и его войска отступили в Эдорас. Именно он и его отряды по указанию Гэндальфа возвели курганы возле Изенских Бродов, а затем вернулись в Эдорас и вскоре вместе с соединённой армией Рохана под командованием короля Теодена выдвинулись на помощь Гондору. Эльфхельм командовал отрядом, к которому изначально были причислены Эовин и Мериадок. Он же возглавил войска Рохана, оставшиеся в Гондоре после битвы.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эльфхельм — маршал Рохана, изначально охранявший Эдорас и его земли по приказу Теодреда, взявшего на себя правление на время. Теодред во время битвы при Изенских бродах, поняв, что не выстоит, отправил гонца с просьбой о помощи в Эдорас. Эльфхельм привёл помощь, но слишком поздно: Теодред и его отряд пали. Он отбил врагов, и поставил точку во время первой битвы. Несмотря на полководческий талант Эльфхельма, вторая битва была проиграна, и его войска отступили в Эдорас. Именно он и его отряды по указанию Гэндальфа возвели курганы возле Изенских Бродов, а затем вернулись в Эдорас и вскоре вместе с соединённой армией Рохана под командованием короля Теодена выдвинулись на помощь Гондору. Эльфхельм командовал отрядом, к которому изначально были причислены Эовин и Мериадок. Он же возглавил войска Рохана, оставшиеся в Гондоре после битвы.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElfhelm&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>116</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>&lt;key&gt;Elfwine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.116.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эльфвин (англ.Elfwine, или Эльфвин Прекрасный англ.Elfwine the Fair) — девятнадцатый король Рохана.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эльфвин (англ.Elfwine, или Эльфвин Прекрасный англ.Elfwine the Fair) — девятнадцатый король Рохана.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElfwine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>117</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>&lt;key&gt;Elphir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.117.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Умер в 67 году Ч.Э. Его наследником стал сын Алфрос.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Умер в 67 году Ч.Э. Его наследником стал сын Алфрос.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElphir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>118</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>&lt;key&gt;Elros&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.118.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Элрос или Эльрос (тронное имя Тар-Миниятур или Тар-Миньятур, также в большинстве русскоязычных переводов-Тар-Миниатар) — первый король Нуменора, сын Эарендиля и Эльвинг, брат Элронда-Полуэльфа.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Элрос или Эльрос (тронное имя Тар-Миниятур или Тар-Миньятур, также в большинстве русскоязычных переводов-Тар-Миниатар) — первый король Нуменора, сын Эарендиля и Эльвинг, брат Элронда-Полуэльфа.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElros&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>119</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>&lt;key&gt;Enthor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.119.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEnthor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>120</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>&lt;key&gt;Éofor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.120.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Предок Эомера и Эовин. Эофор был третьим сыном Короля Рохана Брего. У него было два старших брата Балдор и Алдор. Балдор ушёл Путями Мёртвых и пропал. Алдор наследовал Брего как Король. Эофор жил в Альдбурге в Фолде.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Предок Эомера и Эовин. Эофор был третьим сыном Короля Рохана Брего. У него было два старших брата Балдор и Алдор. Балдор ушёл Путями Мёртвых и пропал. Алдор наследовал Брего как Король. Эофор жил в Альдбурге в Фолде.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascÉofor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>121</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>&lt;key&gt;Éomer&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.121.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Э́омер (англ.Éomer) — сын Эомунда правителя Истволда, брат Эовин и племянник короля Теодена.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Э́омер (англ.Éomer) — сын Эомунда правителя Истволда, брат Эовин и племянник короля Теодена.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascÉomer&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>122</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>&lt;key&gt;Éomund&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.122.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эомунд — во времена королей Тенгеля и Теодена был главой Маршалов Марки, ответственным за охрану восточных границ Рохана. Отец Эомера и Эовин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эомунд — во времена королей Тенгеля и Теодена был главой Маршалов Марки, ответственным за охрану восточных границ Рохана. Отец Эомера и Эовин.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascÉomund&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>123</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>&lt;key&gt;Eorl&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.123.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эорл (англ.Eorl) по прозвищу Юный (англ.the Young) — владыка Эотеода (2501—2510) и первый король Рохана (2510—2545). Был основателем Дома Эорла. Был прозван Юным за то, что стал вождём в возрасте всего шестнадцати лет и сохранил моложавый вид на всю оставшуюся жизнь. В его честь рохиррим называли себя «эорлинги» — «последователи, или сыны Эорла». Конём Эорла был Фелароф, родоначальник великих роханских коней меарас.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эорл (англ.Eorl) по прозвищу Юный (англ.the Young) — владыка Эотеода (2501—2510) и первый король Рохана (2510—2545). Был основателем Дома Эорла. Был прозван Юным за то, что стал вождём в возрасте всего шестнадцати лет и сохранил моложавый вид на всю оставшуюся жизнь. В его честь рохиррим называли себя «эорлинги» — «последователи, или сыны Эорла». Конём Эорла был Фелароф, родоначальник великих роханских коней меарас.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEorl&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>124</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>&lt;key&gt;Éothain&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.124.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascÉothain&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>125</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>&lt;key&gt;Eradan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.125.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Родился в 1999-ом году Третьей Эпохи в семье Мардиля - Наместника тогдашнего короля Гондора Эарниля II. О его жизни до правления известно, что в 2037-ом году у него родился сын - Герион. Также Эрадан был первым наместником в Доме Хурина чьё имя было на синдарине, а не на Квенья как было до этого.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Родился в 1999-ом году Третьей Эпохи в семье Мардиля - Наместника тогдашнего короля Гондора Эарниля II. О его жизни до правления известно, что в 2037-ом году у него родился сын - Герион. Также Эрадан был первым наместником в Доме Хурина чьё имя было на синдарине, а не на Квенья как было до этого.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEradan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>126</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>&lt;key&gt;Erchirion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.126.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascErchirion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>127</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>&lt;key&gt;Erkenbrand&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.127.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эркенбранд - лорд Вестфолда и маршал Рохана.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эркенбранд - лорд Вестфолда и маршал Рохана.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascErkenbrand&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>128</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>&lt;key&gt;Estelmo&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.128.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEstelmo&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>129</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>&lt;key&gt;Faramir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.129.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Фарамир (англ.Faramir) — младший сын наместника Гондора  Денетора II и его жены Финдуилас, брат Боромира. Муж Эовин, отец Эльборона, дед Барахира. Последний правящий Наместник Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Фарамир (англ.Faramir) — младший сын наместника Гондора  Денетора II и его жены Финдуилас, брат Боромира. Муж Эовин, отец Эльборона, дед Барахира. Последний правящий Наместник Гондора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFaramir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>130</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>&lt;key&gt;Fastred&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.130.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFastred&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>131</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>&lt;key&gt;Fhaleen&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.131.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFhaleen&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>132</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>&lt;key&gt;Findegil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.132.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFindegil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>133</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>&lt;key&gt;Folca&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.133.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFolca&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>134</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>&lt;key&gt;Folcred&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.134.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFolcred&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>135</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>&lt;key&gt;Folcwine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.135.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;При нём была восстановлена мощь Рохана. Фолквин наконец освободил западные области (между Адорном и Изеном) захваченные дундланцами, и изгнал их в Дундланд (их страна в Энедвайте). Получив известие о крупном вторжении харадримов на Гондор, Фолквин отправил на помощь к Гондору большое войско. Вняв совету прорицателся, он доверил командование своим сыновьям Фолкреду и Фастреду (родились в 2858 году). Оба победили, но и пали в Итилиенской Битве (2885). Наместник короля Гондора Турин II щедро вознаградил Фолквина за помощь. Его наследником стал его младший сын Фенгель.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;При нём была восстановлена мощь Рохана. Фолквин наконец освободил западные области (между Адорном и Изеном) захваченные дундланцами, и изгнал их в Дундланд (их страна в Энедвайте). Получив известие о крупном вторжении харадримов на Гондор, Фолквин отправил на помощь к Гондору большое войско. Вняв совету прорицателся, он доверил командование своим сыновьям Фолкреду и Фастреду (родились в 2858 году). Оба победили, но и пали в Итилиенской Битве (2885). Наместник короля Гондора Турин II щедро вознаградил Фолквина за помощь. Его наследником стал его младший сын Фенгель.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFolcwine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>136</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>&lt;key&gt;Forlong&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.136.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Форлонг - лорд Лоссарнаха в конце Третьей эпохи. Когда Гондору грозила война, Форлонг привёл 200 своих подданных. Мог привести 2000, но из-за пиратов Умбара, он оставил 1800 оборонять Лоссарнах. Погиб в битве на Пеленнорских полях.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Форлонг - лорд Лоссарнаха в конце Третьей эпохи. Когда Гондору грозила война, Форлонг привёл 200 своих подданных. Мог привести 2000, но из-за пиратов Умбара, он оставил 1800 оборонять Лоссарнах. Погиб в битве на Пеленнорских полях.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascForlong&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>137</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>&lt;key&gt;Forthwini&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.137.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascForthwini&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>138</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>&lt;key&gt;Forweg&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.138.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascForweg&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>139</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>&lt;key&gt;Fram&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.139.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Сокровища, найденные в логове Ската, стали причиной распри между Эотеод и гномами. Гномы Серых Гор, некогда ограбленные драконом, потребовали свою долю в сокровищах. Фрам вместо этого отослал им ожерелье из зубов дракона со словами:&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Сокровища, найденные в логове Ската, стали причиной распри между Эотеод и гномами. Гномы Серых Гор, некогда ограбленные драконом, потребовали свою долю в сокровищах. Фрам вместо этого отослал им ожерелье из зубов дракона со словами:&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFram&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>140</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>&lt;key&gt;Fréa&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.140.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFréa&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>141</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>&lt;key&gt;Fréaláf Hildeson&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.141.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Фреалаф (англ. Fréaláf Hildeson) — 10-й король Рохана. Родоначальник Второй ветви королей Рохана. После долгой зимы ему пришлось восстанавливать очень ослабленный Рохан. Именно в его правление гондорцы убрали свои гарнизоны из Изенгарда и поселили там волшебника Сарумана. Король дружески относился к новому соседу.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Фреалаф (англ. Fréaláf Hildeson) — 10-й король Рохана. Родоначальник Второй ветви королей Рохана. После долгой зимы ему пришлось восстанавливать очень ослабленный Рохан. Именно в его правление гондорцы убрали свои гарнизоны из Изенгарда и поселили там волшебника Сарумана. Король дружески относился к новому соседу.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFréaláf Hildeson&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>142</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>&lt;key&gt;Fréawine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.142.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Умер в возрасте 86-ти лет. Ему наследовал его сын Голдвин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Умер в возрасте 86-ти лет. Ему наследовал его сын Голдвин.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFréawine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>143</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>&lt;key&gt;Frumgar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.143.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Фрумгар — вождь Эотеод. В своё время он повёл все племена Эотеод на север Средиземья. У него был сын Фрам, убивший дракона Ската.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Фрумгар — вождь Эотеод. В своё время он повёл все племена Эотеод на север Средиземья. У него был сын Фрам, убивший дракона Ската.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFrumgar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>144</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>&lt;key&gt;Galador&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.144.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Когда в Мории пробудился балрог, Митреллас и Нимродэль, как и многие другие эльфы, отправились в 1980 г. Т.Э. к морю, чтобы уплыть в Валинор. Однако по дороге они заблудились в Белых Горах и потеряли друг друга. Митреллас была найдена человеком из спасшихся в Средиземье нуменорцев, Имразором. Он приютил её и она стала его женой, родив ему сына Галадора и дочь Гильмит.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Когда в Мории пробудился балрог, Митреллас и Нимродэль, как и многие другие эльфы, отправились в 1980 г. Т.Э. к морю, чтобы уплыть в Валинор. Однако по дороге они заблудились в Белых Горах и потеряли друг друга. Митреллас была найдена человеком из спасшихся в Средиземье нуменорцев, Имразором. Он приютил её и она стала его женой, родив ему сына Галадора и дочь Гильмит.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGalador&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>145</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>&lt;key&gt;Galdor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.145.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Галдор родился в Дор-ломине, в 417 г. П. Э. Женился на Харет из халадин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Галдор родился в Дор-ломине, в 417 г. П. Э. Женился на Харет из халадин.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGaldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>146</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>&lt;key&gt;Gálmód&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.146.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGálmód&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>147</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>&lt;key&gt;Gamling&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.147.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Гамлинг — человек из Рохана, уроженец Вестфолда. Старый комендант Хорнбурга, до прихода королевского войска возглавлявший осаждённое в нём местное ополчение, в рядах которого состоял и его внук. Во время штурма он возглавил оборону водостока под стеной, а когда стена была взорвана «пробойным огнём Ортанка», отступил вместе с Эомером, Гимли и уцелевшими воинами в Блистающие Пещеры Агларонда, где они обороняли узкий проход до рассвета. В соответствии с книгой оставался в Хорнбурге, но в экранизации Питера Джексона Гамлинг также принимал участие в битве на Пеленнорских полях.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Гамлинг — человек из Рохана, уроженец Вестфолда. Старый комендант Хорнбурга, до прихода королевского войска возглавлявший осаждённое в нём местное ополчение, в рядах которого состоял и его внук. Во время штурма он возглавил оборону водостока под стеной, а когда стена была взорвана «пробойным огнём Ортанка», отступил вместе с Эомером, Гимли и уцелевшими воинами в Блистающие Пещеры Агларонда, где они обороняли узкий проход до рассвета. В соответствии с книгой оставался в Хорнбурге, но в экранизации Питера Джексона Гамлинг также принимал участие в битве на Пеленнорских полях.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGamling&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>148</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>&lt;key&gt;Gárulf&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.148.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGárulf&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>149</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>&lt;key&gt;Gethron&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.149.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGethron&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>150</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>&lt;key&gt;Gildor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.150.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGildor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>151</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>&lt;key&gt;Gimilkhâd&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.151.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Гимильхад — младший сын Ар-Гимильзора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Гимильхад — младший сын Ар-Гимильзора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGimilkhâd&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>152</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>&lt;key&gt;Gimilzagar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.152.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGimilzagar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>153</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>&lt;key&gt;Girion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.153.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В 2770 году, когда дракон Смауг напал на Одинокую Гору, город Дейл был разрушен. Гирион погиб, но его жена и сын спаслись, спустившись по Бегущей в Озёрный город. Многие из королевских сокровищ — в том числе кольчуга и ожерелье — были захвачены Смаугом, став частью его запасов. Ожерелье в итоге было подарено Даином Барду, а затем Трандуилу. Судьба кольчуги неизвестна — возможно, именно она досталась Бильбо). Позже гномы вернули Барду часть золота, на которые он отстроил Дэйл и Эсгарот.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;В 2770 году, когда дракон Смауг напал на Одинокую Гору, город Дейл был разрушен. Гирион погиб, но его жена и сын спаслись, спустившись по Бегущей в Озёрный город. Многие из королевских сокровищ — в том числе кольчуга и ожерелье — были захвачены Смаугом, став частью его запасов. Ожерелье в итоге было подарено Даином Барду, а затем Трандуилу. Судьба кольчуги неизвестна — возможно, именно она досталась Бильбо). Позже гномы вернули Барду часть золота, на которые он отстроил Дэйл и Эсгарот.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGirion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>154</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>&lt;key&gt;Gléowine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.154.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGléowine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>155</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>&lt;key&gt;Glirhuin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.155.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGlirhuin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>156</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>&lt;key&gt;Golasgil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.156.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGolasgil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>157</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>&lt;key&gt;Goldwine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.157.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Голдвин умер в 2699 г. после девятнадцати лет правления. Ему наследовал сын Деор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Голдвин умер в 2699 г. после девятнадцати лет правления. Ему наследовал сын Деор.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGoldwine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>158</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>&lt;key&gt;Gorlim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.158.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Горлим (англ.Gorlim), также известный как Горлим Несчастный (англ.Gorlim the Unhappy) — сын Ангрима, один из двенадцати спутников Барахира. В «Песни Лейтиан» говорится о том, как Барахир, последний владыка людей Ладроса (Дортониона) остался отверженным в собственной стране после её падения под ударами войск Моргота в Дагор Браголлах.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Горлим (англ.Gorlim), также известный как Горлим Несчастный (англ.Gorlim the Unhappy) — сын Ангрима, один из двенадцати спутников Барахира. В «Песни Лейтиан» говорится о том, как Барахир, последний владыка людей Ладроса (Дортониона) остался отверженным в собственной стране после её падения под ударами войск Моргота в Дагор Браголлах.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGorlim&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>159</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>&lt;key&gt;Gram&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.159.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Грам - 8-й король Рохана. Сын Де́ора, внук Голдвина, отец Хельма Молоторукого и Хильд. Дед Фреалафа. Последний умерший своей смертью король Рохана Первой Ветви.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Грам - 8-й король Рохана. Сын Де́ора, внук Голдвина, отец Хельма Молоторукого и Хильд. Дед Фреалафа. Последний умерший своей смертью король Рохана Первой Ветви.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGram&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>160</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>&lt;key&gt;Gríma Wormtongue&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.160.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Грима по прозвищу Червеуст (англ.Gríma, called (the) Wormtongue, в переводах также Червослов, Гнилоуст, Змеиный Язык) — персонаж трилогии Толкина «Властелин Колец». Имя «Гнилоуст» символизирует пагубное, вводящее в заблуждение, красноречие, демагогию, качество, в высшей степени присущее и хозяину Гримы — Саруману.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Грима по прозвищу Червеуст (англ.Gríma, called (the) Wormtongue, в переводах также Червослов, Гнилоуст, Змеиный Язык) — персонаж трилогии Толкина «Властелин Колец». Имя «Гнилоуст» символизирует пагубное, вводящее в заблуждение, красноречие, демагогию, качество, в высшей степени присущее и хозяину Гримы — Саруману.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGríma Wormtongue&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>161</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>&lt;key&gt;Grimbold&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.161.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Гримбольд — капитан Рохана, уроженец Вестфолда, который участвовал в битве при Изенских бродах, командуя арьергардом. Во время боя он пытался прийти на помощь молодому Теодреду, но опоздал, и Теодред погиб у него на глазах. Гримбольд дождался помощи от Эльфхельма, защищая тело Теодреда. Был оттеснён во второй битве при Изенских бродах и возглавил второй отряд, который понёс огромный урон, защищая Броды, и, будучи отрезанным от отряда Эльфхельма, с небольшой группой воинов отступил в Эдорас. После битвы при Хорнбурге и возвращения Теодена в Эдорас соединился с его войсками и выдвинулся на помощь Гондору. По замыслу короля возглавлял левофланговый отряд в битве при Пеленнорских полях и пал во время этой битвы, столкнувшись с отрядом мумакилов.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Гримбольд — капитан Рохана, уроженец Вестфолда, который участвовал в битве при Изенских бродах, командуя арьергардом. Во время боя он пытался прийти на помощь молодому Теодреду, но опоздал, и Теодред погиб у него на глазах. Гримбольд дождался помощи от Эльфхельма, защищая тело Теодреда. Был оттеснён во второй битве при Изенских бродах и возглавил второй отряд, который понёс огромный урон, защищая Броды, и, будучи отрезанным от отряда Эльфхельма, с небольшой группой воинов отступил в Эдорас. После битвы при Хорнбурге и возвращения Теодена в Эдорас соединился с его войсками и выдвинулся на помощь Гондору. По замыслу короля возглавлял левофланговый отряд в битве при Пеленнорских полях и пал во время этой битвы, столкнувшись с отрядом мумакилов.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGrimbold&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>162</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>&lt;key&gt;Grithnir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.162.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGrithnir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>163</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>&lt;key&gt;Gundor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.163.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Гундор родился в 419 году Первой Эпохи и был младшим из детей Хадора Златовласого, правителя Дор-ломина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Гундор родился в 419 году Первой Эпохи и был младшим из детей Хадора Златовласого, правителя Дор-ломина.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGundor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>164</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>&lt;key&gt;Guthláf&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.164.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGuthláf&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>165</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>&lt;key&gt;Hador&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.165.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хадор родился в семье вождя Племени Мараха - Хатола. В юности он оказался при дворе Верховного короля нолдор-изгнанников, Финголфина, став его вассалом.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Хадор родился в семье вождя Племени Мараха - Хатола. В юности он оказался при дворе Верховного короля нолдор-изгнанников, Финголфина, став его вассалом.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHador&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>166</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>&lt;key&gt;Haldad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.166.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Халдад (Haldad) - человек из племени халадин, отец Халет и Халдара.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Халдад (Haldad) - человек из племени халадин, отец Халет и Халдара.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHaldad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>167</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>&lt;key&gt;Haldan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.167.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Халдан - человек-адан из Халадин, их вождь в Первую Эпоху. Сын Халдара, внук Халдада и племянник Халет.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Халдан - человек-адан из Халадин, их вождь в Первую Эпоху. Сын Халдара, внук Халдада и племянник Халет.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHaldan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>168</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>&lt;key&gt;Haldar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.168.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Халдар (англ.Haldar) — человек из племени халадин, сын Халдада, брат-близнец Халет, отец Халдана.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Халдар (англ.Haldar) — человек из племени халадин, сын Халдада, брат-близнец Халет, отец Халдана.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHaldar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>169</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>&lt;key&gt;Hallacar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.169.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHallacar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>170</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>&lt;key&gt;Hallas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.170.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Халлас родился в 2480 году Т.Э в семье Кириона. Тогда Гондором правил Боромир, его дед. Во время войны с Балхотами в 2510 Т.Э , Кирион поручил сыну управлять Минас Тиритом, пока сам находился с армией на севере сражаясь с ними. И в результате неожиданной победы в Битве на Полях Келебранта, Халлас был свидетелем того, как Кирион принёс в дар Эорлу Юному и его народу земли Келенардона, впредь называемые Рохан. В результате чего територия Гондора уменьшилась в два раза, но в лице Рохана Дунэдайн получили мощного союзника на севере.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Халлас родился в 2480 году Т.Э в семье Кириона. Тогда Гондором правил Боромир, его дед. Во время войны с Балхотами в 2510 Т.Э , Кирион поручил сыну управлять Минас Тиритом, пока сам находился с армией на севере сражаясь с ними. И в результате неожиданной победы в Битве на Полях Келебранта, Халлас был свидетелем того, как Кирион принёс в дар Эорлу Юному и его народу земли Келенардона, впредь называемые Рохан. В результате чего територия Гондора уменьшилась в два раза, но в лице Рохана Дунэдайн получили мощного союзника на севере.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHallas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>171</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>&lt;key&gt;Hallatan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.171.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHallatan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>172</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>&lt;key&gt;Halmir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.172.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Халмир был вождём халадин, когда Моргот возобновил войну с эльфами и их союзниками, эдайн, начав битву Дагор Браголлах, и говорят, что деяния его народа вспоминали с почётом. Они жили на севере Белерианда, в лесу Бретиль, и изначально не были затронуты войной. Однако орки дошли до них после падения Минас Тирита, и даже тогда люди Бретиля не согласились покинуть свои дома, а Халмир послал известие Тинголу, королю Дориата, ибо дружил он с эльфами, охранявшими те земли. Тингол послал ему эльфов-синдар, вооружённых топорами, во главе с Белегом Могучим Луком, и вместе с силами Халмира они разгромили орков. После этого орки не осмеливались переходить Тейглин, и народ Халет жил в бдительном мире в Бретиле, и Нарготронд получил передышку.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Халмир был вождём халадин, когда Моргот возобновил войну с эльфами и их союзниками, эдайн, начав битву Дагор Браголлах, и говорят, что деяния его народа вспоминали с почётом. Они жили на севере Белерианда, в лесу Бретиль, и изначально не были затронуты войной. Однако орки дошли до них после падения Минас Тирита, и даже тогда люди Бретиля не согласились покинуть свои дома, а Халмир послал известие Тинголу, королю Дориата, ибо дружил он с эльфами, охранявшими те земли. Тингол послал ему эльфов-синдар, вооружённых топорами, во главе с Белегом Могучим Луком, и вместе с силами Халмира они разгромили орков. После этого орки не осмеливались переходить Тейглин, и народ Халет жил в бдительном мире в Бретиле, и Нарготронд получил передышку.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHalmir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>173</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>&lt;key&gt;Háma&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.173.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В экранизации Питера Джексона Хама погиб во время сражения с авангардом Сарумана - орками на варгах.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;В экранизации Питера Джексона Хама погиб во время сражения с авангардом Сарумана - орками на варгах.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHáma&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>174</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>&lt;key&gt;Handir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.174.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ха́ндир (Handir) - сын Халдира и Глорэдели, муж Бельдис, отец Брандира Хромого.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Ха́ндир (Handir) - сын Халдира и Глорэдели, муж Бельдис, отец Брандира Хромого.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHandir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>175</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>&lt;key&gt;Hardang&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.175.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Харданг (англ.Hardang) — вождь людей Бретиля в Первую Эпоху.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Харданг (англ.Hardang) — вождь людей Бретиля в Первую Эпоху.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHardang&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>176</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>&lt;key&gt;Harding&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.176.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хардинг  (англ.Harding) — человек Рохана во времена Войны Кольца. Он сражался и погиб в битве на Пеленнорских полях. Его имя упомянуто в песне роханского менестреля о курганах под Минас Тиритом.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Хардинг  (англ.Harding) — человек Рохана во времена Войны Кольца. Он сражался и погиб в битве на Пеленнорских полях. Его имя упомянуто в песне роханского менестреля о курганах под Минас Тиритом.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHarding&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>177</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>&lt;key&gt;Hathaldir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.177.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHathaldir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>178</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>&lt;key&gt;Hathol&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.178.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHathol&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>179</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>&lt;key&gt;Hatholdir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.179.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хатолдир - нуменорец, потомок Дома Хадора, отец Орхалдора, дед Соронто. Приходился близким другом Менельдуру.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Хатолдир - нуменорец, потомок Дома Хадора, отец Орхалдора, дед Соронто. Приходился близким другом Менельдуру.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHatholdir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>180</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>&lt;key&gt;Henderch&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.180.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHenderch&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>181</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>&lt;key&gt;Herefara&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.181.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHerefara&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>182</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>&lt;key&gt;Herion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.182.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Герион родился в семье Эрадана, сына наместника-правителя Мардиля в 2037-ом году Т.Э.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Герион родился в семье Эрадана, сына наместника-правителя Мардиля в 2037-ом году Т.Э.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHerion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>183</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>&lt;key&gt;Herubrand&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.183.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHerubrand&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>184</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>&lt;key&gt;Herucalmo&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.184.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Родился Херукальмо в 2286 году Второй Эпохи. Имена его родители неизвестны, известно лишь что он был из рода Элроса, так как был потомком неизвестного ребенка короля Тар-Атанамира .&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Родился Херукальмо в 2286 году Второй Эпохи. Имена его родители неизвестны, известно лишь что он был из рода Элроса, так как был потомком неизвестного ребенка короля Тар-Атанамира .&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHerucalmo&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>185</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>&lt;key&gt;Hirgon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.185.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHirgon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>186</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>&lt;key&gt;Hirluin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.186.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHirluin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>187</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>&lt;key&gt;Horn&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.187.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHorn&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>188</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>&lt;key&gt;Hundad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.188.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHundad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>189</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>&lt;key&gt;Hundar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.189.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHundar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>190</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>&lt;key&gt;Hunthor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.190.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хунтор (англ.Hunthor) — человек из Дома Халет, живший в Первую Эпоху в лесу Бретиль, брат Мантора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Хунтор (англ.Hunthor) — человек из Дома Халет, живший в Первую Эпоху в лесу Бретиль, брат Мантора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHunthor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>191</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>&lt;key&gt;Huor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.191.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хуор родился в 442 году Первой Эпохи, вторым ребёнком в семье Харет и Галдора - принца Дор-ломина, его старшим братом был Хурин, родившийся тремя годами ранее. Иногда они с братом и отцом ездили в Дортонион и оба они подружились с Береном Эрхамионом. Когда братья подросли, отец отдал их на воспитание в Бретиль, к брату их матери (своему дяде), Халдиру.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Хуор родился в 442 году Первой Эпохи, вторым ребёнком в семье Харет и Галдора - принца Дор-ломина, его старшим братом был Хурин, родившийся тремя годами ранее. Иногда они с братом и отцом ездили в Дортонион и оба они подружились с Береном Эрхамионом. Когда братья подросли, отец отдал их на воспитание в Бретиль, к брату их матери (своему дяде), Халдиру.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHuor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>192</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>&lt;key&gt;Húrin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.192.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хурин Талион (англ.Húrin Thalion) — король Дор-ломина, отец Турина Турамбара, сын Галдора и Харет, старший брат Хуора. Один из славнейших воинов-людей Древности.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Хурин Талион (англ.Húrin Thalion) — король Дор-ломина, отец Турина Турамбара, сын Галдора и Харет, старший брат Хуора. Один из славнейших воинов-людей Древности.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHúrin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>193</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>&lt;key&gt;Húrin I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.193.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хурин I был, вероятно, назван в честь Хурина Талиона, одного из героев Эдайн в Первую Эпоху. В Доме Хурина l было принято называть сыновей в честь легендарных героев прошлого.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Хурин I был, вероятно, назван в честь Хурина Талиона, одного из героев Эдайн в Первую Эпоху. В Доме Хурина l было принято называть сыновей в честь легендарных героев прошлого.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHúrin I&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>194</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>&lt;key&gt;Húrin II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.194.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;О его правлении мало что известно, скорее всего оно было относительно спокойным. Хурин правил Гондором как Наместник двадцать три года, и после смерти ему наследовал его сын, Белектор I.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;О его правлении мало что известно, скорее всего оно было относительно спокойным. Хурин правил Гондором как Наместник двадцать три года, и после смерти ему наследовал его сын, Белектор I.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHúrin II&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>195</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>&lt;key&gt;Hyarmendacil I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.195.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хьярмендакиль I, он же Кирьягер (кв. Hyarmendacil I (Ciryaher) | Варианты перевода: Хиармендакил, Хиярмендакил) — 15-й Король Гондора, также четвертый и последний 'Морской Король'.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Хьярмендакиль I, он же Кирьягер (кв. Hyarmendacil I (Ciryaher) | Варианты перевода: Хиармендакил, Хиярмендакил) — 15-й Король Гондора, также четвертый и последний 'Морской Король'.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHyarmendacil I&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>196</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>&lt;key&gt;Hyarmendacil II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.196.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Виньярион родился в семье Альдамира в 1321-ом году Т. Э.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Виньярион родился в семье Альдамира в 1321-ом году Т. Э.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHyarmendacil II&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>197</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>&lt;key&gt;Îbal&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.197.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascÎbal&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>198</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>&lt;key&gt;Imlach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.198.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascImlach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>199</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>&lt;key&gt;Imrahil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.199.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Имрахиль (англ.Imrahil) — лорд гондорской крепости Дол Амрот, родственник наместников Гондора и один из величайших воинов Средиземья. Имрахиль командовал армией Гондора во время Войны Кольца и участвовал в битве на Пеленнорских полях.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Имрахиль (англ.Imrahil) — лорд гондорской крепости Дол Амрот, родственник наместников Гондора и один из величайших воинов Средиземья. Имрахиль командовал армией Гондора во время Войны Кольца и участвовал в битве на Пеленнорских полях.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascImrahil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>200</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>&lt;key&gt;Imrazôr&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.200.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Имразор  (англ.Imrazor) — человек нуменорского происхождения. Супруг Митреллас и отец первого лорда Дол Амрота, Галадора. Один из немногих людей в истории Арды, взявших в жёны эльфийку.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Имразор  (англ.Imrazor) — человек нуменорского происхождения. Супруг Митреллас и отец первого лорда Дол Амрота, Галадора. Один из немногих людей в истории Арды, взявших в жёны эльфийку.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascImrazôr&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>201</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>&lt;key&gt;Indor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.201.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIndor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>202</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>&lt;key&gt;Ingold&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.202.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIngold&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>203</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>&lt;key&gt;Iorlas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.203.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIorlas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>204</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>&lt;key&gt;Isildur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.204.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIsildur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>205</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>&lt;key&gt;Isilmo&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.205.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Исильмо (англ.Isilmo) — младший брат королевы Тар-Тэлпериэн. Королева отказалась от замужества и осталась бездетной, престол Нуменора после её смерти унаследовал сын Исильмо Тар-Минастир, предположительно из-за того, что Исильмо к тому времени уже умер или был слишком старым, чтобы взойти на престол.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Исильмо (англ.Isilmo) — младший брат королевы Тар-Тэлпериэн. Королева отказалась от замужества и осталась бездетной, престол Нуменора после её смерти унаследовал сын Исильмо Тар-Минастир, предположительно из-за того, что Исильмо к тому времени уже умер или был слишком старым, чтобы взойти на престол.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIsilmo&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>206</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>&lt;key&gt;Khamûl&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.206.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Единственный из Девяти, чьё имя упомянуто Толкином (в произведении Неоконченные сказания Нуменора и Средиземья в главе «Охота за Кольцом»)&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Единственный из Девяти, чьё имя упомянуто Толкином (в произведении Неоконченные сказания Нуменора и Средиземья в главе «Охота за Кольцом»)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascKhamûl&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>207</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>&lt;key&gt;Larnach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.207.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascLarnach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>208</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>&lt;key&gt;Léod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.208.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В 2485 г. Т.Э. у Леода родился сын Эорл. Однажды, когда Эорл уже был юношей, Леод поймал белого жеребёнка из породы меарас, который быстро вырос в величественного гордого коня. Он не смирился с неволей и никого к себе не подпускал. Когда Леоду всё-таки удалось оседлать норовливого скакуна, тот понёс его прочь и долго скакал по степи, пока в конце концов не сбросил вождя и тот упал, разбил голову о камни и умер. После этого Эорл долго охотился на коня чтобы отомстить за отца. И когда он всё-таки настиг белого гордеца то, вопреки ожиданиям, не убил его, а встал во весь рост и призвал коня верно служить ему, что будет платой за убитого отца. Эорл нарёк его Феларофом и всегда ездил на нём без узды и поводьев.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;В 2485 г. Т.Э. у Леода родился сын Эорл. Однажды, когда Эорл уже был юношей, Леод поймал белого жеребёнка из породы меарас, который быстро вырос в величественного гордого коня. Он не смирился с неволей и никого к себе не подпускал. Когда Леоду всё-таки удалось оседлать норовливого скакуна, тот понёс его прочь и долго скакал по степи, пока в конце концов не сбросил вождя и тот упал, разбил голову о камни и умер. После этого Эорл долго охотился на коня чтобы отомстить за отца. И когда он всё-таки настиг белого гордеца то, вопреки ожиданиям, не убил его, а встал во весь рост и призвал коня верно служить ему, что будет платой за убитого отца. Эорл нарёк его Феларофом и всегда ездил на нём без узды и поводьев.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascLéod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>209</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>&lt;key&gt;Lorgan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.209.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Лорган (англ.Lorgan) — вождь Истерлингов, которые оккупировали Хитлум после победы сил Моргота в Нирнаэт Арноэдиад. Объявил Дор-ломин и весь Хитлум ленным владением под сюзеренитетом Моргота. Лорган пленил и обратил в рабство Туора, но с ним обращались лучше, чем с другими невольниками, поскольку «Лорган хорошо кормил свой рабочий скот, пока он был молод и мог трудиться»[1]. В конце концов Туор бежал и развернул против бывшего хозяина настоящую партизанскую войну, так что Лорган установил за его голову высокую награду. Лорган также замышлял взять в жёны Ниэнор, прослышав о её красоте, и это ускорило её отъезд из Дор-ломина[2]. Хурин пришёл к Лоргану после того, как Моргот освободил его, чтобы «освободиться от обязанностей владыки Дор-ломина». Но Лорган «был настороже, будучи хитрее и злее других» и понял замысел Моргота относительно Хурина, после чего позволил ему уйти свободно, предсказав злую судьбу, ожидавшую его[2].&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Лорган (англ.Lorgan) — вождь Истерлингов, которые оккупировали Хитлум после победы сил Моргота в Нирнаэт Арноэдиад. Объявил Дор-ломин и весь Хитлум ленным владением под сюзеренитетом Моргота. Лорган пленил и обратил в рабство Туора, но с ним обращались лучше, чем с другими невольниками, поскольку «Лорган хорошо кормил свой рабочий скот, пока он был молод и мог трудиться»[1]. В конце концов Туор бежал и развернул против бывшего хозяина настоящую партизанскую войну, так что Лорган установил за его голову высокую награду. Лорган также замышлял взять в жёны Ниэнор, прослышав о её красоте, и это ускорило её отъезд из Дор-ломина[2]. Хурин пришёл к Лоргану после того, как Моргот освободил его, чтобы «освободиться от обязанностей владыки Дор-ломина». Но Лорган «был настороже, будучи хитрее и злее других» и понял замысел Моргота относительно Хурина, после чего позволил ему уйти свободно, предсказав злую судьбу, ожидавшую его[2].&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascLorgan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>210</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>&lt;key&gt;Madril&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.210.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMadril&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>211</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>&lt;key&gt;Magor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.211.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Магор был предводителем своего народа, при переселении из Эстолада в долины к южным склонам гор Эред Ветрин. Жил у истоков реки Тейглин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Магор был предводителем своего народа, при переселении из Эстолада в долины к южным склонам гор Эред Ветрин. Жил у истоков реки Тейглин.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMagor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>212</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>&lt;key&gt;Malach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.212.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMalach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>213</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>&lt;key&gt;Malantur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.213.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMalantur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>214</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>&lt;key&gt;Malloc&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.214.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMalloc&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>215</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>&lt;key&gt;Manthor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.215.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Мантор (англ.Manthor) — владыка народа Халет в Первую Эпоху. Был внуком Хириль из Дома Халет, его родителями были Мелет и Агатор, а братом — Хунтор, погибший в ущелье Тейглина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Мантор (англ.Manthor) — владыка народа Халет в Первую Эпоху. Был внуком Хириль из Дома Халет, его родителями были Мелет и Агатор, а братом — Хунтор, погибший в ущелье Тейглина.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascManthor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>216</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>&lt;key&gt;Manwendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.216.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascManwendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>217</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>&lt;key&gt;Marach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.217.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Марах был предводителем одного из трёх племён людей, пришедших в Белерианд. В следствии своей многочисленности, народ Мараха шёл медленно и появился в Белерианде в 314 г. П. Э. последним (их опередили Племя Беора и Халадин). Народ Мараха был воинственным и лаиквенди, которые не желали видеть чужаков в своей земле, не посмели им препятствовать.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Марах был предводителем одного из трёх племён людей, пришедших в Белерианд. В следствии своей многочисленности, народ Мараха шёл медленно и появился в Белерианде в 314 г. П. Э. последним (их опередили Племя Беора и Халадин). Народ Мараха был воинственным и лаиквенди, которые не желали видеть чужаков в своей земле, не посмели им препятствовать.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMarach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>218</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>&lt;key&gt;Mardil Voronwë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.218.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMardil Voronwë&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>219</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>&lt;key&gt;Marhari&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.219.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMarhari&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>220</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>&lt;key&gt;Marhwini&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.220.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Основатель и первый вождь Эотеда, предок королей Рохана. Имел единственного сына - Фортвини.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Основатель и первый вождь Эотеда, предок королей Рохана. Имел единственного сына - Фортвини.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMarhwini&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>221</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>&lt;key&gt;Mektar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.221.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMektar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>222</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>&lt;key&gt;Meneldil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.222.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Менелдиль (англ. Meneldil | варианты перевода: Менельдил, Менелдил) — третий король Гондора, четвёртый сын Анариона.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Менелдиль (англ. Meneldil | варианты перевода: Менельдил, Менелдил) — третий король Гондора, четвёртый сын Анариона.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMeneldil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>223</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>&lt;key&gt;Minardil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.223.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Минардиль родился в 1454 году Т.Э. в семье Виньяриона сына принца Гондора. Тогда правил Гондором король Эльдакар.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Минардиль родился в 1454 году Т.Э. в семье Виньяриона сына принца Гондора. Тогда правил Гондором король Эльдакар.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMinardil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>224</v>
       </c>
@@ -13932,7 +13932,7 @@
         <v>&lt;key&gt;Minastan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.224.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMinastan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>225</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>&lt;key&gt;Minohtar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.225.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Минохтар - племянник короля Ондогера и командующий правого крыла северной армии Гондора в битве при Моранноне.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Минохтар - племянник короля Ондогера и командующий правого крыла северной армии Гондора в битве при Моранноне.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMinohtar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>226</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>&lt;key&gt;Morgomir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.226.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMorgomir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>227</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>&lt;key&gt;Narmacil I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.227.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascNarmacil I&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>228</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>&lt;key&gt;Narmacil II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.228.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Нармакиль родился в 1684 Т.Э. в семье Телумехтара — принца Гондора, тогда правил его дед Тарондор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Нармакиль родился в 1684 Т.Э. в семье Телумехтара — принца Гондора, тогда правил его дед Тарондор.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascNarmacil II&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>229</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>&lt;key&gt;Nolondil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.229.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascNolondil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>230</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>&lt;key&gt;Númendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.230.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascNúmendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>231</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>&lt;key&gt;Ohtar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.231.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Охтар — оруженосец Исильдура. Охтар был один из трёх выживших людей во время битвы в Ирисных Низинах. Он взял с собой обломки меча Элендиля, Нарсиля, и благополучно принёс их в Ривенделл.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Охтар — оруженосец Исильдура. Охтар был один из трёх выживших людей во время битвы в Ирисных Низинах. Он взял с собой обломки меча Элендиля, Нарсиля, и благополучно принёс их в Ривенделл.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOhtar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>232</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>&lt;key&gt;Ondoher&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.232.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ондогер (кв. Ondoher, правильное произношение имени — Ондохэр) — 31-й король Гондора, сын Калимехтара.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Ондогер (кв. Ondoher, правильное произношение имени — Ондохэр) — 31-й король Гондора, сын Калимехтара.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOndoher&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>233</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>&lt;key&gt;Orchaldor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.233.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Орхалдор — нуменорец, сын Хатолдира, потомок Дома Хадора, его женой была Айлинель, у них был сын Соронто.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Орхалдор — нуменорец, сын Хатолдира, потомок Дома Хадора, его женой была Айлинель, у них был сын Соронто.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOrchaldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>234</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>&lt;key&gt;Orfus&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.234.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOrfus&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>235</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>&lt;key&gt;Orleg&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.235.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOrleg&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>236</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>&lt;key&gt;Ornendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.236.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Орнендил родился в семье Эльдакара, Гондорского принца матерью Эльдакара была Видумави, она была не из Дунэдайн ,а северянкой из Рованиона, и многие гондорцы косо поглядывали на Эльдакара и его наследников из-за этого.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Орнендил родился в семье Эльдакара, Гондорского принца матерью Эльдакара была Видумави, она была не из Дунэдайн ,а северянкой из Рованиона, и многие гондорцы косо поглядывали на Эльдакара и его наследников из-за этого.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOrnendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>237</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>&lt;key&gt;Oromendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.237.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOromendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>238</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>&lt;key&gt;Ostoher&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.238.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Остогер родился в семье Анардиля. Тогда Гондором правил его прадед Кемендур. Сам Остогер вступил на престол в 411 году Т. Э. после смерти отца.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Остогер родился в семье Анардиля. Тогда Гондором правил его прадед Кемендур. Сам Остогер вступил на престол в 411 году Т. Э. после смерти отца.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOstoher&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>239</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>&lt;key&gt;Pelendur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.239.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Пелендур был потомком Хурина из Эмин Арнен, одного из первых Наместников. Все Наместники со времён Хурина выбирались из его рода, Дома Хурина, но только после Пелендура титул стал наследным.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Пелендур был потомком Хурина из Эмин Арнен, одного из первых Наместников. Все Наместники со времён Хурина выбирались из его рода, Дома Хурина, но только после Пелендура титул стал наследным.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascPelendur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>240</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>&lt;key&gt;Radhruin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.240.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRadhruin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>241</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>&lt;key&gt;Ragnir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.241.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRagnir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>242</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>&lt;key&gt;Ragnor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.242.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRagnor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>243</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>&lt;key&gt;Rómendacil I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.243.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;​&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;​&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRómendacil I&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>244</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>&lt;key&gt;Rómendacil II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.244.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Миналькар родился в 1126 году Третьей Эпохи, в семье Кальмакила — сына Атанатара II Алькарина — принца Гондора. В то время, Гондором правил король Хьярмендакиль I, Миналькар много набрался от прадеда-короля прежде чем тот умер. Миналькар в душе упрекал ленивого деда — короля Атанатара II, но побаивался сказать что-то вслух.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Миналькар родился в 1126 году Третьей Эпохи, в семье Кальмакила — сына Атанатара II Алькарина — принца Гондора. В то время, Гондором правил король Хьярмендакиль I, Миналькар много набрался от прадеда-короля прежде чем тот умер. Миналькар в душе упрекал ленивого деда — короля Атанатара II, но побаивался сказать что-то вслух.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRómendacil II&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>245</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>&lt;key&gt;Sador&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.245.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Садор — плотник и слуга в доме Хурина, был другом детства Турина Турамбара.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Садор — плотник и слуга в доме Хурина, был другом детства Турина Турамбара.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSador&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>246</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>&lt;key&gt;Saelon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.246.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSaelon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>247</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>&lt;key&gt;Sagroth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.247.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSagroth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>248</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>&lt;key&gt;Sangahyando&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.248.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSangahyando&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>249</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>&lt;key&gt;Siriondil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.249.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Сириондиль — 11-й Король Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Сириондиль — 11-й Король Гондора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSiriondil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
         <v>250</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>&lt;key&gt;Soronto&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.250.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Соронто (англ.Soronto) — член королевской фамилии Нуменора, внук Тар-Менельдура, сын Айлинель, двоюродный брат Тар-Алдариона. Он жил в последние годы первого тысячелетия Второй Эпохи. Его отцом был Орхальдор, потомок Дома Хадора. Имя его, видимо, обозначает «орёл» или «друг орла». Толкин планировал написать историю о дочери Тар-Алдариона, Тар-Анкалимэ, и о том, как она вышла замуж, исключительно чтобы не допустить Соронто на престол. Однако это повествование никогда не было в состоянии большем, чем несколько комментариев, которые собраны в «Неоконченных сказаниях».&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Соронто (англ.Soronto) — член королевской фамилии Нуменора, внук Тар-Менельдура, сын Айлинель, двоюродный брат Тар-Алдариона. Он жил в последние годы первого тысячелетия Второй Эпохи. Его отцом был Орхальдор, потомок Дома Хадора. Имя его, видимо, обозначает «орёл» или «друг орла». Толкин планировал написать историю о дочери Тар-Алдариона, Тар-Анкалимэ, и о том, как она вышла замуж, исключительно чтобы не допустить Соронто на престол. Однако это повествование никогда не было в состоянии большем, чем несколько комментариев, которые собраны в «Неоконченных сказаниях».&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSoronto&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>251</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>&lt;key&gt;Talion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.251.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTalion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>252</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>&lt;key&gt;Tar-Alcarin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.252.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Алькарин — 17-й король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Тар-Алькарин — 17-й король Нуменора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Alcarin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>253</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>&lt;key&gt;Tar-Aldarion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.253.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Алдарион - шестой король Нуменора, сын Тар-Менельдура. Основатель Гильдии Морестранников, союзник Гиль-галада, основатель первой гавани в Средиземье - Виньялондэ,  также он построил огромные корабли Эамбар и Паларран.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Тар-Алдарион - шестой король Нуменора, сын Тар-Менельдура. Основатель Гильдии Морестранников, союзник Гиль-галада, основатель первой гавани в Средиземье - Виньялондэ,  также он построил огромные корабли Эамбар и Паларран.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Aldarion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>254</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>&lt;key&gt;Tar-Amandil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.254.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Amandil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>255</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>&lt;key&gt;Tar-Anárion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.255.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Anárion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>256</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>&lt;key&gt;Tar-Ancalimon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.256.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Анкалимон — 14-й король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Тар-Анкалимон — 14-й король Нуменора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Ancalimon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>257</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>&lt;key&gt;Tarannon Falastur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.257.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarannon Falastur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>258</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>&lt;key&gt;Tar-Ardamin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.258.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Ардамин — 19-й Король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Тар-Ардамин — 19-й Король Нуменора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Ardamin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>259</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>&lt;key&gt;Tar-Atanamir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.259.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Атанамир — 13-й Король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Тар-Атанамир — 13-й Король Нуменора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Atanamir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>260</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>&lt;key&gt;Tar-Calmacil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.260.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Калмакиль (вариант перевода: Тар-Кальмарил) — 18-й король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Тар-Калмакиль (вариант перевода: Тар-Кальмарил) — 18-й король Нуменора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Calmacil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
         <v>261</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>&lt;key&gt;Tarciryan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.261.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarciryan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
         <v>262</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>&lt;key&gt;Tar-Ciryatan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.262.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Кирьятан — двенадцатый король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Тар-Кирьятан — двенадцатый король Нуменора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Ciryatan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>263</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>&lt;key&gt;Tar-Elendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.263.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Элендиль являлся сыном Тар-Амандиля и родился в 350 В.Э. Он был мудрецом и талантливым учёным его также называли Пармайтэ (кв. 'книжник' или дословно - 'книгорукий'), ибо своими руками создал он множество книг и записал много преданий, собранных его дедом Вардамиром Нолимоном ,но в отличии от от него он стал правителем Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Тар-Элендиль являлся сыном Тар-Амандиля и родился в 350 В.Э. Он был мудрецом и талантливым учёным его также называли Пармайтэ (кв. 'книжник' или дословно - 'книгорукий'), ибо своими руками создал он множество книг и записал много преданий, собранных его дедом Вардамиром Нолимоном ,но в отличии от от него он стал правителем Нуменора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Elendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>264</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>&lt;key&gt;Targon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.264.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTargon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>265</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>&lt;key&gt;Tar-Meneldur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.265.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Meneldur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>266</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>&lt;key&gt;Tar-Minastir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.266.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Minastir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>267</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>&lt;key&gt;Tarondor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.267.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тарондор родился в семье Минастана, младшего сына принца Гондора — Минардиля в 1577-ом Т. Э. Тогда правил ещё его прадед Хьярмендакиль II.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Тарондор родился в семье Минастана, младшего сына принца Гондора — Минардиля в 1577-ом Т. Э. Тогда правил ещё его прадед Хьярмендакиль II.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarondor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>268</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>&lt;key&gt;Tar-Palantir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.268.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Первоначальное его имя — Инзиладун. Когда он вступил на трон, он принял, как бывало прежде, эльфийское имя, назвавшись Тар-Палантир, ибо зорки были и глаза его, и сердце, и даже те, кто его ненавидел, опасались его провидческих речей. Он всегда был на стороне Верных нуменорцев и считал, что если нуменорцы восстанут против Валар, то их всех постигнет смерть. Он же дал временный покой Верным и возродил обычай приношений в святыню Эру Илуватара на Менельтарме, отринутый Ар-Гимильзором.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Первоначальное его имя — Инзиладун. Когда он вступил на трон, он принял, как бывало прежде, эльфийское имя, назвавшись Тар-Палантир, ибо зорки были и глаза его, и сердце, и даже те, кто его ненавидел, опасались его провидческих речей. Он всегда был на стороне Верных нуменорцев и считал, что если нуменорцы восстанут против Валар, то их всех постигнет смерть. Он же дал временный покой Верным и возродил обычай приношений в святыню Эру Илуватара на Менельтарме, отринутый Ар-Гимильзором.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Palantir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>269</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>&lt;key&gt;Tar-Súrion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.269.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Súrion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>270</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>&lt;key&gt;Tar-Telemmaitë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.270.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Телемэитэ —15 король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Тар-Телемэитэ —15 король Нуменора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTar-Telemmaitë&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>271</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>&lt;key&gt;Telemnar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.271.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Телемнар (кв. «серебряное пламя») — 26-й Король Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Телемнар (кв. «серебряное пламя») — 26-й Король Гондора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTelemnar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>272</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>&lt;key&gt;Telumehtar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.272.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Телумехтар (синд. Небесный воитель) он же Телумехтар Умбардакил — 28-ой король Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Телумехтар (синд. Небесный воитель) он же Телумехтар Умбардакил — 28-ой король Гондора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTelumehtar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>273</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>&lt;key&gt;Thengel&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.273.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Его отец был злым, жадным и неуживчивым человеком. Больше всего доставалось Тенгелю, как старшему ребёнку. Возмужав, он перестал терпеть отца и уехал из Рохана в Гондор и перешёл на службу к наместнику Гондора Тургону. Тенгель стяжал немалую славу на службе у наместника. Вскоре он встретил Морвен из Лоссарнаха, и они полюбили друг друга. После смерти Фенгеля рохиррим призвали на престол Тенгеля, и он с неохотой согласился. Ещё в Гондоре Морвен родила Тенгелю сына Теодена, а уже в Рохане у них родились две дочери, вторая из которых была самой красивой и звали её Теодвин. Она в своё время вышла замуж за Эомунда, маршала Рохана и правителя Истволда. В этом браке родились Эомер и Эовин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Его отец был злым, жадным и неуживчивым человеком. Больше всего доставалось Тенгелю, как старшему ребёнку. Возмужав, он перестал терпеть отца и уехал из Рохана в Гондор и перешёл на службу к наместнику Гондора Тургону. Тенгель стяжал немалую славу на службе у наместника. Вскоре он встретил Морвен из Лоссарнаха, и они полюбили друг друга. После смерти Фенгеля рохиррим призвали на престол Тенгеля, и он с неохотой согласился. Ещё в Гондоре Морвен родила Тенгелю сына Теодена, а уже в Рохане у них родились две дочери, вторая из которых была самой красивой и звали её Теодвин. Она в своё время вышла замуж за Эомунда, маршала Рохана и правителя Истволда. В этом браке родились Эомер и Эовин.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascThengel&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>274</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>&lt;key&gt;Théoden&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.274.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Теоден (англ.Theoden) — один из главных персонажей трилогии «Властелин Колец» Дж. Р. Р. Толкина. Семнадцатый король (В Рохане конунг) Рохана.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Теоден (англ.Theoden) — один из главных персонажей трилогии «Властелин Колец» Дж. Р. Р. Толкина. Семнадцатый король (В Рохане конунг) Рохана.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascThéoden&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>275</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>&lt;key&gt;Théodred&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.275.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Теодред (англ.Theodred) — cын и единственный прямой наследник Теодена. Погиб на Первой битве при Изенских Бродах.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Теодред (англ.Theodred) — cын и единственный прямой наследник Теодена. Погиб на Первой битве при Изенских Бродах.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascThéodred&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>276</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>&lt;key&gt;Thorondir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.276.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Торондир — 22-й наместник Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Торондир — 22-й наместник Гондора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascThorondir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>277</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>&lt;key&gt;Tuor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.277.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Туор (англ.Tuor) — представитель Дома Хадора, сын Хуора и Риан, отец Эарендиля, двоюродный брат Турина Турамбара.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Туор (англ.Tuor) — представитель Дома Хадора, сын Хуора и Риан, отец Эарендиля, двоюродный брат Турина Турамбара.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTuor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>278</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>&lt;key&gt;Turambar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.278.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTurambar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>279</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>&lt;key&gt;Túrin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.279.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTúrin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>280</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>&lt;key&gt;Túrin I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.280.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Турин I - 6-й Наместник-правитель Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Турин I - 6-й Наместник-правитель Гондора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTúrin I&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>281</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>&lt;key&gt;Túrin II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.281.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Турин II — 23-й наместник Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Турин II — 23-й наместник Гондора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTúrin II&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>282</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>&lt;key&gt;Ulbar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.282.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUlbar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>283</v>
       </c>
@@ -16012,7 +16012,7 @@
         <v>&lt;key&gt;Uldor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.283.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;По прибытие в Белерианд, присягнул на верность Карантиру, сыну Феанора. Известен тем, с братьями Улфастом и Улвартом сыграл ключевую роль в Нирнаэт Арноэдиад.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;По прибытие в Белерианд, присягнул на верность Карантиру, сыну Феанора. Известен тем, с братьями Улфастом и Улвартом сыграл ключевую роль в Нирнаэт Арноэдиад.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>284</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>&lt;key&gt;Ulfang&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.284.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUlfang&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>285</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>&lt;key&gt;Ulfast&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.285.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUlfast&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>286</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>&lt;key&gt;Ulrad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.286.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUlrad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>287</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>&lt;key&gt;Ulwarth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.287.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUlwarth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>288</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>&lt;key&gt;Urthel&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.288.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUrthel&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
         <v>289</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>&lt;key&gt;Valacar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.289.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Валакар — 20-й Король Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Валакар — 20-й Король Гондора.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascValacar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>290</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>&lt;key&gt;Valandil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.290.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Валандиль(англ.Valandil) — первый лорд Андуниэ из рода Элроса. Его матерью была Сильмариэнь - сестра короля Нуменора Тар-Менельдура и дочь предыдущего короля Тар-Элендиля. Его отцом был Элатан из рода правителей Андуниэ. От него пошли Лорды Андуниэ (Правители Андуниэ из рода Элроса).&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Валандиль(англ.Valandil) — первый лорд Андуниэ из рода Элроса. Его матерью была Сильмариэнь - сестра короля Нуменора Тар-Менельдура и дочь предыдущего короля Тар-Элендиля. Его отцом был Элатан из рода правителей Андуниэ. От него пошли Лорды Андуниэ (Правители Андуниэ из рода Элроса).&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascValandil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
         <v>291</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>&lt;key&gt;Vardamir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.291.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVardamir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>292</v>
       </c>
@@ -16312,7 +16312,7 @@
         <v>&lt;key&gt;Vëantur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.292.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Вэантур (англ.Vëantur) - отец Альмариан знаменитый нуменорский мореход Второй Эпохи. Он был «Капитаном королевских кораблей» у короля Тар-Элендиля. Вэантур стал первым нуменорцем, достигшим Средиземья (его корабль «Энтулессэ» (англ. Entulessë, «Возвращение») бросил якорь в Серых гаванях в 600 г. Второй Эпохи). Там он подружился с эльфами Кирданом-корабелом и Верховным королём нолдор-изгнанников Гиль-галадом, что послужило предпосылкой к созданию союза между людьми Нуменора и эльфами Линдона. Вэантур обучил своего внука Алдариона  многим премудростям, касающимся кораблей и мореплавания. Когда Алдариону было 25 лет (725 г.), Вэантур взял его с собой в Средиземье, что стало первым плаванием Алдариона.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Вэантур (англ.Vëantur) - отец Альмариан знаменитый нуменорский мореход Второй Эпохи. Он был «Капитаном королевских кораблей» у короля Тар-Элендиля. Вэантур стал первым нуменорцем, достигшим Средиземья (его корабль «Энтулессэ» (англ. Entulessë, «Возвращение») бросил якорь в Серых гаванях в 600 г. Второй Эпохи). Там он подружился с эльфами Кирданом-корабелом и Верховным королём нолдор-изгнанников Гиль-галадом, что послужило предпосылкой к созданию союза между людьми Нуменора и эльфами Линдона. Вэантур обучил своего внука Алдариона  многим премудростям, касающимся кораблей и мореплавания. Когда Алдариону было 25 лет (725 г.), Вэантур взял его с собой в Средиземье, что стало первым плаванием Алдариона.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVëantur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>293</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>&lt;key&gt;Vidugavia&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.293.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Видугавиа — самоназваный король Рованиона. Первый известный король из дома Королей Рованиона. У Видугавиа была дочь Видумави, к которой пришёл свататься сам принц Гондора Валакар. Видугавиа был предком короля Мархари и вождей Эотеод и естественно Королей Рохана.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Видугавиа — самоназваный король Рованиона. Первый известный король из дома Королей Рованиона. У Видугавиа была дочь Видумави, к которой пришёл свататься сам принц Гондора Валакар. Видугавиа был предком короля Мархари и вождей Эотеод и естественно Королей Рохана.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVidugavia&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>294</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>&lt;key&gt;Von&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.294.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>295</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>&lt;key&gt;Vorondil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.295.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;После смерти своего отца, Пелендура, титул Наместника Гондора стал наследным и поэтому Ворондиль наследовал отцу.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;После смерти своего отца, Пелендура, титул Наместника Гондора стал наследным и поэтому Ворондиль наследовал отцу.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVorondil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>296</v>
       </c>
@@ -16455,7 +16455,7 @@
         <v>&lt;key&gt;Walda&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.296.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Валда (англ.Walda) — 12-й король Рохана. Правил всего 9 лет. Сын Короля Бритты, и отец Фолки охотника. В его правление орки смогли пробраться через Истволд и устроить ему засаду на пути от Дунхарроу. Он осматривал крепость, и,возвращаясь, не успел и глазом моргнуть, как на него и на его охрану напали орки. Орков разбили, но Валда был уже мёртв.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Валда (англ.Walda) — 12-й король Рохана. Правил всего 9 лет. Сын Короля Бритты, и отец Фолки охотника. В его правление орки смогли пробраться через Истволд и устроить ему засаду на пути от Дунхарроу. Он осматривал крепость, и,возвращаясь, не успел и глазом моргнуть, как на него и на его охрану напали орки. Орков разбили, но Валда был уже мёртв.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascWalda&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>297</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>&lt;key&gt;Wídfara&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.297.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascWídfara&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>298</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>&lt;key&gt;Agaldor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.298.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAgaldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>299</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>&lt;key&gt;Agandaûr&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.299.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAgandaûr&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>300</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>&lt;key&gt;Agathor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.300.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAgathor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>301</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>&lt;key&gt;Amdûr&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.301.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAmdûr&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>302</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>&lt;key&gt;Angmarim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.302.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAngmarim&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>303</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>&lt;key&gt;Atanatári&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.303.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAtanatári&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>304</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>&lt;key&gt;Balchoth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.304.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBalchoth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>305</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>&lt;key&gt;Beorning&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.305.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Беорнинги ведут свой род от эдайн, а их язык родствен адунаику или рохиррику.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Беорнинги ведут свой род от эдайн, а их язык родствен адунаику или рохиррику.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBeorning&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
         <v>306</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>&lt;key&gt;Berethor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.306.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBerethor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
         <v>307</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>&lt;key&gt;Blackwolds&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.307.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBlackwolds&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>308</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>&lt;key&gt;Blodren&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.308.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBlodren&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
         <v>309</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>&lt;key&gt;Braga&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.309.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBraga&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>310</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>&lt;key&gt;Drúedain&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.310.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;По всей видимости, ещё во Вторую эпоху лесовики заселили Друаданский лес, который находится в 30 милях к северо-западу от Минас Тирита. Вероятно, являются родственными народу Дру, люди которого жили в Белерианде совместно с племенем Халадин. Так же в Гондоре есть местность под названием Дру-Вэйт-Иаур (старинная пустыня народу Дру). В годы Войны Кольца вождь лесовиков Гхан-Бури-Гхан предложил роханскому королю Теодену провести его войско через лес, дабы роханцы избежали столкновения с полчищами орков на торной дороге. В награду за эту услугу король Эллесар впоследствии передал Друаданский лес в собственность лесовикам и запретил кому бы то ни было входить туда без разрешения хозяев.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;По всей видимости, ещё во Вторую эпоху лесовики заселили Друаданский лес, который находится в 30 милях к северо-западу от Минас Тирита. Вероятно, являются родственными народу Дру, люди которого жили в Белерианде совместно с племенем Халадин. Так же в Гондоре есть местность под названием Дру-Вэйт-Иаур (старинная пустыня народу Дру). В годы Войны Кольца вождь лесовиков Гхан-Бури-Гхан предложил роханскому королю Теодену провести его войско через лес, дабы роханцы избежали столкновения с полчищами орков на торной дороге. В награду за эту услугу король Эллесар впоследствии передал Друаданский лес в собственность лесовикам и запретил кому бы то ни было входить туда без разрешения хозяев.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDrúedain&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>311</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>&lt;key&gt;Dúnedain&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.311.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ну́менорцы (англ. Númenо́reans) также звались Ду́нэдайн (англ. Dúnedain | ед. ч. Дунадан | синд. «Люди Запада») — потомки людей-Эдайн, которые были союзниками нолдор и Валар в Первую Эпоху. Обитатели острова Эленна, на котором было основано государство Нуменор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Ну́менорцы (англ. Númenо́reans) также звались Ду́нэдайн (англ. Dúnedain | ед. ч. Дунадан | синд. «Люди Запада») — потомки людей-Эдайн, которые были союзниками нолдор и Валар в Первую Эпоху. Обитатели острова Эленна, на котором было основано государство Нуменор.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDúnedain&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>312</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>&lt;key&gt;Dunlendings&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.312.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;По одной из версий, они являются потомками некоторых племён Вастаков (Истерлингов), не ушедших дальше на восток во Вторую Эпоху.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;По одной из версий, они являются потомками некоторых племён Вастаков (Истерлингов), не ушедших дальше на восток во Вторую Эпоху.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDunlendings&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
         <v>313</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>&lt;key&gt;Easterlings&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.313.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В поздние Эпохи периодически совершали набеги на королевства людей-дунэдайн - Гондор и Рохан. Являлись жителями стран Рун и Харад. Именно королём истерлингов был один из назгул - Кхамул.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;В поздние Эпохи периодически совершали набеги на королевства людей-дунэдайн - Гондор и Рохан. Являлись жителями стран Рун и Харад. Именно королём истерлингов был один из назгул - Кхамул.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEasterlings&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
         <v>314</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>&lt;key&gt;Edain&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.314.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эдайн (англ.Edain) — так эльдар называли три племени людей, в третьем столетии Первой Эпохи пришедших в Белерианд. В переводе с синдарина «эдайн» означало «вторые» (ед. ч. — «адан»).&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Эдайн (англ.Edain) — так эльдар называли три племени людей, в третьем столетии Первой Эпохи пришедших в Белерианд. В переводе с синдарина «эдайн» означало «вторые» (ед. ч. — «адан»).&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEdain&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>315</v>
       </c>
@@ -17054,7 +17054,7 @@
         <v>&lt;key&gt;Elegost&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.315.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElegost&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>316</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>&lt;key&gt;Éothéod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.316.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Слово, обозначающее «конные люди», составлено из староанглийских слов эох (éoh) — «конь», или «боевой конь» и теод (théod) — «люди», «народ», также оно напоминает древнескандинавское слово йосйод (jóþjóð) — «конные люди». Толкин использовал это слово также и для обозначения земли, занимаемой этими людьми в Долине Андуина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Слово, обозначающее «конные люди», составлено из староанглийских слов эох (éoh) — «конь», или «боевой конь» и теод (théod) — «люди», «народ», также оно напоминает древнескандинавское слово йосйод (jóþjóð) — «конные люди». Толкин использовал это слово также и для обозначения земли, занимаемой этими людьми в Долине Андуина.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascÉothéod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
         <v>317</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>&lt;key&gt;Erland&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.317.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascErland&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>318</v>
       </c>
@@ -17156,7 +17156,7 @@
         <v>&lt;key&gt;Forodwaith&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.318.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;На синдарине название Forodwaith обозначает «северные земли» (forod — север, waith — земля, народ), возможно также происхождение части названия от слова gwaith — тень.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;На синдарине название Forodwaith обозначает «северные земли» (forod — север, waith — земля, народ), возможно также происхождение части названия от слова gwaith — тень.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascForodwaith&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
         <v>319</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>&lt;key&gt;Freca&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.319.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFreca&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
         <v>320</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>&lt;key&gt;Halad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.320.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHalad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
         <v>321</v>
       </c>
@@ -17249,9 +17249,9 @@
         <v>&lt;key&gt;Haradrim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.321.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В правление государя Элессара  харадрим поклялись в верности Воссоединенному королевству.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;В правление государя Элессара  харадрим поклялись в верности Воссоединенному королевству.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHaradrim&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B322" t="s">
         <v>1077</v>
@@ -17268,16 +17268,16 @@
       </c>
       <c r="G322" s="9" t="str">
         <f t="shared" ref="G322:G344" si="17">CONCATENATE("&lt;key&gt;",B322,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;","02.02.0.",A322,".02","&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D322,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E322,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",F322,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;Hugin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.323.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Hugin&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHugin&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Hugin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.322.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Hugin&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHugin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L322" s="10" t="str">
         <f t="shared" ref="L322:L344" si="18">CONCATENATE("&lt;key&gt;",B322,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;","02.02.0.",A322,".02","&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",J322,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",J322,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",F322,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;Hugin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.323.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHugin&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Hugin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.322.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHugin&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B323" t="s">
         <v>1115</v>
@@ -17297,7 +17297,7 @@
       </c>
       <c r="G323" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Hwaldar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.324.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Hwaldar was the hillchief of many tribes at Rhudaur, one of the ancient three kingdoms of Arnor. Rhudaur is secretly in league with the Witch-king of Angmar, Hwaldar paves the way for Angmar's invasion but must evade capture from the clutches of the soldiers of Arthedain, to complete his treachery. He holds an interesting nickname, the 'Brigand'. He is based on an unnamed character from J. R. R. Tolkien´s cannon.[1]&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Hwaldar&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHwaldar&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Hwaldar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.323.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Hwaldar was the hillchief of many tribes at Rhudaur, one of the ancient three kingdoms of Arnor. Rhudaur is secretly in league with the Witch-king of Angmar, Hwaldar paves the way for Angmar's invasion but must evade capture from the clutches of the soldiers of Arthedain, to complete his treachery. He holds an interesting nickname, the 'Brigand'. He is based on an unnamed character from J. R. R. Tolkien´s cannon.[1]&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Hwaldar&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHwaldar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I323" s="4" t="s">
         <v>1119</v>
@@ -17307,12 +17307,12 @@
       </c>
       <c r="L323" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Hwaldar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.324.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHwaldar&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="324" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Hwaldar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.323.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHwaldar&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B324" t="s">
         <v>1162</v>
@@ -17329,16 +17329,16 @@
       </c>
       <c r="G324" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Irolas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.325.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Irolas&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIrolas&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Irolas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.324.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Irolas&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIrolas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L324" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Irolas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.325.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIrolas&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Irolas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.324.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIrolas&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B325" t="s">
         <v>1177</v>
@@ -17355,16 +17355,16 @@
       </c>
       <c r="G325" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Járnsmid&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.326.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/J%C3%A1rnsmid&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascJárnsmid&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Járnsmid&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.325.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/J%C3%A1rnsmid&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascJárnsmid&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L325" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Járnsmid&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.326.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascJárnsmid&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="326" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Járnsmid&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.325.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascJárnsmid&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B326" t="s">
         <v>1179</v>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="G326" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Karsh&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.327.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Karsh&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascKarsh&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Karsh&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.326.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Karsh&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascKarsh&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I326" s="4" t="s">
         <v>1182</v>
@@ -17391,12 +17391,12 @@
       </c>
       <c r="L326" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Karsh&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.327.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascKarsh&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Karsh&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.326.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascKarsh&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B327" t="s">
         <v>1207</v>
@@ -17416,7 +17416,7 @@
       </c>
       <c r="G327" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Lossoth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.328.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Lossoth, or the Snowmen of Forochel, was the name of a race of Men living mainly on the shores of the Ice-Bay of Forochel.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Lossoth&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascLossoth&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Lossoth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.327.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Lossoth, or the Snowmen of Forochel, was the name of a race of Men living mainly on the shores of the Ice-Bay of Forochel.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Lossoth&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascLossoth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I327" s="4" t="s">
         <v>1211</v>
@@ -17429,12 +17429,12 @@
       </c>
       <c r="L327" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Lossoth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.328.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хотя пора владычества Моргота над землями Севера давно прошла, холода до сих пор сковывают эти земли, несмотря на то, что они лежат всего в полутораста верстах к северу от Шира. Народ Лоссотов в основном живёт в снегах, говорят, они умеют бегать по льду, привязывая к ногам острые кости, и телеги у них без колес. В основном они обитают на недоступном для врагов обширном мысе Форохель, с северо–запада вдающемся в большой залив того же имени, но стоянки их можно встретить также на юге залива и у подножия Гор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Хотя пора владычества Моргота над землями Севера давно прошла, холода до сих пор сковывают эти земли, несмотря на то, что они лежат всего в полутораста верстах к северу от Шира. Народ Лоссотов в основном живёт в снегах, говорят, они умеют бегать по льду, привязывая к ногам острые кости, и телеги у них без колес. В основном они обитают на недоступном для врагов обширном мысе Форохель, с северо–запада вдающемся в большой залив того же имени, но стоянки их можно встретить также на юге залива и у подножия Гор.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascLossoth&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="328" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Lossoth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.327.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хотя пора владычества Моргота над землями Севера давно прошла, холода до сих пор сковывают эти земли, несмотря на то, что они лежат всего в полутораста верстах к северу от Шира. Народ Лоссотов в основном живёт в снегах, говорят, они умеют бегать по льду, привязывая к ногам острые кости, и телеги у них без колес. В основном они обитают на недоступном для врагов обширном мысе Форохель, с северо–запада вдающемся в большой залив того же имени, но стоянки их можно встретить также на юге залива и у подножия Гор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Хотя пора владычества Моргота над землями Севера давно прошла, холода до сих пор сковывают эти земли, несмотря на то, что они лежат всего в полутораста верстах к северу от Шира. Народ Лоссотов в основном живёт в снегах, говорят, они умеют бегать по льду, привязывая к ногам острые кости, и телеги у них без колес. В основном они обитают на недоступном для врагов обширном мысе Форохель, с северо–запада вдающемся в большой залив того же имени, но стоянки их можно встретить также на юге залива и у подножия Гор.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascLossoth&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B328" t="s">
         <v>1225</v>
@@ -17454,16 +17454,16 @@
       </c>
       <c r="G328" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Mahud&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.329.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Mahud was Games-Workshop's name for the Men of Far Harad who rode, or 'piloted', one of the Mûmaks.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Mahud&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMahud&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Mahud&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.328.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Mahud was Games-Workshop's name for the Men of Far Harad who rode, or 'piloted', one of the Mûmaks.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Mahud&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMahud&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L328" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Mahud&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.329.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMahud&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="329" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Mahud&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.328.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMahud&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B329" t="s">
         <v>1367</v>
@@ -17480,16 +17480,16 @@
       </c>
       <c r="G329" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Ottar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.330.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Ottar&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOttar&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Ottar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.329.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Ottar&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOttar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L329" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Ottar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.330.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOttar&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="330" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Ottar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.329.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOttar&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B330" t="s">
         <v>1375</v>
@@ -17506,16 +17506,16 @@
       </c>
       <c r="G330" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Percy&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.331.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Percy&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascPercy&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Percy&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.330.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Percy&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascPercy&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L330" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Percy&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.331.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascPercy&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="331" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Percy&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.330.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascPercy&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B331" t="s">
         <v>1386</v>
@@ -17532,16 +17532,16 @@
       </c>
       <c r="G331" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Rennar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.332.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Rennar&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRennar&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Rennar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.331.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Rennar&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRennar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L331" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Rennar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.332.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRennar&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="332" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Rennar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.331.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRennar&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B332" t="s">
         <v>1388</v>
@@ -17561,16 +17561,16 @@
       </c>
       <c r="G332" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Rhûnic&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.333.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Rhûnic was the official language of Rhûn, a region in Middle-earth that became the home kingdom of the Easterlings, the lethal and powerful warriors that took sides with Sauron during the War of the Ring. Very little is known about Rhûnic.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Rh%C3%BBnic&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRhûnic&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Rhûnic&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.332.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Rhûnic was the official language of Rhûn, a region in Middle-earth that became the home kingdom of the Easterlings, the lethal and powerful warriors that took sides with Sauron during the War of the Ring. Very little is known about Rhûnic.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Rh%C3%BBnic&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRhûnic&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L332" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Rhûnic&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.333.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRhûnic&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="333" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Rhûnic&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.332.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRhûnic&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B333" t="s">
         <v>1393</v>
@@ -17590,7 +17590,7 @@
       </c>
       <c r="G333" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Rohirrim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.334.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The Rohirrim were a race of people who inhabited the land of Rohan, which was named after their famous Horses.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Rohirrim&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRohirrim&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Rohirrim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.333.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The Rohirrim were a race of people who inhabited the land of Rohan, which was named after their famous Horses.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Rohirrim&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRohirrim&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I333" s="4" t="s">
         <v>1397</v>
@@ -17603,12 +17603,12 @@
       </c>
       <c r="L333" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Rohirrim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.334.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Название состоит из двух эльфийских слов: roch — конь и kher — владеть, образующих таким образом слово Рохир (синд. Rochir) — всадник, повелитель коней, и множественного суффикса -rim.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Название состоит из двух эльфийских слов: roch — конь и kher — владеть, образующих таким образом слово Рохир (синд. Rochir) — всадник, повелитель коней, и множественного суффикса -rim.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRohirrim&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="334" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Rohirrim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.333.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Название состоит из двух эльфийских слов: roch — конь и kher — владеть, образующих таким образом слово Рохир (синд. Rochir) — всадник, повелитель коней, и множественного суффикса -rim.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Название состоит из двух эльфийских слов: roch — конь и kher — владеть, образующих таким образом слово Рохир (синд. Rochir) — всадник, повелитель коней, и множественного суффикса -rim.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRohirrim&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B334" t="s">
         <v>1411</v>
@@ -17628,16 +17628,16 @@
       </c>
       <c r="G334" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Ruffians&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.335.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The Ruffians or Sharkey's Men were a band of about 150 Dunlendings, Half-orcs, and Hobbits who invaded the Shire from the South under the hire of Sharkey.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Ruffians&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRuffians&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Ruffians&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.334.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The Ruffians or Sharkey's Men were a band of about 150 Dunlendings, Half-orcs, and Hobbits who invaded the Shire from the South under the hire of Sharkey.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Ruffians&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRuffians&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L334" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Ruffians&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.335.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRuffians&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="335" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Ruffians&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.334.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRuffians&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B335" t="s">
         <v>1414</v>
@@ -17654,16 +17654,16 @@
       </c>
       <c r="G335" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Runsig&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.336.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Runsig&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRunsig&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Runsig&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.335.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Runsig&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRunsig&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L335" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Runsig&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.336.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRunsig&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="336" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Runsig&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.335.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRunsig&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B336" t="s">
         <v>1432</v>
@@ -17680,7 +17680,7 @@
       </c>
       <c r="G336" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Sigrid&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.337.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Sigrid&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSigrid&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Sigrid&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.336.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Sigrid&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSigrid&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I336" s="4" t="s">
         <v>1435</v>
@@ -17690,12 +17690,12 @@
       </c>
       <c r="L336" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Sigrid&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.337.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSigrid&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="337" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Sigrid&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.336.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSigrid&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B337" t="s">
         <v>1450</v>
@@ -17712,16 +17712,16 @@
       </c>
       <c r="G337" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Squint&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.338.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Squint&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSquint&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Squint&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.337.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Squint&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSquint&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L337" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Squint&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.338.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSquint&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="338" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Squint&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.337.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSquint&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B338" t="s">
         <v>1452</v>
@@ -17738,16 +17738,16 @@
       </c>
       <c r="G338" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Suladân&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.339.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Sulad%C3%A2n&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSuladân&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Suladân&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.338.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Sulad%C3%A2n&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSuladân&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L338" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Suladân&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.339.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSuladân&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="339" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Suladân&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.338.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSuladân&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B339" t="s">
         <v>1454</v>
@@ -17767,16 +17767,16 @@
       </c>
       <c r="G339" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Tal-Elmar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.340.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Tal-Elmar was name of a character of an incomplete narrative of J.R.R. Tolkien's that had the same name.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Tal-Elmar&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTal-Elmar&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Tal-Elmar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.339.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Tal-Elmar was name of a character of an incomplete narrative of J.R.R. Tolkien's that had the same name.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Tal-Elmar&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTal-Elmar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L339" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Tal-Elmar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.340.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTal-Elmar&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="340" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Tal-Elmar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.339.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTal-Elmar&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B340" t="s">
         <v>1607</v>
@@ -17793,7 +17793,7 @@
       </c>
       <c r="G340" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Tilda&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.341.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Tilda&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTilda&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Tilda&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.340.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Tilda&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTilda&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I340" s="4" t="s">
         <v>1610</v>
@@ -17803,12 +17803,12 @@
       </c>
       <c r="L340" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Tilda&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.341.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTilda&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="341" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Tilda&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.340.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTilda&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B341" t="s">
         <v>1612</v>
@@ -17825,16 +17825,16 @@
       </c>
       <c r="G341" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Tumna&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.342.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Tumna&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTumna&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Tumna&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.341.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Tumna&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTumna&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L341" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Tumna&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.342.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTumna&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="342" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Tumna&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.341.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTumna&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B342" t="s">
         <v>1686</v>
@@ -17854,7 +17854,7 @@
       </c>
       <c r="G342" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Variags&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.343.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The Variags were Men from the land of Khand.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Variags&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVariags&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Variags&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.342.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The Variags were Men from the land of Khand.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Variags&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVariags&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I342" s="4" t="s">
         <v>1690</v>
@@ -17867,12 +17867,12 @@
       </c>
       <c r="L342" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Variags&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.343.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Достоверных сведений о вариагах не имеется. По одной версии они являются частью вастаков, которые отсоединились от остальных из-за любви к коням, или были изгнаны вастаками из Рун по той же причине.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Достоверных сведений о вариагах не имеется. По одной версии они являются частью вастаков, которые отсоединились от остальных из-за любви к коням, или были изгнаны вастаками из Рун по той же причине.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVariags&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="343" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Variags&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.342.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Достоверных сведений о вариагах не имеется. По одной версии они являются частью вастаков, которые отсоединились от остальных из-за любви к коням, или были изгнаны вастаками из Рун по той же причине.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Достоверных сведений о вариагах не имеется. По одной версии они являются частью вастаков, которые отсоединились от остальных из-за любви к коням, или были изгнаны вастаками из Рун по той же причине.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVariags&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B343" t="s">
         <v>1706</v>
@@ -17892,7 +17892,7 @@
       </c>
       <c r="G343" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Vinyalondë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.344.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Vinyalonde was a haven built by the Numenoreans, under charge of Tar-Aldarion, first of the Ship-kings, at the mouth of the river Gwathló in Eriador.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Vinyalond%C3%AB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVinyalondë&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Vinyalondë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.343.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Vinyalonde was a haven built by the Numenoreans, under charge of Tar-Aldarion, first of the Ship-kings, at the mouth of the river Gwathló in Eriador.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Vinyalond%C3%AB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVinyalondë&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I343" s="4" t="s">
         <v>1710</v>
@@ -17905,12 +17905,12 @@
       </c>
       <c r="L343" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Vinyalondë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.344.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Враги до Виньялондэ в каком-либо заметном количестве не добирались.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Враги до Виньялондэ в каком-либо заметном количестве не добирались.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVinyalondë&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="344" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;Vinyalondë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.343.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Враги до Виньялондэ в каком-либо заметном количестве не добирались.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Враги до Виньялондэ в каком-либо заметном количестве не добирались.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVinyalondë&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B344" t="s">
         <v>1721</v>
@@ -17930,7 +17930,7 @@
       </c>
       <c r="G344" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;key&gt;Wainriders&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.345.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Following the Great Plague they started their attacks in TA 1856, defeating the army of Gondor and killing king Narmacil II. They rode in great wagons and chariots (which gave them their name), and raided the lands of Rhovanion, destroying or enslaving its people. Gondor gradually lost all of its possessions east of Anduin to them. The thirtieth King of Gondor, Calimehtar son of Narmacil, defeated the Wainriders at the Field of Celebrant, buying some rest for his land. However the Wainriders struck back in 1944, allying themselves with the Haradrim of Near Harad and the Variags of Khand. They managed to kill king Ondoher and all his heirs, but instead of riding on to Minas Anor and taking the city, they paused to celebrate. Meanwhile, general Eärnil of Gondor's southern army had defeated the Haradrim and rode north to defend his king. He came too late to rescue Ondoher, but managed to totally defeat the Wainriders. Eärnil was crowned king. After this defeat the might of the Wainriders was broken, and they retreated east. They still held Rhovanion, but never troubled Gondor again. It later turned out that their attacks were staged by Sauron to allow him to reclaim Mordor while Gondor's watch was diverted.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Wainriders&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascWainriders&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Wainriders&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.344.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Following the Great Plague they started their attacks in TA 1856, defeating the army of Gondor and killing king Narmacil II. They rode in great wagons and chariots (which gave them their name), and raided the lands of Rhovanion, destroying or enslaving its people. Gondor gradually lost all of its possessions east of Anduin to them. The thirtieth King of Gondor, Calimehtar son of Narmacil, defeated the Wainriders at the Field of Celebrant, buying some rest for his land. However the Wainriders struck back in 1944, allying themselves with the Haradrim of Near Harad and the Variags of Khand. They managed to kill king Ondoher and all his heirs, but instead of riding on to Minas Anor and taking the city, they paused to celebrate. Meanwhile, general Eärnil of Gondor's southern army had defeated the Haradrim and rode north to defend his king. He came too late to rescue Ondoher, but managed to totally defeat the Wainriders. Eärnil was crowned king. After this defeat the might of the Wainriders was broken, and they retreated east. They still held Rhovanion, but never troubled Gondor again. It later turned out that their attacks were staged by Sauron to allow him to reclaim Mordor while Gondor's watch was diverted.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Wainriders&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascWainriders&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I344" s="4" t="s">
         <v>1725</v>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="L344" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;key&gt;Wainriders&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.345.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Люди Повозок (англ. Wainriders) были конфедерацией племён истерлингов, спаянных общей ненавистью к Гондору, подогреваемой Сауроном. После Великой Чумы, ослабившей Гондор, они начали свои рейды в 1851 г. Т.Э., а через пять лет двинули в ход свои основные силы, разбив армию Гондора и убив короля Нармакиля II. Они передвигались в огромных телегах, а сражались преимущественно на боевых колесницах (что и дало им название), и постоянно нападали на земли Рованиона, уничтожая и порабощая его население. Постепенно они отобрали у Гондора все владения к востоку от Андуина, кроме Итилиэна. Тридцатый король Гондора, Калимехтар, сын Нармакиля, разбил Людей Повозок в битве при Дагорладе, обеспечив своей стране небольшую передышку среди постоянных войн.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Люди Повозок (англ. Wainriders) были конфедерацией племён истерлингов, спаянных общей ненавистью к Гондору, подогреваемой Сауроном. После Великой Чумы, ослабившей Гондор, они начали свои рейды в 1851 г. Т.Э., а через пять лет двинули в ход свои основные силы, разбив армию Гондора и убив короля Нармакиля II. Они передвигались в огромных телегах, а сражались преимущественно на боевых колесницах (что и дало им название), и постоянно нападали на земли Рованиона, уничтожая и порабощая его население. Постепенно они отобрали у Гондора все владения к востоку от Андуина, кроме Итилиэна. Тридцатый король Гондора, Калимехтар, сын Нармакиля, разбил Людей Повозок в битве при Дагорладе, обеспечив своей стране небольшую передышку среди постоянных войн.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascWainriders&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Wainriders&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.344.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Люди Повозок (англ. Wainriders) были конфедерацией племён истерлингов, спаянных общей ненавистью к Гондору, подогреваемой Сауроном. После Великой Чумы, ослабившей Гондор, они начали свои рейды в 1851 г. Т.Э., а через пять лет двинули в ход свои основные силы, разбив армию Гондора и убив короля Нармакиля II. Они передвигались в огромных телегах, а сражались преимущественно на боевых колесницах (что и дало им название), и постоянно нападали на земли Рованиона, уничтожая и порабощая его население. Постепенно они отобрали у Гондора все владения к востоку от Андуина, кроме Итилиэна. Тридцатый король Гондора, Калимехтар, сын Нармакиля, разбил Людей Повозок в битве при Дагорладе, обеспечив своей стране небольшую передышку среди постоянных войн.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;Люди Повозок (англ. Wainriders) были конфедерацией племён истерлингов, спаянных общей ненавистью к Гондору, подогреваемой Сауроном. После Великой Чумы, ослабившей Гондор, они начали свои рейды в 1851 г. Т.Э., а через пять лет двинули в ход свои основные силы, разбив армию Гондора и убив короля Нармакиля II. Они передвигались в огромных телегах, а сражались преимущественно на боевых колесницах (что и дало им название), и постоянно нападали на земли Рованиона, уничтожая и порабощая его население. Постепенно они отобрали у Гондора все владения к востоку от Андуина, кроме Итилиэна. Тридцатый король Гондора, Калимехтар, сын Нармакиля, разбил Людей Повозок в битве при Дагорладе, обеспечив своей стране небольшую передышку среди постоянных войн.&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascWainriders&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -17963,14 +17963,14 @@
       <selection activeCell="C384" sqref="C384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="56.9296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="57" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>54</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>59</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>64</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>67</v>
       </c>
@@ -18151,7 +18151,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>69</v>
       </c>
@@ -18162,7 +18162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>78</v>
       </c>
@@ -18184,7 +18184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>87</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>93</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
@@ -18225,7 +18225,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>105</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>106</v>
       </c>
@@ -18244,7 +18244,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>110</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>116</v>
       </c>
@@ -18266,7 +18266,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>122</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>125</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>128</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>133</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>136</v>
       </c>
@@ -18312,7 +18312,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>141</v>
       </c>
@@ -18323,7 +18323,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>147</v>
       </c>
@@ -18334,7 +18334,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>153</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>159</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>165</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>168</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>174</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>180</v>
       </c>
@@ -18397,7 +18397,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>186</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>192</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>198</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>204</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>210</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>213</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>219</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>225</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>228</v>
       </c>
@@ -18487,7 +18487,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>231</v>
       </c>
@@ -18498,7 +18498,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>237</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>240</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>246</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>252</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>258</v>
       </c>
@@ -18550,7 +18550,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>264</v>
       </c>
@@ -18561,7 +18561,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>270</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>273</v>
       </c>
@@ -18577,7 +18577,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>276</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>280</v>
       </c>
@@ -18599,7 +18599,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>284</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>290</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>296</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>301</v>
       </c>
@@ -18643,7 +18643,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>307</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>313</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>317</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>321</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>327</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>333</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>339</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>342</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>348</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>351</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>356</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>359</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>360</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>362</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>365</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>368</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>374</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>377</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>383</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>389</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>395</v>
       </c>
@@ -18850,7 +18850,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>398</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>404</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>410</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>413</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>418</v>
       </c>
@@ -18899,7 +18899,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>421</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>426</v>
       </c>
@@ -18921,7 +18921,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>431</v>
       </c>
@@ -18932,7 +18932,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>437</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>443</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>448</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>453</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>459</v>
       </c>
@@ -18984,7 +18984,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>462</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>468</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>474</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>477</v>
       </c>
@@ -19025,7 +19025,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>483</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>489</v>
       </c>
@@ -19047,7 +19047,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>495</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>501</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>504</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>507</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>510</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>516</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>522</v>
       </c>
@@ -19115,7 +19115,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>528</v>
       </c>
@@ -19126,7 +19126,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>534</v>
       </c>
@@ -19134,7 +19134,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>537</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>540</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>543</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>549</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>552</v>
       </c>
@@ -19180,7 +19180,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>558</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>564</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>567</v>
       </c>
@@ -19207,7 +19207,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>570</v>
       </c>
@@ -19218,7 +19218,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>576</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>579</v>
       </c>
@@ -19237,7 +19237,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>585</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>591</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>597</v>
       </c>
@@ -19270,7 +19270,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>603</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>609</v>
       </c>
@@ -19292,7 +19292,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>615</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>621</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>627</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>633</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>639</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>643</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>647</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>650</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>656</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>661</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>667</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>672</v>
       </c>
@@ -19418,7 +19418,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>675</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>681</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>687</v>
       </c>
@@ -19451,7 +19451,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>691</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>694</v>
       </c>
@@ -19470,7 +19470,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>700</v>
       </c>
@@ -19481,7 +19481,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>706</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>710</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>714</v>
       </c>
@@ -19511,7 +19511,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>717</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>722</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>728</v>
       </c>
@@ -19544,7 +19544,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>734</v>
       </c>
@@ -19555,7 +19555,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>739</v>
       </c>
@@ -19563,7 +19563,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>742</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>746</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>750</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>756</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>759</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>762</v>
       </c>
@@ -19629,7 +19629,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>767</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>770</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>773</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>779</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>780</v>
       </c>
@@ -19675,7 +19675,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>784</v>
       </c>
@@ -19683,7 +19683,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>787</v>
       </c>
@@ -19691,7 +19691,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>788</v>
       </c>
@@ -19702,7 +19702,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>790</v>
       </c>
@@ -19713,7 +19713,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>794</v>
       </c>
@@ -19724,7 +19724,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>799</v>
       </c>
@@ -19732,7 +19732,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>802</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>808</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>814</v>
       </c>
@@ -19765,7 +19765,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>820</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>825</v>
       </c>
@@ -19784,7 +19784,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>828</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>834</v>
       </c>
@@ -19806,7 +19806,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>839</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>845</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>850</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>853</v>
       </c>
@@ -19847,7 +19847,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>859</v>
       </c>
@@ -19858,7 +19858,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>865</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>871</v>
       </c>
@@ -19877,7 +19877,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>873</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>879</v>
       </c>
@@ -19896,7 +19896,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>882</v>
       </c>
@@ -19904,7 +19904,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>885</v>
       </c>
@@ -19912,7 +19912,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>888</v>
       </c>
@@ -19923,7 +19923,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>894</v>
       </c>
@@ -19931,7 +19931,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>897</v>
       </c>
@@ -19942,7 +19942,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>903</v>
       </c>
@@ -19950,7 +19950,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>906</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>907</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>911</v>
       </c>
@@ -19977,7 +19977,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>914</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>920</v>
       </c>
@@ -19999,7 +19999,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>926</v>
       </c>
@@ -20010,7 +20010,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>931</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>937</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>943</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>946</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>952</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>955</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>961</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>964</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>970</v>
       </c>
@@ -20100,7 +20100,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>976</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>980</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>984</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>987</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>993</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>996</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>1001</v>
       </c>
@@ -20171,7 +20171,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>1007</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>1013</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>1019</v>
       </c>
@@ -20204,7 +20204,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>1025</v>
       </c>
@@ -20215,7 +20215,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>1029</v>
       </c>
@@ -20223,7 +20223,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>1032</v>
       </c>
@@ -20231,7 +20231,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>1035</v>
       </c>
@@ -20242,7 +20242,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>1040</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>1046</v>
       </c>
@@ -20261,7 +20261,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>1049</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>1052</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>1058</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>1061</v>
       </c>
@@ -20299,7 +20299,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>1065</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>1066</v>
       </c>
@@ -20318,7 +20318,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>1070</v>
       </c>
@@ -20326,7 +20326,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>1073</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>1076</v>
       </c>
@@ -20342,7 +20342,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>1078</v>
       </c>
@@ -20350,7 +20350,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>1081</v>
       </c>
@@ -20358,7 +20358,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>1084</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>1087</v>
       </c>
@@ -20377,7 +20377,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>1093</v>
       </c>
@@ -20388,7 +20388,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>1099</v>
       </c>
@@ -20399,7 +20399,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>1105</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>1111</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>1117</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>1122</v>
       </c>
@@ -20443,7 +20443,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>1128</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>1134</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>1135</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>1138</v>
       </c>
@@ -20478,7 +20478,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>1141</v>
       </c>
@@ -20489,7 +20489,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>1147</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>1153</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>1155</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>1156</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>1157</v>
       </c>
@@ -20532,7 +20532,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>1160</v>
       </c>
@@ -20540,7 +20540,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>1161</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>1163</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>1166</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>1169</v>
       </c>
@@ -20575,7 +20575,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>1172</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>1176</v>
       </c>
@@ -20594,7 +20594,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>1178</v>
       </c>
@@ -20602,7 +20602,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>1180</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>1184</v>
       </c>
@@ -20624,7 +20624,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>1188</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>1192</v>
       </c>
@@ -20643,7 +20643,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>1195</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>1199</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>1200</v>
       </c>
@@ -20670,7 +20670,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>1203</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>1209</v>
       </c>
@@ -20692,7 +20692,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>1213</v>
       </c>
@@ -20703,7 +20703,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>1216</v>
       </c>
@@ -20714,7 +20714,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>1221</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>1227</v>
       </c>
@@ -20733,7 +20733,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>1228</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>1231</v>
       </c>
@@ -20752,7 +20752,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>1236</v>
       </c>
@@ -20760,7 +20760,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>1239</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>1242</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>1248</v>
       </c>
@@ -20787,7 +20787,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
         <v>1251</v>
       </c>
@@ -20798,7 +20798,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>1257</v>
       </c>
@@ -20809,7 +20809,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>1262</v>
       </c>
@@ -20820,7 +20820,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>1267</v>
       </c>
@@ -20831,7 +20831,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>1273</v>
       </c>
@@ -20839,7 +20839,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>1274</v>
       </c>
@@ -20847,7 +20847,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>1277</v>
       </c>
@@ -20858,7 +20858,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>1283</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>1289</v>
       </c>
@@ -20877,7 +20877,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>1292</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>1298</v>
       </c>
@@ -20899,7 +20899,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>1301</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>1305</v>
       </c>
@@ -20921,7 +20921,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>1310</v>
       </c>
@@ -20932,7 +20932,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>1314</v>
       </c>
@@ -20940,7 +20940,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>1315</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>1316</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>1320</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>1323</v>
       </c>
@@ -20978,7 +20978,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>1326</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>1329</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>1333</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>1336</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>1342</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>1348</v>
       </c>
@@ -21035,7 +21035,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>1351</v>
       </c>
@@ -21043,7 +21043,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>1354</v>
       </c>
@@ -21054,7 +21054,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>1360</v>
       </c>
@@ -21062,7 +21062,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>1363</v>
       </c>
@@ -21073,7 +21073,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>1368</v>
       </c>
@@ -21081,7 +21081,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>1371</v>
       </c>
@@ -21092,7 +21092,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>1376</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>1379</v>
       </c>
@@ -21108,7 +21108,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>1382</v>
       </c>
@@ -21116,7 +21116,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>1385</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>1387</v>
       </c>
@@ -21132,7 +21132,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>1390</v>
       </c>
@@ -21140,7 +21140,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>1391</v>
       </c>
@@ -21151,7 +21151,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
         <v>1395</v>
       </c>
@@ -21162,7 +21162,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>1401</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>1407</v>
       </c>
@@ -21184,7 +21184,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>1413</v>
       </c>
@@ -21192,7 +21192,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>1415</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>1418</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>1424</v>
       </c>
@@ -21219,7 +21219,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>1427</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>1428</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>1431</v>
       </c>
@@ -21243,7 +21243,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>1433</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>1436</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>1440</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>1446</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
         <v>1451</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>1453</v>
       </c>
@@ -21303,7 +21303,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
         <v>1456</v>
       </c>
@@ -21311,7 +21311,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
         <v>1459</v>
       </c>
@@ -21322,7 +21322,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
         <v>1464</v>
       </c>
@@ -21333,7 +21333,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>1470</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
         <v>1476</v>
       </c>
@@ -21355,7 +21355,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>1481</v>
       </c>
@@ -21366,7 +21366,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>1484</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
         <v>1488</v>
       </c>
@@ -21388,7 +21388,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
         <v>1494</v>
       </c>
@@ -21399,7 +21399,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>1499</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
         <v>1505</v>
       </c>
@@ -21421,7 +21421,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>1511</v>
       </c>
@@ -21432,7 +21432,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
         <v>1517</v>
       </c>
@@ -21440,7 +21440,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>1520</v>
       </c>
@@ -21451,7 +21451,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
         <v>1525</v>
       </c>
@@ -21462,7 +21462,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>1531</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
         <v>1534</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
         <v>1539</v>
       </c>
@@ -21492,7 +21492,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
         <v>1542</v>
       </c>
@@ -21503,7 +21503,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>1546</v>
       </c>
@@ -21514,7 +21514,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
         <v>1552</v>
       </c>
@@ -21525,7 +21525,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
         <v>1558</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
         <v>1563</v>
       </c>
@@ -21547,7 +21547,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
         <v>1567</v>
       </c>
@@ -21558,7 +21558,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
         <v>1569</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
         <v>1573</v>
       </c>
@@ -21580,7 +21580,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
         <v>1579</v>
       </c>
@@ -21591,7 +21591,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
         <v>1585</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
         <v>1590</v>
       </c>
@@ -21613,7 +21613,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
         <v>1595</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
         <v>1599</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
         <v>1603</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
         <v>1608</v>
       </c>
@@ -21651,17 +21651,17 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
         <v>1616</v>
       </c>
@@ -21669,7 +21669,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
         <v>1622</v>
       </c>
@@ -21677,7 +21677,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
         <v>1627</v>
       </c>
@@ -21685,7 +21685,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
         <v>1632</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
         <v>1638</v>
       </c>
@@ -21701,12 +21701,12 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
         <v>1647</v>
       </c>
@@ -21714,7 +21714,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
         <v>1653</v>
       </c>
@@ -21722,27 +21722,27 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
         <v>1661</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
         <v>1667</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
         <v>1670</v>
       </c>
@@ -21750,7 +21750,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
         <v>1676</v>
       </c>
@@ -21758,7 +21758,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
         <v>1682</v>
       </c>
@@ -21766,12 +21766,12 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
         <v>1688</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
         <v>1694</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
         <v>1700</v>
       </c>
@@ -21795,7 +21795,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
         <v>1704</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
         <v>1708</v>
       </c>
@@ -21811,12 +21811,12 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
         <v>1717</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
         <v>1723</v>
       </c>
@@ -21832,7 +21832,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
         <v>1729</v>
       </c>
@@ -21840,22 +21840,22 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
         <v>1738</v>
       </c>

--- a/sourceTables/Sliced/FictionTolkienMascMen.xlsx
+++ b/sourceTables/Sliced/FictionTolkienMascMen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nag\PycharmProjects\MyNamesEnvironment\sourceTables\Sliced\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\Development\Nickname generator wrap\MyNamesEnvironment\sourceTables\Sliced\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="2232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="2226">
   <si>
     <t>Adrahil I</t>
   </si>
@@ -5881,18 +5881,9 @@
     <t>FictionTolkienMenMascRunsig</t>
   </si>
   <si>
-    <t>Sigrid</t>
-  </si>
-  <si>
     <t>http://lotr.wikia.com/wiki/Sigrid</t>
   </si>
   <si>
-    <t>FictionTolkienMenMascSigrid</t>
-  </si>
-  <si>
-    <t>Сигрид</t>
-  </si>
-  <si>
     <t>http://ru.lotr.wikia.com/wiki/%D0%A1%D0%B8%D0%B3%D1%80%D0%B8%D0%B4</t>
   </si>
   <si>
@@ -5926,16 +5917,7 @@
     <t>FictionTolkienMenMascTalElmar</t>
   </si>
   <si>
-    <t>Tilda</t>
-  </si>
-  <si>
     <t>http://lotr.wikia.com/wiki/Tilda</t>
-  </si>
-  <si>
-    <t>FictionTolkienMenMascTilda</t>
-  </si>
-  <si>
-    <t>Тильда</t>
   </si>
   <si>
     <t>http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B8%D0%BB%D1%8C%D0%B4%D0%B0</t>
@@ -6748,7 +6730,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6758,6 +6740,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6789,7 +6777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6811,6 +6799,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7115,28 +7113,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L344"/>
+  <dimension ref="A1:L342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:A342"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.59765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.86328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28.1328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.265625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.86328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="40.265625" style="2" customWidth="1"/>
     <col min="11" max="11" width="41" style="4" customWidth="1"/>
-    <col min="12" max="12" width="39.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="39.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6">
         <v>1</v>
       </c>
@@ -7173,7 +7171,7 @@
         <v>&lt;key&gt;Adrahil I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.1.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Он происходил из знатного Нуменорского рода, что поселился в Белфаласе во Вторую Эпоху. Из-за этого, можно сделать вывод, что он был предком Имразора, Галадора и всех лордов Дол Амрота.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%B4%D1%80%D0%B0%D1%85%D0%B8%D0%BB%D1%8C_I&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAdrahilI&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>2</v>
       </c>
@@ -7210,7 +7208,7 @@
         <v>&lt;key&gt;Adrahil II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.2.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Адрахиль (2917 - 3010 гг.) — 21-й принц Дол-Амрота и правитель Белфаласа.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%B4%D1%80%D0%B0%D1%85%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAdrahilII&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -7247,7 +7245,7 @@
         <v>&lt;key&gt;Ælfwine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.3.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эльфин (англ.Aelwine) — британский мореход, упоминается в 'Утраченных Преданиях'.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BB%D1%8C%D1%84%D0%B2%D0%B8%D0%BD_(%D0%B1%D1%80%D0%B8%D1%82%D0%B0%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D0%BC%D0%BE%D1%80%D0%B5%D1%85%D0%BE%D0%B4)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAElfwine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -7284,7 +7282,7 @@
         <v>&lt;key&gt;Aglahad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.4.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Аглахад — девятнадцатый принц Дол Амрота.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%B3%D0%BB%D0%B0%D1%85%D0%B0%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAglahad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>5</v>
       </c>
@@ -7312,7 +7310,7 @@
         <v>&lt;key&gt;Albert Dreary&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.5.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAlbertDreary&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -7349,7 +7347,7 @@
         <v>&lt;key&gt;Aldamir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.6.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Альдамир родился в 1330-ом году Т.Э. в семье Эльдакара, сына Валакара — принца Гондора. Тогда Гондором правил Ромендакиль II. Альдамир был младшим сыном Эльдакара и братом Орнендиля. Во время правления его отца, в стране произошла гражданская война известная как 'Распря Родичей'. Кастамир Узурпатор, пользуясь недовольством южных провинций из-за того, что матерью Эльдакара была северянка, решил захватит трон и в 1437 году Т .Э. напал на Осгилиат.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BB%D1%8C%D0%B4%D0%B0%D0%BC%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAldamir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>7</v>
       </c>
@@ -7383,7 +7381,7 @@
         <v>&lt;key&gt;Aldor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.7.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BB%D0%B4%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>8</v>
       </c>
@@ -7417,7 +7415,7 @@
         <v>&lt;key&gt;Alfrid Lickspittle&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.8.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BB%D1%8C%D1%84%D1%80%D0%B8%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAlfridLickspittle&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>9</v>
       </c>
@@ -7451,7 +7449,7 @@
         <v>&lt;key&gt;Algund&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.9.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BB%D0%B3%D1%83%D0%BD%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAlgund&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -7485,7 +7483,7 @@
         <v>&lt;key&gt;Alphros&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.10.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BB%D1%84%D1%80%D0%BE%D1%81&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAlphros&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -7522,7 +7520,7 @@
         <v>&lt;key&gt;Amandil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.11.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В Нуменоре Амандиль возглавлял элендилей («друзей эльфов») или Верных, подвергавшихся преследованиям со стороны «Людей Короля». При этом в юности Амандиль был близким другом Ар-Фаразона, последнего из королей Нуменора, с которым вместе вырос. Во дни короля Тар-Палантира он также прославился по всему Нуменору как великий мореплаватель и капитан. Позднее Амандиль был введён в нуменорский Совет Скипетра. Однако, когда Ар-Фаразон привёз на нуменорскую землю покорившегося Саурона, дружба короля и Амандиля дала трещину. Вскоре Амандиль попал в опалу: по наущению Саурона его исключили из числа членов Совета Скипетра и ему пришлось вернуться в Роменну.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BC%D0%B0%D0%BD%D0%B4%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAmandil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>12</v>
       </c>
@@ -7559,7 +7557,7 @@
         <v>&lt;key&gt;Amrothos&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.12.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Имя Амротос связано с эльфом по имени Амрот, в честь коего был назван Дол-Амрот. Само имя означает «высоко лезущий» от am(amba), означающего «вверх», и rath, означающего «лезть, карабкаться». Имя не на чистом синдарине и, возможно, подверглось влиянию языка лесных эльфов.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BC%D1%80%D0%BE%D1%82%D0%BE%D1%81&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAmrothos&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>13</v>
       </c>
@@ -7596,7 +7594,7 @@
         <v>&lt;key&gt;Anardil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.13.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Анардиль родился в 136-ом году Третьей эпохи в семье Эарендиля, тогда правил ещё его прадед Менельдиль. Анардиля назвали так, потому, что он должен был стать 6-м королём королевства, а 6-м королём Падшего Нуменора был Тар-Алдарион, имя которого на квенья, до вступления на престол было Анардиль.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BD%D0%B0%D1%80%D0%B4%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAnardil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>14</v>
       </c>
@@ -7633,7 +7631,7 @@
         <v>&lt;key&gt;Anárion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.14.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Анарион (Anarion | кв. Сын Солнца) — был вторым младшим сыном Элендиля и братом Исильдура. Его сын, Менелдиль, был последним человеком, который родился в Нуменоре, прежде чем тот низвергся в морскую пучину.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BD%D0%B0%D1%80%D0%B8%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAnarion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -7661,7 +7659,7 @@
         <v>&lt;key&gt;Anborn&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.15.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAnborn&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -7698,7 +7696,7 @@
         <v>&lt;key&gt;Andróg&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.16.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Андрог бежал из Дор-ломина от преследования после того, как убил женщину, и в лесах к западу от Дориата примкнут к Гаурвайт, которыми руководил Форвег. Он был в отряде, когда они встретили на своей земле незнакомца. Это был Турин, который отказался выкупить свою жизнь, но пообещал дорого продать свою жизнь. После того, как Турин убил одного из гаурвайт и Форвег вынес решение о присоединение Турина к отряду на голосование, Андрог сперва был против. Однако когда Турин намеревался сразиться с ним, Андрог бросил свой лук и подойдя к Турину, признал себя не ровней ему, хотя признал таковыми и всех остальных, под конец, Андрог проголосовал за присоединение Турина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BD%D0%B4%D1%80%D0%BE%D0%B3&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAndrog&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -7735,7 +7733,7 @@
         <v>&lt;key&gt;Andvír&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.17.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Андвир не упомянут ни в одной из версий Детей Хурина. Однако, его роль описана во вступительном тексте, не включённом в опубликованную версию.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BD%D0%B4%D0%B2%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAndvir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -7763,7 +7761,7 @@
         <v>&lt;key&gt;Angamaitë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.18.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAngamaite&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>19</v>
       </c>
@@ -7791,7 +7789,7 @@
         <v>&lt;key&gt;Angbor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.19.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAngbor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>20</v>
       </c>
@@ -7828,7 +7826,7 @@
         <v>&lt;key&gt;Angelimir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.20.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ангелимир (2866—2977 гг.) — 20-й принц Дол Амрота.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BD%D0%B3%D0%B5%D0%BB%D0%B8%D0%BC%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAngelimir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>21</v>
       </c>
@@ -7862,7 +7860,7 @@
         <v>&lt;key&gt;Angrim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.21.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BD%D0%B3%D1%80%D0%B8%D0%BC&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAngrim&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>22</v>
       </c>
@@ -7899,7 +7897,7 @@
         <v>&lt;key&gt;Ar-Adûnakhôr&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.22.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Первый король, который официально и без сокрытия от всех провозгласил себя королём с именем на адунаике.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%80-%D0%90%D0%B4%D1%83%D0%BD%D0%B0%D0%BA%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascArAdunakhor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>23</v>
       </c>
@@ -7936,7 +7934,7 @@
         <v>&lt;key&gt;Aragorn II Elessar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.23.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Арагорн (синд. Aragorn) — сын Араторна II и Гильраэн. Вождь дунэдайн Севера. Прямой наследник Исильдура, последнего Верховного Короля Арнора и Гондора. Арагорн стал величайшим из Людей своей эпохи, возглавлял Людей Запада в войне против сил Саурона, помог уничтожить Кольцо Всевластия (был одним из Девяти его Хранителей), воссоединил королевства Арнора и Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%80%D0%B0%D0%B3%D0%BE%D1%80%D0%BD_II_%D0%AD%D0%BB%D0%B5%D1%81%D1%81%D0%B0%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAragornIIElessar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>24</v>
       </c>
@@ -7973,7 +7971,7 @@
         <v>&lt;key&gt;Aratan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.24.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Аратан родился в Гондоре в 3339 В. Э. У него был старший брат, Элендур и младшие братья, Кирьон и Валандиль.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%80%D0%B0%D1%82%D0%B0%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAratan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>25</v>
       </c>
@@ -8010,7 +8008,7 @@
         <v>&lt;key&gt;Arciryas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.25.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Аркирьяс — сын короля Телумехтара Умбардакила.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%80%D0%BA%D0%B8%D1%80%D1%8C%D1%8F%D1%81&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascArciryas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>26</v>
       </c>
@@ -8038,7 +8036,7 @@
         <v>&lt;key&gt;Ardamir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.26.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascArdamir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>27</v>
       </c>
@@ -8075,7 +8073,7 @@
         <v>&lt;key&gt;Ar-Gimilzôr&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.27.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Родился в 2960 В. Э. и был сыном Ар-Сакальтора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%80-%D0%93%D0%B8%D0%BC%D0%B8%D0%BB%D1%8C%D0%B7%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascArGimilzor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>28</v>
       </c>
@@ -8112,7 +8110,7 @@
         <v>&lt;key&gt;Ar-Pharazôn&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.28.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;А́р-Фа́разон (англ. Ar-Pharazôn | кв. Тар-Калион) — человек-дунадан. 25-й и последний Король Нуменора, узурпировавший титул, но признанный большинством нуменорцев.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%80-%D0%A4%D0%B0%D1%80%D0%B0%D0%B7%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascArPharazon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>29</v>
       </c>
@@ -8149,7 +8147,7 @@
         <v>&lt;key&gt;Ar-Sakalthôr&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.29.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;После смерти отца, Ар-Зимратона, в 3033 В. Э., Сакальтор стал править в Нуменоре, взяв королевскую приставку к имени на адунаике - Ар-.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%80-%D0%A1%D0%B0%D0%BA%D0%B0%D0%BB%D1%8C%D1%82%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascArSakalthor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>30</v>
       </c>
@@ -8186,7 +8184,7 @@
         <v>&lt;key&gt;Artamir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.30.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Артамир и его отец Ондогер были главнокомандующими армий Гондора на его северных границах, когда королевство подверглось одновременной атаке с Востока и Юга. Фортвини, глава Эотеода, предупредил короля Ондогера о выступлении в поход Людей Повозок, поэтому в 1944 Т.Э. он и Артамир переместились с войском в Итилиен, чтобы затем занять позиции на Дагорладе, где и предстояло встретить врага. К несчастью, враг пришёл не с северного направления, как ожидалось, а с востока, через склоны Эред Луин. Более того, они оказались в Дагорладе быстрее, чем расчитывали гондорцы. Армия короля Ондогера оказалось сильно растянутой по большой территории, когда авангард был уничтожен мощным ударом кавалерии и колесничих. Артамир был убит в этой атаке, вместе с отцом и практически всеми гвардейцами.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%80%D1%82%D0%B0%D0%BC%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascArtamir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>31</v>
       </c>
@@ -8223,7 +8221,7 @@
         <v>&lt;key&gt;Arthad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.31.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Артад сражался в Дагор Браголлах под коммандованием Барахира. Он был одним из немногим выживших в битве, что остались верны своему сюзерену. Они сформировали небольшой отряд, скрывающийся в Дортонионе, вблизи Тарн Аэлуин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%80%D1%82%D0%B0%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascArthad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>32</v>
       </c>
@@ -8260,7 +8258,7 @@
         <v>&lt;key&gt;Ar-Zimrathôn&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.32.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Сын Ар-Адунакора, который на квенья должен был бы зваться как Тар-Хостамир.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%80-%D0%97%D0%B8%D0%BC%D1%80%D0%B0%D1%82%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascArZimrathon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>33</v>
       </c>
@@ -8297,7 +8295,7 @@
         <v>&lt;key&gt;Asgon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.33.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Асгон - человек из Дор-ломина, живший там во время правления захвативших край истерлингов, после Нирнаэт Арноэдиад. Он стал изгнанником в Эред Ветрин после того, как Турин убил Бродду. Позже, Асгон встретил Хурина, рассказал ему о деяниях его сына, и сопровождал его в дальнейших странствиях.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%81%D0%B3%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAsgon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>34</v>
       </c>
@@ -8325,7 +8323,7 @@
         <v>&lt;key&gt;Atanalcar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.34.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAtanalcar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>35</v>
       </c>
@@ -8362,7 +8360,7 @@
         <v>&lt;key&gt;Atanatar I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.35.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Атанатар I (англ. Atanatar) — 10-ый Король Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%82%D0%B0%D0%BD%D0%B0%D1%82%D0%B0%D1%80_I&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAtanatarI&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>36</v>
       </c>
@@ -8399,7 +8397,7 @@
         <v>&lt;key&gt;Atanatar II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.36.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Атанатар родился в 977 году Третьей Эпохи в семье принца Гондора Кирьягера, тогда правил еще его дед Кирьяндиль, но после того как он погиб в 1015, Кирьягер стал королем и отомстил харадрим и Черным нуменорцам за отца, а за время его правления, королевство достигло пика могущества. Но Атанатар вырос ленивым человеком и любил легкую и роскошную жизнь, так что люди говорили,&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%82%D0%B0%D0%BD%D0%B0%D1%82%D0%B0%D1%80_II&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAtanatarII&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>37</v>
       </c>
@@ -8427,7 +8425,7 @@
         <v>&lt;key&gt;Aulendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.37.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAulendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>38</v>
       </c>
@@ -8464,7 +8462,7 @@
         <v>&lt;key&gt;Axantur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.38.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Аксантур — внук Вардамира Нолимона. Аксантур родился в 395 году Второй Эпохи. Его отцом был Нолондиль, сын Вардамира, второго правителя Нуменора. У него были старшая сестра Йавиэн и старший брат Оромэндиль.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BA%D1%81%D0%B0%D0%BD%D1%82%D1%83%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAxantur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>39</v>
       </c>
@@ -8501,7 +8499,7 @@
         <v>&lt;key&gt;Baldor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.39.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Балдор (англ.Baldor) — наследник короля Брего, второго короля Рохана. На пиру, где праздновалось завершение строительства Медусельда, он поклялся войти на Тропы Мёртвых и, попытавшись сделать это, пропал без вести. Его останки обнаружил Арагорн во время Войны Кольца: его скелет со сломанными ногами, одетый в кольчугу, лежал рядом с каменной дверью, а рядом с ним был сломанный меч. На двери были отметины от пальцев, что указывало на тщетные попытки Балдора открыть дверь[1].&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B0%D0%BB%D0%B4%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBaldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>40</v>
       </c>
@@ -8538,7 +8536,7 @@
         <v>&lt;key&gt;Barach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.40.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Барах (англ.Barach — мужчина из народа Халет, обитавший в лесу Бретиль в Первую Эпоху.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B0%D1%80%D0%B0%D1%85&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBarach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>41</v>
       </c>
@@ -8575,7 +8573,7 @@
         <v>&lt;key&gt;Baragund&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.41.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В 443 П.Э. у Барагунда родилась дочь Морвен. Вместе со своим братом Белегундом участвовал в Дагор Браголлах под командованием своего дяди Барахира. Они пережили битву, но оказались отброшены со своей земли. Вместе с Барахиром и ещё десятью товарищами, они создали небольшой отряд изгнанников в Дортонионе, вблизи Тарн Аэлуин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B0%D1%80%D0%B0%D0%B3%D1%83%D0%BD%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBaragund&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>42</v>
       </c>
@@ -8612,7 +8610,7 @@
         <v>&lt;key&gt;Barahir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.42.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Барахир, сын Брегора и младший брат Бреголаса, взял в жёны Эмельдир Мужесердую. У них был единственный сын, Берен.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B0%D1%80%D0%B0%D1%85%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBarahir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>43</v>
       </c>
@@ -8649,7 +8647,7 @@
         <v>&lt;key&gt;Baran&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.43.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Баран был старшим сыном вождя Первого дома эдайн Беора, правившего в Эстоладе. Его братом был Белен, и оба они родились к востоку от Голубых гор, прежде, чем их народ поселился в Белерианде. У него было двое сыновей - Борон и Баранор. В 335 П. Э. Беор отправился на службу к Финроду Фелагунду, и Баран стал новым вождём.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B0%D1%80%D0%B0%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBaran&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>44</v>
       </c>
@@ -8677,7 +8675,7 @@
         <v>&lt;key&gt;Baranor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.44.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBaranor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>45</v>
       </c>
@@ -8705,7 +8703,7 @@
         <v>&lt;key&gt;Barney Butterbur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.45.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBarneyButterbur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>46</v>
       </c>
@@ -8742,7 +8740,7 @@
         <v>&lt;key&gt;Beldir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.46.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Бельдир был сыном Белена. У него был единственный сын, Белемир, рождённый в 339 П.Э.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B5%D0%BB%D1%8C%D0%B4%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBeldir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>47</v>
       </c>
@@ -8779,7 +8777,7 @@
         <v>&lt;key&gt;Belecthor I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.47.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Белектор I (англ. Belecthor I) пятнадцатый Наместник Гондора принявший бразды правления после смерти отца Хурина II в 2628 Т.Э.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B5%D0%BB%D0%B5%D0%BA%D1%82%D0%BE%D1%80_I&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBelecthorI&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>48</v>
       </c>
@@ -8816,7 +8814,7 @@
         <v>&lt;key&gt;Belecthor II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.48.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Белектор II — 21-й наместник Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B5%D0%BB%D0%B5%D0%BA%D1%82%D0%BE%D1%80_II&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBelecthorII&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>49</v>
       </c>
@@ -8850,7 +8848,7 @@
         <v>&lt;key&gt;Belegorn&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.49.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B5%D0%BB%D0%B5%D0%B3%D0%BE%D1%80%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBelegorn&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>50</v>
       </c>
@@ -8887,7 +8885,7 @@
         <v>&lt;key&gt;Belegund&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.50.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Белегунд был сыном Бреголаса, братом Барагунда и Белет У него была единственная дочь, Риан, от неназванной жены. Белегунд вместе со своим братом сражался в Дагор Браголлах под командованием их дяди Барахира. Они пережили битву, но были отброшены со своей земли. С Барахиром и ещё десятью спутниками он жил изгнанником в Дортонионе, вблизи Тарн Аэлуин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B5%D0%BB%D0%B5%D0%B3%D1%83%D0%BD%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBelegund&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>51</v>
       </c>
@@ -8924,7 +8922,7 @@
         <v>&lt;key&gt;Belemir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.51.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Белемир был сыном Бельдира и мужем Аданэль из дома Мараха. Его сыном был Берен, дед героя Первой Эпохи Берена Эрхамиона. Сказано также, что прежде Берена у него и Аданэль родились ещё четверо детей. В его доме несколько лет жила Андрет, мудрая женщина народа Беора, где она и узнала от Аданэль многие предания эдайн.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B5%D0%BB%D0%B5%D0%BC%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBelemir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>52</v>
       </c>
@@ -8961,7 +8959,7 @@
         <v>&lt;key&gt;Belen&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.52.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Белен (р. 292 П.Э.) — младший сын Беора Старого.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B5%D0%BB%D0%B5%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBelen&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>53</v>
       </c>
@@ -8998,7 +8996,7 @@
         <v>&lt;key&gt;Bëor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.53.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Будущий вождь эдайн был рождён в Эриадоре под именем Балан. Он был одним из людей, желавших достичь края Богов на Западе. Вместо со своими сыновьями Беленом и Бараном он повёл свой народ в Белерианд. Прежде, чем пересечь Голубые горы в 310 П.Э., они встретили на своём пути гномов и авари. Именно по гномьему тракту они прошли большую часть пути.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B5%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBeor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>54</v>
       </c>
@@ -9035,7 +9033,7 @@
         <v>&lt;key&gt;Bereg&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.54.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Берег был сыном Баранора и правнуком Беора Старого. Он поднял недовольство среди людей, стоявших лагерем в Эстоладе. Тысяча людей поддержали его, и последовали за ним из Белерианда в 369 П.Э..&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B5%D1%80%D0%B5%D0%B3&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBereg&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>55</v>
       </c>
@@ -9063,7 +9061,7 @@
         <v>&lt;key&gt;Beregar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.55.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBeregar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
         <v>56</v>
       </c>
@@ -9100,7 +9098,7 @@
         <v>&lt;key&gt;Beregond&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.56.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Берегонд — 20-й наместник-правитель Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B5%D1%80%D0%B5%D0%B3%D0%BE%D0%BD%D0%B4_(%D0%BD%D0%B0%D0%BC%D0%B5%D1%81%D1%82%D0%BD%D0%B8%D0%BA)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBeregond&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
         <v>57</v>
       </c>
@@ -9128,7 +9126,7 @@
         <v>&lt;key&gt;Berelach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.57.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBerelach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
         <v>58</v>
       </c>
@@ -9165,7 +9163,7 @@
         <v>&lt;key&gt;Beren&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.58.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Берен родился в 432 П. Э. принадлежал к Дому Беора, владевшему Ладросом в Дортонионе.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B5%D1%80%D0%B5%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBeren&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
         <v>59</v>
       </c>
@@ -9193,7 +9191,7 @@
         <v>&lt;key&gt;Bergil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.59.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBergil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
         <v>60</v>
       </c>
@@ -9230,7 +9228,7 @@
         <v>&lt;key&gt;Bladorthin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.60.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Бладортин - король людей, упоминаемый в 'Хоббите'.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%BB%D0%B0%D0%B4%D0%BE%D1%80%D1%82%D0%B8%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBladorthin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
         <v>61</v>
       </c>
@@ -9267,7 +9265,7 @@
         <v>&lt;key&gt;Bór&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.61.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Племя Бора было землевладельцами и многие осели на севере Эриадора, составляя его населения во Вторую и Третью Эпохи. Народ Бора пришёл в Белерианд в 463 году П. Э. Он сам и его сыновья, Борлад, Борлах и Бортанд, были верными союзниками Маэдроса и Маглора. Во время Нирнаэт Арноэдиад, они со своими воинами единственные из истерлингов сохранили верность эльдар. Сыновья Бора пали в той битве, войдя в летописи как 'Верные'.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
         <v>62</v>
       </c>
@@ -9304,7 +9302,7 @@
         <v>&lt;key&gt;Borlach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.62.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Борлах (англ.Borlach) — один из сыновей Бора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%BE%D1%80%D0%BB%D0%B0%D1%85&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBorlach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
         <v>63</v>
       </c>
@@ -9341,7 +9339,7 @@
         <v>&lt;key&gt;Borlad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.63.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Род Борлада был вассалом Маэдроса и Маглора, старших сыновей Феанора. Он с братьями и отцом сражался в Нирнаэт Арноэдиад, сохранив верность нолдор. Перед тем, как все они были убиты, им удалось сразить сыновей Улфанга.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%BE%D1%80%D0%BB%D0%B0%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBorlad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
         <v>64</v>
       </c>
@@ -9369,7 +9367,7 @@
         <v>&lt;key&gt;Borlas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.64.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBorlas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
         <v>65</v>
       </c>
@@ -9407,7 +9405,7 @@
         <v>&lt;key&gt;Boromir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.65.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Боромир — старший сын и наследник наместника Гондора Дэнетора II и его жены Финдуилас, брат Фарамира.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%BE%D1%80%D0%BE%D0%BC%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBoromir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="6">
         <v>66</v>
       </c>
@@ -9444,7 +9442,7 @@
         <v>&lt;key&gt;Boron&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.66.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Борон родился в Эстоладе в семье Барана, сына великого вождя Беора Старого. Когда он был ещё ребёнком, его племя покинуло Эстолад и двинулось в Дортонион. В пути родился младший брат Борона, Баранор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%BE%D1%80%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBoron&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
         <v>67</v>
       </c>
@@ -9472,7 +9470,7 @@
         <v>&lt;key&gt;Borondir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.67.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBorondir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
         <v>68</v>
       </c>
@@ -9509,7 +9507,7 @@
         <v>&lt;key&gt;Borthand&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.68.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;После того, как род Борлаха пересёк Голубые горы,  они стали вассалами Маэдроса и Маглора, старших сыновей Феанора. Бортанд вместе с братьями и отцом сражался в Нирнаэт Арноэдиад, сохранив верность нолдор. Перед тем, как все они были убиты, им удалось сразить сыновей Улфанга .&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%BE%D1%80%D1%82%D0%B0%D0%BD%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBorthand&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
         <v>69</v>
       </c>
@@ -9543,7 +9541,7 @@
         <v>&lt;key&gt;Brego&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.69.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D1%80%D0%B5%D0%B3%D0%BE&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBrego&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
         <v>70</v>
       </c>
@@ -9577,7 +9575,7 @@
         <v>&lt;key&gt;Bregolas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.70.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D1%80%D0%B5%D0%B3%D0%BE%D0%BB%D0%B0%D1%81&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBregolas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
         <v>71</v>
       </c>
@@ -9614,7 +9612,7 @@
         <v>&lt;key&gt;Bregor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.71.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Брегор (англ.Bregor) — второй правитель Ладроса.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D1%80%D0%B5%D0%B3%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBregor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
         <v>72</v>
       </c>
@@ -9651,7 +9649,7 @@
         <v>&lt;key&gt;Brodda&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.72.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Бродда был человеком из истерлингов, что служили Властелину Тьмы Морготу. Он не пользовался особым почётом среди своего народа до тех пор, пока истерлинги не оккупировали Хитлум. Бродда храбрым, дерзким и жадным до богатства, потому захватил всё добро прежнего владыки Дор-ломина, Хурина и поработил его народ. Бродда также взял Аэрин из дома Хадора в жёны, против её воли, желая обеспечить себя наследником и создать династию. Бродда хотел разграбить и усадьбу Хурина, однако там он встретил Морвен, жену Хурина. В её глазах Бродде померещился беспощадный взгляд белого демона, и испугавшись возможного зла, он оставил её дом нетронутым.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D1%80%D0%BE%D0%B4%D0%B4%D0%B0&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBrodda&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
         <v>73</v>
       </c>
@@ -9685,7 +9683,7 @@
         <v>&lt;key&gt;Brytta Léofa&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.73.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D1%80%D0%B8%D1%82%D1%82%D0%B0&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBryttaLeofa&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
         <v>74</v>
       </c>
@@ -9719,7 +9717,7 @@
         <v>&lt;key&gt;Calimehtar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.74.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D0%BC%D0%B5%D1%85%D1%82%D0%B0%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCalimehtar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="6">
         <v>75</v>
       </c>
@@ -9756,7 +9754,7 @@
         <v>&lt;key&gt;Calimmacil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.75.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Калиммакиль родился в семье Аркирьяса, сына Телумехтара Умбардакиля. О его жизни ничего не известно, в историю королевства он вошёл благодаря тому, что его внук Эарниль, сын Сириондиля, стал королем Гондора после гибели Ондогера и его двух сыновей от рук Истерлингов.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D0%BC%D0%BC%D0%B0%D0%BA%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCalimmacil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="6">
         <v>76</v>
       </c>
@@ -9784,7 +9782,7 @@
         <v>&lt;key&gt;Caliondo&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.76.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCaliondo&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="6">
         <v>77</v>
       </c>
@@ -9821,7 +9819,7 @@
         <v>&lt;key&gt;Calmacil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.77.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Калмакиль был сыном Нармакиля I и стал таким же ленивым как он и его старший брат. Его сын Миналькар, не был таким как отец и он служил регентом (то есть исполнял неприятную королевскую работу) и у короля Нармакиля — брата Калмакиля, получил неплохой опыт. Также у Калмакиля был второй сын Калимехтар, чьим потомком является Кастамир Узурпатор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D0%B0%D0%BB%D0%BC%D0%B0%D0%BA%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCalmacil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="6">
         <v>78</v>
       </c>
@@ -9858,7 +9856,7 @@
         <v>&lt;key&gt;Cemendur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.78.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Кемендур (кв. Слуга Земли) — 4-й король Гондора. Кемендур был последним гондорским королём, который родился ещё во Вторую Эпоху.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D0%B5%D0%BC%D0%B5%D0%BD%D0%B4%D1%83%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCemendur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="6">
         <v>79</v>
       </c>
@@ -9886,7 +9884,7 @@
         <v>&lt;key&gt;Ceorl&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.79.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCeorl&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="6">
         <v>80</v>
       </c>
@@ -9923,7 +9921,7 @@
         <v>&lt;key&gt;Cirion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.80.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Кирион - 12-ый наместник-правитель Гондора&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D0%B8%D1%80%D0%B8%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCirion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="6">
         <v>81</v>
       </c>
@@ -9960,7 +9958,7 @@
         <v>&lt;key&gt;Ciryandil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.81.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Кириандиль родился в семье Эарниля, сына принца Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D0%B8%D1%80%D0%B8%D0%B0%D0%BD%D0%B4%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCiryandil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="6">
         <v>82</v>
       </c>
@@ -9997,7 +9995,7 @@
         <v>&lt;key&gt;Ciryatur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.82.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Кирьятур (англ. Ciryatur, в переводе с синд. - владыка кораблей) - адмирал флота Нуменора, посланный Тар-Минастиром в 1700 г. В.Э. против армий Саурона.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D0%B8%D1%80%D1%8C%D1%8F%D1%82%D1%83%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCiryatur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="6">
         <v>83</v>
       </c>
@@ -10034,7 +10032,7 @@
         <v>&lt;key&gt;Ciryon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.83.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Кирьон — человек-дунадан, третий сын Исильдура.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D0%B8%D1%80%D1%8C%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCiryon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="6">
         <v>84</v>
       </c>
@@ -10062,7 +10060,7 @@
         <v>&lt;key&gt;Corwin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.84.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascCorwin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="6">
         <v>85</v>
       </c>
@@ -10090,7 +10088,7 @@
         <v>&lt;key&gt;Dagnir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.85.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDagnir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="6">
         <v>86</v>
       </c>
@@ -10118,7 +10116,7 @@
         <v>&lt;key&gt;Dairuin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.86.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDairuin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="6">
         <v>87</v>
       </c>
@@ -10155,7 +10153,7 @@
         <v>&lt;key&gt;Damrod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.87.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Дамрод - был одним из Итилиенских следопытов и самым надёжным человеком в отряде Фарамира. Компаньон Маблунга. По приказу Фарамира, он и Маблунг присматривали и охраняли Фродо и Сэма во время засады гондорцев на Людей Харада в Итилиене. Дамрод рассказал хоббитам об отношениях Гондора и южных племён. Он также не строил иллюзий насчёт будущего Гондора и Минас Тирита, в частности. Позже, после окончания битвы с Харадрим, Маблунг и Дамрод оставались в качестве охранников при хоббитах в Хеннет Аннун. Дамрод возглавлял ночной патруль, который словил Голлума, ловившего рыбу в Запретном озере Хеннет Аннун.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%94%D0%B0%D0%BC%D1%80%D0%BE%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDamrod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="6">
         <v>88</v>
       </c>
@@ -10192,7 +10190,7 @@
         <v>&lt;key&gt;Denethor I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.88.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Дэнетор I – 10-й Наместник Гондора, принявший правление после смерти своего дяди Диора , у которого не было сыновей-наследников. После него стал править наместник Боромир.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%94%D1%8D%D0%BD%D0%B5%D1%82%D0%BE%D1%80_I&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDenethorI&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="6">
         <v>89</v>
       </c>
@@ -10229,7 +10227,7 @@
         <v>&lt;key&gt;Denethor II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.89.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Дэнетор II (англ.Denethor II) — двадцать шестой наместник-правитель королевства Гондор, отец Боромира и Фарамира.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%94%D1%8D%D0%BD%D0%B5%D1%82%D0%BE%D1%80_II&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDenethorII&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="6">
         <v>90</v>
       </c>
@@ -10266,7 +10264,7 @@
         <v>&lt;key&gt;Déor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.90.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В его правление дундланцы выбили у гондорцев Изенгард, но войска Рохиррим через долгое время освободили крепость, и отдали её Гондору.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%94%D0%B5%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDeor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="6">
         <v>91</v>
       </c>
@@ -10294,7 +10292,7 @@
         <v>&lt;key&gt;Déorwine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.91.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDeorwine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="6">
         <v>92</v>
       </c>
@@ -10322,7 +10320,7 @@
         <v>&lt;key&gt;Derufin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.92.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDerufin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="6">
         <v>93</v>
       </c>
@@ -10350,7 +10348,7 @@
         <v>&lt;key&gt;Dervorin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.93.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDervorin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
         <v>94</v>
       </c>
@@ -10387,7 +10385,7 @@
         <v>&lt;key&gt;Dior&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.94.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Согласно традициям Дома Хурина, Диор получил имя в честь человека Первой Эпохи - Диора, сына Берена и Лутиэн.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%94%D0%B8%D0%BE%D1%80_(%D0%BD%D0%B0%D0%BC%D0%B5%D1%81%D1%82%D0%BD%D0%B8%D0%BA)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDior&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
         <v>95</v>
       </c>
@@ -10415,7 +10413,7 @@
         <v>&lt;key&gt;Dírhavel&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.95.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDirhavel&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
         <v>96</v>
       </c>
@@ -10452,7 +10450,7 @@
         <v>&lt;key&gt;Dorlas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.96.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Дорлас — человек из Дома Халет, живший в Первую Эпоху Средиземья.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%94%D0%BE%D1%80%D0%BB%D0%B0%D1%81&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDorlas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
         <v>97</v>
       </c>
@@ -10480,7 +10478,7 @@
         <v>&lt;key&gt;Duilin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.97.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDuilin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
         <v>98</v>
       </c>
@@ -10508,7 +10506,7 @@
         <v>&lt;key&gt;Duinhir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.98.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDuinhir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
         <v>99</v>
       </c>
@@ -10536,7 +10534,7 @@
         <v>&lt;key&gt;Dúnhere&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.99.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDunhere&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="6">
         <v>100</v>
       </c>
@@ -10573,7 +10571,7 @@
         <v>&lt;key&gt;Eärendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.100.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Был сыном Кемендура — четвёртого короля Гондора, который приходился сыном Менелдиля и внуком Анариона. Родился Эарендиль в 48 году Третьей Эпохи, и стал королём уже в 238 году. Он правил 86 лет и умер в 324 году Т.Э., после чего правление перешло к его сыну, Анардилю.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%B0%D1%80%D0%B5%D0%BD%D0%B4%D0%B8%D0%BB%D1%8C_(%D0%BA%D0%BE%D1%80%D0%BE%D0%BB%D1%8C_%D0%93%D0%BE%D0%BD%D0%B4%D0%BE%D1%80%D0%B0)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEarendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="6">
         <v>101</v>
       </c>
@@ -10610,7 +10608,7 @@
         <v>&lt;key&gt;Eärendur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.101.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эарендур — 15 лорд Андуниэ. Предводитель Верных.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%B0%D1%80%D0%B5%D0%BD%D0%B4%D1%83%D1%80_(%D0%9B%D0%BE%D1%80%D0%B4_%D0%90%D0%BD%D0%B4%D1%83%D0%BD%D0%B8%D1%8D)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEarendur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="6">
         <v>102</v>
       </c>
@@ -10647,7 +10645,7 @@
         <v>&lt;key&gt;Eärnil I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.102.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эарниль родился в семье Таркириана — принца Гондора в 736-ом году Третьей Эпохи. В 830-ом году его дядя развил Гондор, как Морскую Державу и гондорцы захватили контроль над Белфаласом.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%B0%D1%80%D0%BD%D0%B8%D0%BB%D1%8C_I&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEarnilI&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="6">
         <v>103</v>
       </c>
@@ -10684,7 +10682,7 @@
         <v>&lt;key&gt;Eärnil II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.103.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эарниль II        Имя:  Эарниль II    Титул:  33-й король Гондора    Раса:  Человек    Культура:  Гондорец, дунэдайн    Пол:  Мужской    Государство:  Гондор    Время жизни:  1883 - 2043 г. Т.Э.(160)    Семья:  Отец — Сириондил сын — Эарнур     Оружие:  Королевский Меч  Эарниль II (кв. Eärnil II) — король Гондора, правил в 1945—2043 гг.  Биография Править Эарниль был сыном Сириондила, который был потомком Аркирьяса сына Телумехтара Умбардакила. В ходе войны с Людьми Повозок в 1944 г. занимал должность главнокомандующего Южной армией Гондора. Сначала Эарниль одержал в Южном Итилиэне победу над войском Харада, перешедшим реку Порос. Затем, совершив марш-бросок на север, он собрал остатки отступающей Северной армии и нанёс сокрушительный удар по главному лагерю Людей Повозок, которые в тот момент пировали и праздновали победу над Гондором. Эарниль напал на лагерь, поджёг повозки и обратил неприятеля в бегство, выдворив его из Итилиэна. Большая часть бежавших сгинула в Мёртвых Топях. После этой блестящей победы наместник Пелендур короновал Эарниля короной королей Гондора. Это решение было горячо поддержано всеми дунэдайн Гондора, так как Эарниль происходил из королевской фамилии, будучи правнуком брата короля Нармакиля II, а также за его отвагу. Не последнюю роль сыграла также поддержка кандидатуры Эарниля Пелендуром. В то же время претензия на престол Арведуи, поданная в тот же период, была отклонена (даже несмотря на его женитьбу на дочери короля Гондора и происхождение по прямой линии от Исильдура) из-за его высокомерия и пренебрежения интересами Гондора. Однако, став королём, Эарниль II (который был дальновидным и умным правителем) отправил Арведуи (тоже ставшему королём Артэдайна) послание, в котором подтверждал добрососедские отношения между двумя государствами и обещал предоставить северянам помощь при необходимости. Скоро такая необходимость возникла: до Гондора дошли вести о том, что Ангмар и его правитель Король-чародей готовятся нанести Артэдайну решающий удар. Эарниль сразу же послал своего сына Эарнура с флотом на север с максимумом войск, которые он мог предоставить для помощи Арведуи. Однако Эарнур опоздал: Арведуи был побежден и бежал на север, где утонул в ледяном заливе Форохел, несмотря на попытки моряков Кирдана спасти его. Однако Эарнур тем не менее уничтожил Ангмар в битве при Форносте с помощью армий эльфов Кирдана из Линдона  и Глорфинделя из Ривенделла. Из-за этого Король-чародей проникся страшной ненавистью к Эарнуру.  В 1980-ом году Т. Э. назгул вернулись в Мордор и собрали огромное войско орков. И в 2000 году войско Мордора вышло. Несмотря на свои военные таланты, Эарнилю пришлось сдать Минас Итиль назгул, которые осаждали город в 2000—2002 гг. После этого поражения Минас Анор (Крепость Солнца) был переименован в Минас Тирит (Крепость-Страж), а Минас Итиль (Крепость Луны) — в Минас Моргул (Колдовская Крепость). Тогда уже во всю шло строительство Барад Дура, он око ещё не зияло на его вершине. Эарниль II умер в 2043 г., оставив трон сыну Эарнуру, не менее талантливому полководцу, но менее дальновидному правителю, чем он сам.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%B0%D1%80%D0%BD%D0%B8%D0%BB%D1%8C_II&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEarnilII&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="6">
         <v>104</v>
       </c>
@@ -10721,7 +10719,7 @@
         <v>&lt;key&gt;Eärnur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.104.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эарнур — 34-й король Гондора, сын Эарниля II.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%B0%D1%80%D0%BD%D1%83%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEarnur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="6">
         <v>105</v>
       </c>
@@ -10758,7 +10756,7 @@
         <v>&lt;key&gt;Ecthelion I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.105.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эктелион наследовал своему отцу Ородрету, после его смерти в 2685 Т.Э. Он перестроил Белую Башню Минас Тирита, и с тех пор она носит его имя.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BA%D1%82%D0%B5%D0%BB%D0%B8%D0%BE%D0%BD_I&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEcthelionI&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="6">
         <v>106</v>
       </c>
@@ -10795,7 +10793,7 @@
         <v>&lt;key&gt;Ecthelion II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.106.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эктелион II (англ.Ecthelion II) — 25-й наместник-правитель Гондора, отец Дэнетора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BA%D1%82%D0%B5%D0%BB%D0%B8%D0%BE%D0%BD_II&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEcthelionII&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
         <v>107</v>
       </c>
@@ -10832,7 +10830,7 @@
         <v>&lt;key&gt;Egalmoth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.107.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эгалмот (англ. Egalmoth) — 18-ый наместник-правитель Гондора&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%B3%D0%B0%D0%BB%D0%BC%D0%BE%D1%82_(%D0%BD%D0%B0%D0%BC%D0%B5%D1%81%D1%82%D0%BD%D0%B8%D0%BA)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEgalmoth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="6">
         <v>108</v>
       </c>
@@ -10860,7 +10858,7 @@
         <v>&lt;key&gt;Elanor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.108.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElanor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="6">
         <v>109</v>
       </c>
@@ -10897,7 +10895,7 @@
         <v>&lt;key&gt;Elatan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.109.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Элатан (англ. Elatan) - предок владык Андуниэ. Элатан родом из гавани Андуниэ на западном побережье Нуменора. Он женился на Сильмариэнь, которая была старшим ребенком Тар-Элендиля из Нуменора. В то время женщины не могли править, так как у Тар-Элендиля был наследник - его младший ребёнок, сын Тар-Менельдур.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BB%D0%B0%D1%82%D0%B0%D0%BD_%D0%B8%D0%B7_%D0%90%D0%BD%D0%B4%D1%83%D0%BD%D0%B8%D1%8D&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElatan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="6">
         <v>110</v>
       </c>
@@ -10934,7 +10932,7 @@
         <v>&lt;key&gt;Elboron&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.110.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Именем Эльборон звался в Ранних и Поздних Анналах Белерианда сын Диора, Элуред, которого слуги Маэдроса бросили умирать в лесу (в поздних версиях слуги Келегорма).&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BB%D1%8C%D0%B1%D0%BE%D1%80%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElboron&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="6">
         <v>111</v>
       </c>
@@ -10968,7 +10966,7 @@
         <v>&lt;key&gt;Eldacar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.111.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эльдакар родился в 1255-ом году Третьей эпохи, в семье Валакара сына Миналькара — регента короля Калмакиля. Эльдакар был сыном Валакара и Видумави — северянки, которая умерла при его родах. Эльдакар родился в Рованионе, именно поэтому некоторые Дунэдайн не хотели признавать его королём.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BB%D1%8C%D0%B4%D0%B0%D0%BA%D0%B0%D1%80_(%D0%BA%D0%BE%D1%80%D0%BE%D0%BB%D1%8C_%D0%93%D0%BE%D0%BD%D0%B4%D0%BE%D1%80%D0%B0)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEldacar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="6">
         <v>112</v>
       </c>
@@ -11005,7 +11003,7 @@
         <v>&lt;key&gt;Eldarion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.112.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эльдарион — сын Арагорна и Арвен. Предположительно Эльдарион родился в 43 году Четвёртой Эпохи. У него было несколько сестер.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BB%D1%8C%D0%B4%D0%B0%D1%80%D0%B8%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEldarion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="6">
         <v>113</v>
       </c>
@@ -11042,7 +11040,7 @@
         <v>&lt;key&gt;Elendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.113.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эле́ндиль (англ.Elendil | вариант перевода Элендил) — человек-дунадан, сын Амандиля, отец Исильдура и Анариона. Законный наследник королевской династии Властителей Нуменора, после пресечения прямой родовой ветви на короле Ар-Фаразоне. Последний, приходился Элендилю родичем через дальнего предка, четвертого короля Нуменора, Тар-Элендиля.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BB%D0%B5%D0%BD%D0%B4%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="6">
         <v>114</v>
       </c>
@@ -11079,7 +11077,7 @@
         <v>&lt;key&gt;Elendur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.114.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Элендур (англ. Elendur) - человек-дунадан, старший сын Исильдура, старший брат Аратана, Кирьона и Валандиля.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BB%D0%B5%D0%BD%D0%B4%D1%83%D1%80_(%D1%81%D1%8B%D0%BD_%D0%98%D1%81%D0%B8%D0%BB%D1%8C%D0%B4%D1%83%D1%80%D0%B0)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElendur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="6">
         <v>115</v>
       </c>
@@ -11116,7 +11114,7 @@
         <v>&lt;key&gt;Elfhelm&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.115.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эльфхельм — маршал Рохана, изначально охранявший Эдорас и его земли по приказу Теодреда, взявшего на себя правление на время. Теодред во время битвы при Изенских бродах, поняв, что не выстоит, отправил гонца с просьбой о помощи в Эдорас. Эльфхельм привёл помощь, но слишком поздно: Теодред и его отряд пали. Он отбил врагов, и поставил точку во время первой битвы. Несмотря на полководческий талант Эльфхельма, вторая битва была проиграна, и его войска отступили в Эдорас. Именно он и его отряды по указанию Гэндальфа возвели курганы возле Изенских Бродов, а затем вернулись в Эдорас и вскоре вместе с соединённой армией Рохана под командованием короля Теодена выдвинулись на помощь Гондору. Эльфхельм командовал отрядом, к которому изначально были причислены Эовин и Мериадок. Он же возглавил войска Рохана, оставшиеся в Гондоре после битвы.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BB%D1%8C%D1%84%D1%85%D0%B5%D0%BB%D1%8C%D0%BC&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElfhelm&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="6">
         <v>116</v>
       </c>
@@ -11153,7 +11151,7 @@
         <v>&lt;key&gt;Elfwine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.116.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эльфвин (англ.Elfwine, или Эльфвин Прекрасный англ.Elfwine the Fair) — девятнадцатый король Рохана.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BB%D1%8C%D1%84%D0%B2%D0%B8%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElfwine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="6">
         <v>117</v>
       </c>
@@ -11190,7 +11188,7 @@
         <v>&lt;key&gt;Elphir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.117.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Умер в 67 году Ч.Э. Его наследником стал сын Алфрос.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BB%D1%8C%D1%84%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElphir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="6">
         <v>118</v>
       </c>
@@ -11227,7 +11225,7 @@
         <v>&lt;key&gt;Elros&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.118.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Элрос или Эльрос (тронное имя Тар-Миниятур или Тар-Миньятур, также в большинстве русскоязычных переводов-Тар-Миниатар) — первый король Нуменора, сын Эарендиля и Эльвинг, брат Элронда-Полуэльфа.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BB%D1%80%D0%BE%D1%81&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElros&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="6">
         <v>119</v>
       </c>
@@ -11255,7 +11253,7 @@
         <v>&lt;key&gt;Enthor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.119.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEnthor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="6">
         <v>120</v>
       </c>
@@ -11292,7 +11290,7 @@
         <v>&lt;key&gt;Éofor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.120.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Предок Эомера и Эовин. Эофор был третьим сыном Короля Рохана Брего. У него было два старших брата Балдор и Алдор. Балдор ушёл Путями Мёртвых и пропал. Алдор наследовал Брего как Король. Эофор жил в Альдбурге в Фолде.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BE%D1%84%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEofor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="6">
         <v>121</v>
       </c>
@@ -11326,7 +11324,7 @@
         <v>&lt;key&gt;Éomer&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.121.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Э́омер (англ.Éomer) — сын Эомунда правителя Истволда, брат Эовин и племянник короля Теодена.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BE%D0%BC%D0%B5%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEomer&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="6">
         <v>122</v>
       </c>
@@ -11363,7 +11361,7 @@
         <v>&lt;key&gt;Éomund&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.122.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эомунд — во времена королей Тенгеля и Теодена был главой Маршалов Марки, ответственным за охрану восточных границ Рохана. Отец Эомера и Эовин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BE%D0%BC%D1%83%D0%BD%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEomund&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="6">
         <v>123</v>
       </c>
@@ -11400,7 +11398,7 @@
         <v>&lt;key&gt;Eorl&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.123.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эорл (англ.Eorl) по прозвищу Юный (англ.the Young) — владыка Эотеода (2501—2510) и первый король Рохана (2510—2545). Был основателем Дома Эорла. Был прозван Юным за то, что стал вождём в возрасте всего шестнадцати лет и сохранил моложавый вид на всю оставшуюся жизнь. В его честь рохиррим называли себя «эорлинги» — «последователи, или сыны Эорла». Конём Эорла был Фелароф, родоначальник великих роханских коней меарас.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BE%D1%80%D0%BB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEorl&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="6">
         <v>124</v>
       </c>
@@ -11425,7 +11423,7 @@
         <v>&lt;key&gt;Éothain&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.124.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEothain&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="6">
         <v>125</v>
       </c>
@@ -11462,7 +11460,7 @@
         <v>&lt;key&gt;Eradan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.125.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Родился в 1999-ом году Третьей Эпохи в семье Мардиля - Наместника тогдашнего короля Гондора Эарниля II. О его жизни до правления известно, что в 2037-ом году у него родился сын - Герион. Также Эрадан был первым наместником в Доме Хурина чьё имя было на синдарине, а не на Квенья как было до этого.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D1%80%D0%B0%D0%B4%D0%B0%D0%BD_(%D0%BD%D0%B0%D0%BC%D0%B5%D1%81%D1%82%D0%BD%D0%B8%D0%BA)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEradan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="6">
         <v>126</v>
       </c>
@@ -11496,7 +11494,7 @@
         <v>&lt;key&gt;Erchirion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.126.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D1%80%D1%85%D0%B8%D1%80%D0%B8%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascErchirion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="6">
         <v>127</v>
       </c>
@@ -11530,7 +11528,7 @@
         <v>&lt;key&gt;Erkenbrand&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.127.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эркенбранд - лорд Вестфолда и маршал Рохана.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D1%80%D0%BA%D0%B5%D0%BD%D0%B1%D1%80%D0%B0%D0%BD%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascErkenbrand&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="6">
         <v>128</v>
       </c>
@@ -11558,7 +11556,7 @@
         <v>&lt;key&gt;Estelmo&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.128.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEstelmo&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="6">
         <v>129</v>
       </c>
@@ -11597,7 +11595,7 @@
         <v>&lt;key&gt;Faramir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.129.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Фарамир (англ.Faramir) — младший сын наместника Гондора  Денетора II и его жены Финдуилас, брат Боромира. Муж Эовин, отец Эльборона, дед Барахира. Последний правящий Наместник Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D0%B0%D1%80%D0%B0%D0%BC%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFaramir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="6">
         <v>130</v>
       </c>
@@ -11625,7 +11623,7 @@
         <v>&lt;key&gt;Fastred&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.130.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFastred&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="6">
         <v>131</v>
       </c>
@@ -11653,7 +11651,7 @@
         <v>&lt;key&gt;Fhaleen&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.131.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFhaleen&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="6">
         <v>132</v>
       </c>
@@ -11681,7 +11679,7 @@
         <v>&lt;key&gt;Findegil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.132.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFindegil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="6">
         <v>133</v>
       </c>
@@ -11715,7 +11713,7 @@
         <v>&lt;key&gt;Folca&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.133.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D0%BE%D0%BB%D0%BA%D0%B0&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFolca&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="6">
         <v>134</v>
       </c>
@@ -11743,7 +11741,7 @@
         <v>&lt;key&gt;Folcred&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.134.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFolcred&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="6">
         <v>135</v>
       </c>
@@ -11780,7 +11778,7 @@
         <v>&lt;key&gt;Folcwine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.135.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;При нём была восстановлена мощь Рохана. Фолквин наконец освободил западные области (между Адорном и Изеном) захваченные дундланцами, и изгнал их в Дундланд (их страна в Энедвайте). Получив известие о крупном вторжении харадримов на Гондор, Фолквин отправил на помощь к Гондору большое войско. Вняв совету прорицателся, он доверил командование своим сыновьям Фолкреду и Фастреду (родились в 2858 году). Оба победили, но и пали в Итилиенской Битве (2885). Наместник короля Гондора Турин II щедро вознаградил Фолквина за помощь. Его наследником стал его младший сын Фенгель.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D0%BE%D0%BB%D0%BA%D0%B2%D0%B8%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFolcwine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="6">
         <v>136</v>
       </c>
@@ -11817,7 +11815,7 @@
         <v>&lt;key&gt;Forlong&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.136.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Форлонг - лорд Лоссарнаха в конце Третьей эпохи. Когда Гондору грозила война, Форлонг привёл 200 своих подданных. Мог привести 2000, но из-за пиратов Умбара, он оставил 1800 оборонять Лоссарнах. Погиб в битве на Пеленнорских полях.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D0%BE%D1%80%D0%BB%D0%BE%D0%BD%D0%B3&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascForlong&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="6">
         <v>137</v>
       </c>
@@ -11851,7 +11849,7 @@
         <v>&lt;key&gt;Forthwini&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.137.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D0%BE%D1%80%D1%82%D0%B2%D0%B8%D0%BD%D0%B8&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascForthwini&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="6">
         <v>138</v>
       </c>
@@ -11879,7 +11877,7 @@
         <v>&lt;key&gt;Forweg&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.138.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascForweg&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="6">
         <v>139</v>
       </c>
@@ -11916,7 +11914,7 @@
         <v>&lt;key&gt;Fram&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.139.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Сокровища, найденные в логове Ската, стали причиной распри между Эотеод и гномами. Гномы Серых Гор, некогда ограбленные драконом, потребовали свою долю в сокровищах. Фрам вместо этого отослал им ожерелье из зубов дракона со словами:&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D1%80%D0%B0%D0%BC&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFram&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="6">
         <v>140</v>
       </c>
@@ -11950,7 +11948,7 @@
         <v>&lt;key&gt;Fréa&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.140.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D1%80%D0%B5%CC%81%D0%B0&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFrea&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="6">
         <v>141</v>
       </c>
@@ -11987,7 +11985,7 @@
         <v>&lt;key&gt;Fréaláf Hildeson&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.141.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Фреалаф (англ. Fréaláf Hildeson) — 10-й король Рохана. Родоначальник Второй ветви королей Рохана. После долгой зимы ему пришлось восстанавливать очень ослабленный Рохан. Именно в его правление гондорцы убрали свои гарнизоны из Изенгарда и поселили там волшебника Сарумана. Король дружески относился к новому соседу.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D1%80%D0%B5%D0%B0%D0%BB%D0%B0%D1%84&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFrealafHildeson&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="6">
         <v>142</v>
       </c>
@@ -12024,7 +12022,7 @@
         <v>&lt;key&gt;Fréawine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.142.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Умер в возрасте 86-ти лет. Ему наследовал его сын Голдвин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D1%80%D0%B5%CC%81%D0%B0%D0%B2%D0%B8%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFreawine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="6">
         <v>143</v>
       </c>
@@ -12061,7 +12059,7 @@
         <v>&lt;key&gt;Frumgar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.143.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Фрумгар — вождь Эотеод. В своё время он повёл все племена Эотеод на север Средиземья. У него был сын Фрам, убивший дракона Ската.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D1%80%D1%83%D0%BC%D0%B3%D0%B0%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFrumgar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="6">
         <v>144</v>
       </c>
@@ -12098,7 +12096,7 @@
         <v>&lt;key&gt;Galador&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.144.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Когда в Мории пробудился балрог, Митреллас и Нимродэль, как и многие другие эльфы, отправились в 1980 г. Т.Э. к морю, чтобы уплыть в Валинор. Однако по дороге они заблудились в Белых Горах и потеряли друг друга. Митреллас была найдена человеком из спасшихся в Средиземье нуменорцев, Имразором. Он приютил её и она стала его женой, родив ему сына Галадора и дочь Гильмит.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D0%B0%D0%BB%D0%B0%D0%B4%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGalador&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="6">
         <v>145</v>
       </c>
@@ -12135,7 +12133,7 @@
         <v>&lt;key&gt;Galdor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.145.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Галдор родился в Дор-ломине, в 417 г. П. Э. Женился на Харет из халадин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D0%B0%D0%BB%D0%B4%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGaldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="6">
         <v>146</v>
       </c>
@@ -12163,7 +12161,7 @@
         <v>&lt;key&gt;Gálmód&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.146.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGalmod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="6">
         <v>147</v>
       </c>
@@ -12197,7 +12195,7 @@
         <v>&lt;key&gt;Gamling&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.147.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Гамлинг — человек из Рохана, уроженец Вестфолда. Старый комендант Хорнбурга, до прихода королевского войска возглавлявший осаждённое в нём местное ополчение, в рядах которого состоял и его внук. Во время штурма он возглавил оборону водостока под стеной, а когда стена была взорвана «пробойным огнём Ортанка», отступил вместе с Эомером, Гимли и уцелевшими воинами в Блистающие Пещеры Агларонда, где они обороняли узкий проход до рассвета. В соответствии с книгой оставался в Хорнбурге, но в экранизации Питера Джексона Гамлинг также принимал участие в битве на Пеленнорских полях.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D0%B0%D0%BC%D0%BB%D0%B8%D0%BD%D0%B3&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGamling&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="6">
         <v>148</v>
       </c>
@@ -12225,7 +12223,7 @@
         <v>&lt;key&gt;Gárulf&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.148.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGarulf&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="6">
         <v>149</v>
       </c>
@@ -12253,7 +12251,7 @@
         <v>&lt;key&gt;Gethron&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.149.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGethron&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="6">
         <v>150</v>
       </c>
@@ -12281,7 +12279,7 @@
         <v>&lt;key&gt;Gildor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.150.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGildor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="6">
         <v>151</v>
       </c>
@@ -12318,7 +12316,7 @@
         <v>&lt;key&gt;Gimilkhâd&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.151.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Гимильхад — младший сын Ар-Гимильзора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D0%B8%D0%BC%D0%B8%D0%BB%D1%8C%D1%85%D0%B0%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGimilkhad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="6">
         <v>152</v>
       </c>
@@ -12346,7 +12344,7 @@
         <v>&lt;key&gt;Gimilzagar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.152.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGimilzagar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="6">
         <v>153</v>
       </c>
@@ -12383,7 +12381,7 @@
         <v>&lt;key&gt;Girion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.153.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В 2770 году, когда дракон Смауг напал на Одинокую Гору, город Дейл был разрушен. Гирион погиб, но его жена и сын спаслись, спустившись по Бегущей в Озёрный город. Многие из королевских сокровищ — в том числе кольчуга и ожерелье — были захвачены Смаугом, став частью его запасов. Ожерелье в итоге было подарено Даином Барду, а затем Трандуилу. Судьба кольчуги неизвестна — возможно, именно она досталась Бильбо). Позже гномы вернули Барду часть золота, на которые он отстроил Дэйл и Эсгарот.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D0%B8%D1%80%D0%B8%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGirion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="6">
         <v>154</v>
       </c>
@@ -12411,7 +12409,7 @@
         <v>&lt;key&gt;Gléowine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.154.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGleowine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="6">
         <v>155</v>
       </c>
@@ -12439,7 +12437,7 @@
         <v>&lt;key&gt;Glirhuin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.155.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGlirhuin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="6">
         <v>156</v>
       </c>
@@ -12467,7 +12465,7 @@
         <v>&lt;key&gt;Golasgil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.156.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGolasgil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="6">
         <v>157</v>
       </c>
@@ -12504,7 +12502,7 @@
         <v>&lt;key&gt;Goldwine&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.157.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Голдвин умер в 2699 г. после девятнадцати лет правления. Ему наследовал сын Деор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D0%BE%D0%BB%D0%B4%D0%B2%D0%B8%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGoldwine&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="6">
         <v>158</v>
       </c>
@@ -12541,7 +12539,7 @@
         <v>&lt;key&gt;Gorlim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.158.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Горлим (англ.Gorlim), также известный как Горлим Несчастный (англ.Gorlim the Unhappy) — сын Ангрима, один из двенадцати спутников Барахира. В «Песни Лейтиан» говорится о том, как Барахир, последний владыка людей Ладроса (Дортониона) остался отверженным в собственной стране после её падения под ударами войск Моргота в Дагор Браголлах.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D0%BE%D1%80%D0%BB%D0%B8%D0%BC&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGorlim&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="6">
         <v>159</v>
       </c>
@@ -12578,7 +12576,7 @@
         <v>&lt;key&gt;Gram&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.159.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Грам - 8-й король Рохана. Сын Де́ора, внук Голдвина, отец Хельма Молоторукого и Хильд. Дед Фреалафа. Последний умерший своей смертью король Рохана Первой Ветви.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D1%80%D0%B0%D0%BC&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGram&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="6">
         <v>160</v>
       </c>
@@ -12612,7 +12610,7 @@
         <v>&lt;key&gt;Gríma Wormtongue&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.160.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Грима по прозвищу Червеуст (англ.Gríma, called (the) Wormtongue, в переводах также Червослов, Гнилоуст, Змеиный Язык) — персонаж трилогии Толкина «Властелин Колец». Имя «Гнилоуст» символизирует пагубное, вводящее в заблуждение, красноречие, демагогию, качество, в высшей степени присущее и хозяину Гримы — Саруману.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D1%80%D0%B8%D0%BC%D0%B0_%D0%A7%D0%B5%D1%80%D0%B2%D0%B5%D1%83%D1%81%D1%82&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGrimaWormtongue&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="6">
         <v>161</v>
       </c>
@@ -12649,7 +12647,7 @@
         <v>&lt;key&gt;Grimbold&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.161.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Гримбольд — капитан Рохана, уроженец Вестфолда, который участвовал в битве при Изенских бродах, командуя арьергардом. Во время боя он пытался прийти на помощь молодому Теодреду, но опоздал, и Теодред погиб у него на глазах. Гримбольд дождался помощи от Эльфхельма, защищая тело Теодреда. Был оттеснён во второй битве при Изенских бродах и возглавил второй отряд, который понёс огромный урон, защищая Броды, и, будучи отрезанным от отряда Эльфхельма, с небольшой группой воинов отступил в Эдорас. После битвы при Хорнбурге и возвращения Теодена в Эдорас соединился с его войсками и выдвинулся на помощь Гондору. По замыслу короля возглавлял левофланговый отряд в битве при Пеленнорских полях и пал во время этой битвы, столкнувшись с отрядом мумакилов.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D1%80%D0%B8%D0%BC%D0%B1%D0%BE%D0%BB%D1%8C%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGrimbold&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="6">
         <v>162</v>
       </c>
@@ -12677,7 +12675,7 @@
         <v>&lt;key&gt;Grithnir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.162.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGrithnir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="6">
         <v>163</v>
       </c>
@@ -12714,7 +12712,7 @@
         <v>&lt;key&gt;Gundor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.163.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Гундор родился в 419 году Первой Эпохи и был младшим из детей Хадора Златовласого, правителя Дор-ломина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D1%83%D0%BD%D0%B4%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGundor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="6">
         <v>164</v>
       </c>
@@ -12742,7 +12740,7 @@
         <v>&lt;key&gt;Guthláf&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.164.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascGuthlaf&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="6">
         <v>165</v>
       </c>
@@ -12779,7 +12777,7 @@
         <v>&lt;key&gt;Hador&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.165.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хадор родился в семье вождя Племени Мараха - Хатола. В юности он оказался при дворе Верховного короля нолдор-изгнанников, Финголфина, став его вассалом.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D0%B4%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHador&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="6">
         <v>166</v>
       </c>
@@ -12816,7 +12814,7 @@
         <v>&lt;key&gt;Haldad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.166.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Халдад (Haldad) - человек из племени халадин, отец Халет и Халдара.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D0%BB%D0%B4%D0%B0%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHaldad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="6">
         <v>167</v>
       </c>
@@ -12853,7 +12851,7 @@
         <v>&lt;key&gt;Haldan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.167.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Халдан - человек-адан из Халадин, их вождь в Первую Эпоху. Сын Халдара, внук Халдада и племянник Халет.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D0%BB%D0%B4%D0%B0%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHaldan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="6">
         <v>168</v>
       </c>
@@ -12890,7 +12888,7 @@
         <v>&lt;key&gt;Haldar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.168.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Халдар (англ.Haldar) — человек из племени халадин, сын Халдада, брат-близнец Халет, отец Халдана.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D0%BB%D0%B4%D0%B0%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHaldar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="6">
         <v>169</v>
       </c>
@@ -12918,7 +12916,7 @@
         <v>&lt;key&gt;Hallacar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.169.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHallacar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="6">
         <v>170</v>
       </c>
@@ -12955,7 +12953,7 @@
         <v>&lt;key&gt;Hallas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.170.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Халлас родился в 2480 году Т.Э в семье Кириона. Тогда Гондором правил Боромир, его дед. Во время войны с Балхотами в 2510 Т.Э , Кирион поручил сыну управлять Минас Тиритом, пока сам находился с армией на севере сражаясь с ними. И в результате неожиданной победы в Битве на Полях Келебранта, Халлас был свидетелем того, как Кирион принёс в дар Эорлу Юному и его народу земли Келенардона, впредь называемые Рохан. В результате чего територия Гондора уменьшилась в два раза, но в лице Рохана Дунэдайн получили мощного союзника на севере.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D0%BB%D0%BB%D0%B0%D1%81&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHallas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="6">
         <v>171</v>
       </c>
@@ -12983,7 +12981,7 @@
         <v>&lt;key&gt;Hallatan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.171.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHallatan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="6">
         <v>172</v>
       </c>
@@ -13020,7 +13018,7 @@
         <v>&lt;key&gt;Halmir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.172.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Халмир был вождём халадин, когда Моргот возобновил войну с эльфами и их союзниками, эдайн, начав битву Дагор Браголлах, и говорят, что деяния его народа вспоминали с почётом. Они жили на севере Белерианда, в лесу Бретиль, и изначально не были затронуты войной. Однако орки дошли до них после падения Минас Тирита, и даже тогда люди Бретиля не согласились покинуть свои дома, а Халмир послал известие Тинголу, королю Дориата, ибо дружил он с эльфами, охранявшими те земли. Тингол послал ему эльфов-синдар, вооружённых топорами, во главе с Белегом Могучим Луком, и вместе с силами Халмира они разгромили орков. После этого орки не осмеливались переходить Тейглин, и народ Халет жил в бдительном мире в Бретиле, и Нарготронд получил передышку.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D0%BB%D0%BC%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHalmir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="6">
         <v>173</v>
       </c>
@@ -13054,7 +13052,7 @@
         <v>&lt;key&gt;Háma&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.173.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В экранизации Питера Джексона Хама погиб во время сражения с авангардом Сарумана - орками на варгах.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D0%BC%D0%B0&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHama&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="6">
         <v>174</v>
       </c>
@@ -13091,7 +13089,7 @@
         <v>&lt;key&gt;Handir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.174.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ха́ндир (Handir) - сын Халдира и Глорэдели, муж Бельдис, отец Брандира Хромого.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D0%BD%D0%B4%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHandir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="6">
         <v>175</v>
       </c>
@@ -13128,7 +13126,7 @@
         <v>&lt;key&gt;Hardang&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.175.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Харданг (англ.Hardang) — вождь людей Бретиля в Первую Эпоху.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D1%80%D0%B4%D0%B0%D0%BD%D0%B3&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHardang&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="6">
         <v>176</v>
       </c>
@@ -13165,7 +13163,7 @@
         <v>&lt;key&gt;Harding&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.176.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хардинг  (англ.Harding) — человек Рохана во времена Войны Кольца. Он сражался и погиб в битве на Пеленнорских полях. Его имя упомянуто в песне роханского менестреля о курганах под Минас Тиритом.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D1%80%D0%B4%D0%B8%D0%BD%D0%B3&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHarding&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="6">
         <v>177</v>
       </c>
@@ -13193,7 +13191,7 @@
         <v>&lt;key&gt;Hathaldir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.177.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHathaldir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="6">
         <v>178</v>
       </c>
@@ -13227,7 +13225,7 @@
         <v>&lt;key&gt;Hathol&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.178.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D1%82%D0%BE%D0%BB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHathol&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="6">
         <v>179</v>
       </c>
@@ -13264,7 +13262,7 @@
         <v>&lt;key&gt;Hatholdir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.179.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хатолдир - нуменорец, потомок Дома Хадора, отец Орхалдора, дед Соронто. Приходился близким другом Менельдуру.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D1%82%D0%BE%D0%BB%D0%B4%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHatholdir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="6">
         <v>180</v>
       </c>
@@ -13292,7 +13290,7 @@
         <v>&lt;key&gt;Henderch&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.180.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHenderch&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="6">
         <v>181</v>
       </c>
@@ -13320,7 +13318,7 @@
         <v>&lt;key&gt;Herefara&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.181.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHerefara&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="6">
         <v>182</v>
       </c>
@@ -13357,7 +13355,7 @@
         <v>&lt;key&gt;Herion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.182.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Герион родился в семье Эрадана, сына наместника-правителя Мардиля в 2037-ом году Т.Э.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D0%B5%D1%80%D0%B8%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHerion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="6">
         <v>183</v>
       </c>
@@ -13385,7 +13383,7 @@
         <v>&lt;key&gt;Herubrand&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.183.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHerubrand&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="6">
         <v>184</v>
       </c>
@@ -13422,7 +13420,7 @@
         <v>&lt;key&gt;Herucalmo&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.184.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Родился Херукальмо в 2286 году Второй Эпохи. Имена его родители неизвестны, известно лишь что он был из рода Элроса, так как был потомком неизвестного ребенка короля Тар-Атанамира .&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%90%D0%BD%D0%B4%D1%83%D0%BA%D0%B0%D0%BB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHerucalmo&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="6">
         <v>185</v>
       </c>
@@ -13450,7 +13448,7 @@
         <v>&lt;key&gt;Hirgon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.185.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHirgon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="6">
         <v>186</v>
       </c>
@@ -13478,7 +13476,7 @@
         <v>&lt;key&gt;Hirluin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.186.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHirluin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="6">
         <v>187</v>
       </c>
@@ -13506,7 +13504,7 @@
         <v>&lt;key&gt;Horn&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.187.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHorn&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="6">
         <v>188</v>
       </c>
@@ -13534,7 +13532,7 @@
         <v>&lt;key&gt;Hundad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.188.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHundad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="6">
         <v>189</v>
       </c>
@@ -13562,7 +13560,7 @@
         <v>&lt;key&gt;Hundar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.189.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHundar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="6">
         <v>190</v>
       </c>
@@ -13599,7 +13597,7 @@
         <v>&lt;key&gt;Hunthor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.190.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хунтор (англ.Hunthor) — человек из Дома Халет, живший в Первую Эпоху в лесу Бретиль, брат Мантора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D1%83%D0%BD%D1%82%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHunthor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="6">
         <v>191</v>
       </c>
@@ -13636,7 +13634,7 @@
         <v>&lt;key&gt;Huor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.191.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хуор родился в 442 году Первой Эпохи, вторым ребёнком в семье Харет и Галдора - принца Дор-ломина, его старшим братом был Хурин, родившийся тремя годами ранее. Иногда они с братом и отцом ездили в Дортонион и оба они подружились с Береном Эрхамионом. Когда братья подросли, отец отдал их на воспитание в Бретиль, к брату их матери (своему дяде), Халдиру.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D1%83%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHuor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="6">
         <v>192</v>
       </c>
@@ -13673,7 +13671,7 @@
         <v>&lt;key&gt;Húrin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.192.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хурин Талион (англ.Húrin Thalion) — король Дор-ломина, отец Турина Турамбара, сын Галдора и Харет, старший брат Хуора. Один из славнейших воинов-людей Древности.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D1%83%D1%80%D0%B8%D0%BD_%D0%A2%D0%B0%D0%BB%D0%B8%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHurin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="6">
         <v>193</v>
       </c>
@@ -13710,7 +13708,7 @@
         <v>&lt;key&gt;Húrin I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.193.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хурин I был, вероятно, назван в честь Хурина Талиона, одного из героев Эдайн в Первую Эпоху. В Доме Хурина l было принято называть сыновей в честь легендарных героев прошлого.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D1%83%D1%80%D0%B8%D0%BD_I&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHurinI&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="6">
         <v>194</v>
       </c>
@@ -13747,7 +13745,7 @@
         <v>&lt;key&gt;Húrin II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.194.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;О его правлении мало что известно, скорее всего оно было относительно спокойным. Хурин правил Гондором как Наместник двадцать три года, и после смерти ему наследовал его сын, Белектор I.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D1%83%D1%80%D0%B8%D0%BD_II&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHurinII&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="6">
         <v>195</v>
       </c>
@@ -13784,7 +13782,7 @@
         <v>&lt;key&gt;Hyarmendacil I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.195.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хьярмендакиль I, он же Кирьягер (кв. Hyarmendacil I (Ciryaher) | Варианты перевода: Хиармендакил, Хиярмендакил) — 15-й Король Гондора, также четвертый и последний 'Морской Король'.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D1%8C%D1%8F%D1%80%D0%BC%D0%B5%D0%BD%D0%B4%D0%B0%D0%BA%D0%B8%D0%BB%D1%8C_I&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHyarmendacilI&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="6">
         <v>196</v>
       </c>
@@ -13821,7 +13819,7 @@
         <v>&lt;key&gt;Hyarmendacil II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.196.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Виньярион родился в семье Альдамира в 1321-ом году Т. Э.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D1%8C%D1%8F%D1%80%D0%BC%D0%B5%D0%BD%D0%B4%D0%B0%D0%BA%D0%B8%D0%BB%D1%8C_II&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHyarmendacilII&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="6">
         <v>197</v>
       </c>
@@ -13849,7 +13847,7 @@
         <v>&lt;key&gt;Îbal&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.197.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIbal&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="6">
         <v>198</v>
       </c>
@@ -13877,7 +13875,7 @@
         <v>&lt;key&gt;Imlach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.198.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascImlach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="6">
         <v>199</v>
       </c>
@@ -13914,7 +13912,7 @@
         <v>&lt;key&gt;Imrahil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.199.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Имрахиль (англ.Imrahil) — лорд гондорской крепости Дол Амрот, родственник наместников Гондора и один из величайших воинов Средиземья. Имрахиль командовал армией Гондора во время Войны Кольца и участвовал в битве на Пеленнорских полях.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%98%D0%BC%D1%80%D0%B0%D1%85%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascImrahil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="6">
         <v>200</v>
       </c>
@@ -13951,7 +13949,7 @@
         <v>&lt;key&gt;Imrazôr&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.200.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Имразор  (англ.Imrazor) — человек нуменорского происхождения. Супруг Митреллас и отец первого лорда Дол Амрота, Галадора. Один из немногих людей в истории Арды, взявших в жёны эльфийку.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%98%D0%BC%D1%80%D0%B0%D0%B7%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascImrazor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="6">
         <v>201</v>
       </c>
@@ -13979,7 +13977,7 @@
         <v>&lt;key&gt;Indor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.201.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIndor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="6">
         <v>202</v>
       </c>
@@ -14004,7 +14002,7 @@
         <v>&lt;key&gt;Ingold&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.202.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIngold&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="6">
         <v>203</v>
       </c>
@@ -14032,7 +14030,7 @@
         <v>&lt;key&gt;Iorlas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.203.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIorlas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="6">
         <v>204</v>
       </c>
@@ -14066,7 +14064,7 @@
         <v>&lt;key&gt;Isildur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.204.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%98%D1%81%D0%B8%D0%BB%D1%8C%D0%B4%D1%83%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIsildur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="6">
         <v>205</v>
       </c>
@@ -14103,7 +14101,7 @@
         <v>&lt;key&gt;Isilmo&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.205.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Исильмо (англ.Isilmo) — младший брат королевы Тар-Тэлпериэн. Королева отказалась от замужества и осталась бездетной, престол Нуменора после её смерти унаследовал сын Исильмо Тар-Минастир, предположительно из-за того, что Исильмо к тому времени уже умер или был слишком старым, чтобы взойти на престол.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%98%D1%81%D0%B8%D0%BB%D1%8C%D0%BC%D0%BE&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIsilmo&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="6">
         <v>206</v>
       </c>
@@ -14137,7 +14135,7 @@
         <v>&lt;key&gt;Khamûl&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.206.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Единственный из Девяти, чьё имя упомянуто Толкином (в произведении Неоконченные сказания Нуменора и Средиземья в главе «Охота за Кольцом»)&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D1%85%D0%B0%D0%BC%D1%83%D0%BB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascKhamul&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="6">
         <v>207</v>
       </c>
@@ -14165,7 +14163,7 @@
         <v>&lt;key&gt;Larnach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.207.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascLarnach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="6">
         <v>208</v>
       </c>
@@ -14202,7 +14200,7 @@
         <v>&lt;key&gt;Léod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.208.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В 2485 г. Т.Э. у Леода родился сын Эорл. Однажды, когда Эорл уже был юношей, Леод поймал белого жеребёнка из породы меарас, который быстро вырос в величественного гордого коня. Он не смирился с неволей и никого к себе не подпускал. Когда Леоду всё-таки удалось оседлать норовливого скакуна, тот понёс его прочь и долго скакал по степи, пока в конце концов не сбросил вождя и тот упал, разбил голову о камни и умер. После этого Эорл долго охотился на коня чтобы отомстить за отца. И когда он всё-таки настиг белого гордеца то, вопреки ожиданиям, не убил его, а встал во весь рост и призвал коня верно служить ему, что будет платой за убитого отца. Эорл нарёк его Феларофом и всегда ездил на нём без узды и поводьев.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9B%D0%B5%D0%BE%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascLeod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="6">
         <v>209</v>
       </c>
@@ -14239,7 +14237,7 @@
         <v>&lt;key&gt;Lorgan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.209.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Лорган (англ.Lorgan) — вождь Истерлингов, которые оккупировали Хитлум после победы сил Моргота в Нирнаэт Арноэдиад. Объявил Дор-ломин и весь Хитлум ленным владением под сюзеренитетом Моргота. Лорган пленил и обратил в рабство Туора, но с ним обращались лучше, чем с другими невольниками, поскольку «Лорган хорошо кормил свой рабочий скот, пока он был молод и мог трудиться»[1]. В конце концов Туор бежал и развернул против бывшего хозяина настоящую партизанскую войну, так что Лорган установил за его голову высокую награду. Лорган также замышлял взять в жёны Ниэнор, прослышав о её красоте, и это ускорило её отъезд из Дор-ломина[2]. Хурин пришёл к Лоргану после того, как Моргот освободил его, чтобы «освободиться от обязанностей владыки Дор-ломина». Но Лорган «был настороже, будучи хитрее и злее других» и понял замысел Моргота относительно Хурина, после чего позволил ему уйти свободно, предсказав злую судьбу, ожидавшую его[2].&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9B%D0%BE%D1%80%D0%B3%D0%B0%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascLorgan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="6">
         <v>210</v>
       </c>
@@ -14270,7 +14268,7 @@
         <v>&lt;key&gt;Madril&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.210.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B0%D0%B4%D1%80%D0%B8%D0%BB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMadril&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="6">
         <v>211</v>
       </c>
@@ -14307,7 +14305,7 @@
         <v>&lt;key&gt;Magor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.211.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Магор был предводителем своего народа, при переселении из Эстолада в долины к южным склонам гор Эред Ветрин. Жил у истоков реки Тейглин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B0%D0%B3%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMagor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="6">
         <v>212</v>
       </c>
@@ -14341,7 +14339,7 @@
         <v>&lt;key&gt;Malach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.212.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B0%D0%BB%D0%B0%D1%85&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMalach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="6">
         <v>213</v>
       </c>
@@ -14369,7 +14367,7 @@
         <v>&lt;key&gt;Malantur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.213.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMalantur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="6">
         <v>214</v>
       </c>
@@ -14397,7 +14395,7 @@
         <v>&lt;key&gt;Malloc&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.214.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMalloc&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="6">
         <v>215</v>
       </c>
@@ -14434,7 +14432,7 @@
         <v>&lt;key&gt;Manthor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.215.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Мантор (англ.Manthor) — владыка народа Халет в Первую Эпоху. Был внуком Хириль из Дома Халет, его родителями были Мелет и Агатор, а братом — Хунтор, погибший в ущелье Тейглина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B0%D0%BD%D1%82%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascManthor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="6">
         <v>216</v>
       </c>
@@ -14462,7 +14460,7 @@
         <v>&lt;key&gt;Manwendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.216.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascManwendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="6">
         <v>217</v>
       </c>
@@ -14499,7 +14497,7 @@
         <v>&lt;key&gt;Marach&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.217.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Марах был предводителем одного из трёх племён людей, пришедших в Белерианд. В следствии своей многочисленности, народ Мараха шёл медленно и появился в Белерианде в 314 г. П. Э. последним (их опередили Племя Беора и Халадин). Народ Мараха был воинственным и лаиквенди, которые не желали видеть чужаков в своей земле, не посмели им препятствовать.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B0%D1%80%D0%B0%D1%85&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMarach&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="6">
         <v>218</v>
       </c>
@@ -14533,7 +14531,7 @@
         <v>&lt;key&gt;Mardil Voronwë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.218.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B0%D1%80%D0%B4%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMardilVoronwe&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="6">
         <v>219</v>
       </c>
@@ -14567,7 +14565,7 @@
         <v>&lt;key&gt;Marhari&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.219.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B0%D1%80%D1%85%D0%B0%D1%80%D0%B8&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMarhari&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="6">
         <v>220</v>
       </c>
@@ -14604,7 +14602,7 @@
         <v>&lt;key&gt;Marhwini&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.220.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Основатель и первый вождь Эотеда, предок королей Рохана. Имел единственного сына - Фортвини.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B0%D1%80%D1%85%D0%B2%D0%B8%D0%BD%D0%B8&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMarhwini&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="6">
         <v>221</v>
       </c>
@@ -14632,7 +14630,7 @@
         <v>&lt;key&gt;Mektar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.221.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMektar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="6">
         <v>222</v>
       </c>
@@ -14669,7 +14667,7 @@
         <v>&lt;key&gt;Meneldil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.222.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Менелдиль (англ. Meneldil | варианты перевода: Менельдил, Менелдил) — третий король Гондора, четвёртый сын Анариона.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B5%D0%BD%D0%B5%D0%BB%D0%B4%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMeneldil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="6">
         <v>223</v>
       </c>
@@ -14706,7 +14704,7 @@
         <v>&lt;key&gt;Minardil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.223.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Минардиль родился в 1454 году Т.Э. в семье Виньяриона сына принца Гондора. Тогда правил Гондором король Эльдакар.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B8%D0%BD%D0%B0%D1%80%D0%B4%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMinardil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="6">
         <v>224</v>
       </c>
@@ -14734,7 +14732,7 @@
         <v>&lt;key&gt;Minastan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.224.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMinastan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="6">
         <v>225</v>
       </c>
@@ -14771,7 +14769,7 @@
         <v>&lt;key&gt;Minohtar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.225.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Минохтар - племянник короля Ондогера и командующий правого крыла северной армии Гондора в битве при Моранноне.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B8%D0%BD%D0%BE%D1%85%D1%82%D0%B0%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMinohtar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="6">
         <v>226</v>
       </c>
@@ -14805,7 +14803,7 @@
         <v>&lt;key&gt;Morgomir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.226.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%BE%D1%80%D0%B3%D0%BE%D0%BC%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMorgomir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="6">
         <v>227</v>
       </c>
@@ -14839,7 +14837,7 @@
         <v>&lt;key&gt;Narmacil I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.227.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9D%D0%B0%D1%80%D0%BC%D0%B0%D0%BA%D0%B8%D0%BB%D1%8C_I&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascNarmacilI&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="6">
         <v>228</v>
       </c>
@@ -14876,7 +14874,7 @@
         <v>&lt;key&gt;Narmacil II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.228.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Нармакиль родился в 1684 Т.Э. в семье Телумехтара — принца Гондора, тогда правил его дед Тарондор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9D%D0%B0%D1%80%D0%BC%D0%B0%D0%BA%D0%B8%D0%BB%D1%8C_II&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascNarmacilII&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="6">
         <v>229</v>
       </c>
@@ -14904,7 +14902,7 @@
         <v>&lt;key&gt;Nolondil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.229.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascNolondil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="6">
         <v>230</v>
       </c>
@@ -14938,7 +14936,7 @@
         <v>&lt;key&gt;Númendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.230.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9D%D1%83%D0%BC%D0%B5%D0%BD%D0%B4%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascNumendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="6">
         <v>231</v>
       </c>
@@ -14975,7 +14973,7 @@
         <v>&lt;key&gt;Ohtar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.231.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Охтар — оруженосец Исильдура. Охтар был один из трёх выживших людей во время битвы в Ирисных Низинах. Он взял с собой обломки меча Элендиля, Нарсиля, и благополучно принёс их в Ривенделл.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9E%D1%85%D1%82%D0%B0%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOhtar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="6">
         <v>232</v>
       </c>
@@ -15012,7 +15010,7 @@
         <v>&lt;key&gt;Ondoher&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.232.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ондогер (кв. Ondoher, правильное произношение имени — Ондохэр) — 31-й король Гондора, сын Калимехтара.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9E%D0%BD%D0%B4%D0%BE%D0%B3%D0%B5%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOndoher&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="6">
         <v>233</v>
       </c>
@@ -15049,7 +15047,7 @@
         <v>&lt;key&gt;Orchaldor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.233.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Орхалдор — нуменорец, сын Хатолдира, потомок Дома Хадора, его женой была Айлинель, у них был сын Соронто.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9E%D1%80%D1%85%D0%B0%D0%BB%D0%B4%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOrchaldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="6">
         <v>234</v>
       </c>
@@ -15077,7 +15075,7 @@
         <v>&lt;key&gt;Orfus&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.234.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOrfus&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="6">
         <v>235</v>
       </c>
@@ -15105,7 +15103,7 @@
         <v>&lt;key&gt;Orleg&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.235.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOrleg&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="6">
         <v>236</v>
       </c>
@@ -15142,7 +15140,7 @@
         <v>&lt;key&gt;Ornendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.236.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Орнендил родился в семье Эльдакара, Гондорского принца матерью Эльдакара была Видумави, она была не из Дунэдайн ,а северянкой из Рованиона, и многие гондорцы косо поглядывали на Эльдакара и его наследников из-за этого.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9E%D1%80%D0%BD%D0%B5%D0%BD%D0%B4%D0%B8%D0%BB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOrnendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="6">
         <v>237</v>
       </c>
@@ -15170,7 +15168,7 @@
         <v>&lt;key&gt;Oromendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.237.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOromendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="6">
         <v>238</v>
       </c>
@@ -15207,7 +15205,7 @@
         <v>&lt;key&gt;Ostoher&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.238.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Остогер родился в семье Анардиля. Тогда Гондором правил его прадед Кемендур. Сам Остогер вступил на престол в 411 году Т. Э. после смерти отца.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9E%D1%81%D1%82%D0%BE%D0%B3%D0%B5%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOstoher&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="6">
         <v>239</v>
       </c>
@@ -15244,7 +15242,7 @@
         <v>&lt;key&gt;Pelendur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.239.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Пелендур был потомком Хурина из Эмин Арнен, одного из первых Наместников. Все Наместники со времён Хурина выбирались из его рода, Дома Хурина, но только после Пелендура титул стал наследным.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9F%D0%B5%D0%BB%D0%B5%D0%BD%D0%B4%D1%83%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascPelendur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="6">
         <v>240</v>
       </c>
@@ -15272,7 +15270,7 @@
         <v>&lt;key&gt;Radhruin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.240.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRadhruin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="6">
         <v>241</v>
       </c>
@@ -15300,7 +15298,7 @@
         <v>&lt;key&gt;Ragnir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.241.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRagnir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="6">
         <v>242</v>
       </c>
@@ -15328,7 +15326,7 @@
         <v>&lt;key&gt;Ragnor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.242.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRagnor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="6">
         <v>243</v>
       </c>
@@ -15365,7 +15363,7 @@
         <v>&lt;key&gt;Rómendacil I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.243.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;​&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A0%D0%BE%D0%BC%D0%B5%D0%BD%D0%B4%D0%B0%D0%BA%D0%B8%D0%BB%D1%8C_I&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRomendacilI&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="6">
         <v>244</v>
       </c>
@@ -15402,7 +15400,7 @@
         <v>&lt;key&gt;Rómendacil II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.244.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Миналькар родился в 1126 году Третьей Эпохи, в семье Кальмакила — сына Атанатара II Алькарина — принца Гондора. В то время, Гондором правил король Хьярмендакиль I, Миналькар много набрался от прадеда-короля прежде чем тот умер. Миналькар в душе упрекал ленивого деда — короля Атанатара II, но побаивался сказать что-то вслух.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A0%D0%BE%D0%BC%D0%B5%D0%BD%D0%B4%D0%B0%D0%BA%D0%B8%D0%BB%D1%8C_II&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRomendacilII&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="6">
         <v>245</v>
       </c>
@@ -15439,7 +15437,7 @@
         <v>&lt;key&gt;Sador&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.245.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Садор — плотник и слуга в доме Хурина, был другом детства Турина Турамбара.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A1%D0%B0%D0%B4%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSador&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="6">
         <v>246</v>
       </c>
@@ -15467,7 +15465,7 @@
         <v>&lt;key&gt;Saelon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.246.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSaelon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="6">
         <v>247</v>
       </c>
@@ -15495,7 +15493,7 @@
         <v>&lt;key&gt;Sagroth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.247.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSagroth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="6">
         <v>248</v>
       </c>
@@ -15523,7 +15521,7 @@
         <v>&lt;key&gt;Sangahyando&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.248.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSangahyando&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="6">
         <v>249</v>
       </c>
@@ -15560,7 +15558,7 @@
         <v>&lt;key&gt;Siriondil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.249.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Сириондиль — 11-й Король Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A1%D0%B8%D1%80%D0%B8%D0%BE%D0%BD%D0%B4%D0%B8%D0%BB%D1%8C_(%D0%BA%D0%BE%D1%80%D0%BE%D0%BB%D1%8C_%D0%93%D0%BE%D0%BD%D0%B4%D0%BE%D1%80%D0%B0)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSiriondil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="6">
         <v>250</v>
       </c>
@@ -15597,7 +15595,7 @@
         <v>&lt;key&gt;Soronto&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.250.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Соронто (англ.Soronto) — член королевской фамилии Нуменора, внук Тар-Менельдура, сын Айлинель, двоюродный брат Тар-Алдариона. Он жил в последние годы первого тысячелетия Второй Эпохи. Его отцом был Орхальдор, потомок Дома Хадора. Имя его, видимо, обозначает «орёл» или «друг орла». Толкин планировал написать историю о дочери Тар-Алдариона, Тар-Анкалимэ, и о том, как она вышла замуж, исключительно чтобы не допустить Соронто на престол. Однако это повествование никогда не было в состоянии большем, чем несколько комментариев, которые собраны в «Неоконченных сказаниях».&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A1%D0%BE%D1%80%D0%BE%D0%BD%D1%82%D0%BE&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSoronto&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="6">
         <v>251</v>
       </c>
@@ -15631,7 +15629,7 @@
         <v>&lt;key&gt;Talion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.251.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D0%BB%D0%B8%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTalion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="6">
         <v>252</v>
       </c>
@@ -15668,7 +15666,7 @@
         <v>&lt;key&gt;Tar-Alcarin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.252.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Алькарин — 17-й король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%90%D0%BB%D1%8C%D0%BA%D0%B0%D1%80%D0%B8%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarAlcarin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="6">
         <v>253</v>
       </c>
@@ -15705,7 +15703,7 @@
         <v>&lt;key&gt;Tar-Aldarion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.253.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Алдарион - шестой король Нуменора, сын Тар-Менельдура. Основатель Гильдии Морестранников, союзник Гиль-галада, основатель первой гавани в Средиземье - Виньялондэ,  также он построил огромные корабли Эамбар и Паларран.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%90%D0%BB%D0%B4%D0%B0%D1%80%D0%B8%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarAldarion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="6">
         <v>254</v>
       </c>
@@ -15739,7 +15737,7 @@
         <v>&lt;key&gt;Tar-Amandil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.254.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%90%D0%BC%D0%B0%D0%BD%D0%B4%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarAmandil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="6">
         <v>255</v>
       </c>
@@ -15773,7 +15771,7 @@
         <v>&lt;key&gt;Tar-Anárion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.255.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%90%D0%BD%D0%B0%D1%80%D0%B8%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarAnarion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="6">
         <v>256</v>
       </c>
@@ -15810,7 +15808,7 @@
         <v>&lt;key&gt;Tar-Ancalimon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.256.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Анкалимон — 14-й король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%90%D0%BD%D0%BA%D0%B0%D0%BB%D0%B8%D0%BC%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarAncalimon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="6">
         <v>257</v>
       </c>
@@ -15844,7 +15842,7 @@
         <v>&lt;key&gt;Tarannon Falastur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.257.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80%D0%B0%D0%BD%D0%BD%D0%BE%D0%BD_%D0%A4%D0%B0%D0%BB%D0%B0%D1%81%D1%82%D1%83%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarannonFalastur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="6">
         <v>258</v>
       </c>
@@ -15881,7 +15879,7 @@
         <v>&lt;key&gt;Tar-Ardamin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.258.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Ардамин — 19-й Король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%90%D1%80%D0%B4%D0%B0%D0%BC%D0%B8%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarArdamin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="6">
         <v>259</v>
       </c>
@@ -15918,7 +15916,7 @@
         <v>&lt;key&gt;Tar-Atanamir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.259.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Атанамир — 13-й Король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%90%D1%82%D0%B0%D0%BD%D0%B0%D0%BC%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarAtanamir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="6">
         <v>260</v>
       </c>
@@ -15955,7 +15953,7 @@
         <v>&lt;key&gt;Tar-Calmacil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.260.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Калмакиль (вариант перевода: Тар-Кальмарил) — 18-й король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%9A%D0%B0%D0%BB%D0%BC%D0%B0%D0%BA%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarCalmacil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="6">
         <v>261</v>
       </c>
@@ -15983,7 +15981,7 @@
         <v>&lt;key&gt;Tarciryan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.261.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarciryan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="6">
         <v>262</v>
       </c>
@@ -16020,7 +16018,7 @@
         <v>&lt;key&gt;Tar-Ciryatan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.262.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Кирьятан — двенадцатый король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%9A%D0%B8%D1%80%D0%B8%D0%B0%D1%82%D0%B0%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarCiryatan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="6">
         <v>263</v>
       </c>
@@ -16054,7 +16052,7 @@
         <v>&lt;key&gt;Tar-Elendil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.263.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Элендиль являлся сыном Тар-Амандиля и родился в 350 В.Э. Он был мудрецом и талантливым учёным его также называли Пармайтэ (кв. 'книжник' или дословно - 'книгорукий'), ибо своими руками создал он множество книг и записал много преданий, собранных его дедом Вардамиром Нолимоном ,но в отличии от от него он стал правителем Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%AD%D0%BB%D0%B5%D0%BD%D0%B4%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarElendil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="6">
         <v>264</v>
       </c>
@@ -16082,7 +16080,7 @@
         <v>&lt;key&gt;Targon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.264.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTargon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="6">
         <v>265</v>
       </c>
@@ -16116,7 +16114,7 @@
         <v>&lt;key&gt;Tar-Meneldur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.265.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%9C%D0%B5%D0%BD%D0%B5%D0%BB%D1%8C%D0%B4%D1%83%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarMeneldur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="6">
         <v>266</v>
       </c>
@@ -16150,7 +16148,7 @@
         <v>&lt;key&gt;Tar-Minastir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.266.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%9C%D0%B8%D0%BD%D0%B0%D1%81%D1%82%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarMinastir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="6">
         <v>267</v>
       </c>
@@ -16187,7 +16185,7 @@
         <v>&lt;key&gt;Tarondor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.267.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тарондор родился в семье Минастана, младшего сына принца Гондора — Минардиля в 1577-ом Т. Э. Тогда правил ещё его прадед Хьярмендакиль II.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80%D0%BE%D0%BD%D0%B4%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarondor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="6">
         <v>268</v>
       </c>
@@ -16224,7 +16222,7 @@
         <v>&lt;key&gt;Tar-Palantir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.268.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Первоначальное его имя — Инзиладун. Когда он вступил на трон, он принял, как бывало прежде, эльфийское имя, назвавшись Тар-Палантир, ибо зорки были и глаза его, и сердце, и даже те, кто его ненавидел, опасались его провидческих речей. Он всегда был на стороне Верных нуменорцев и считал, что если нуменорцы восстанут против Валар, то их всех постигнет смерть. Он же дал временный покой Верным и возродил обычай приношений в святыню Эру Илуватара на Менельтарме, отринутый Ар-Гимильзором.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%9F%D0%B0%D0%BB%D0%B0%D0%BD%D1%82%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarPalantir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="6">
         <v>269</v>
       </c>
@@ -16258,7 +16256,7 @@
         <v>&lt;key&gt;Tar-Súrion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.269.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%A1%D1%83%D1%80%D0%B8%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarSurion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="6">
         <v>270</v>
       </c>
@@ -16295,7 +16293,7 @@
         <v>&lt;key&gt;Tar-Telemmaitë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.270.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тар-Телемэитэ —15 король Нуменора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B0%D1%80-%D0%A2%D0%B5%D0%BB%D0%B5%D0%BC%D1%8D%D0%B8%D1%82%D1%8D&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTarTelemmaite&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="6">
         <v>271</v>
       </c>
@@ -16332,7 +16330,7 @@
         <v>&lt;key&gt;Telemnar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.271.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Телемнар (кв. «серебряное пламя») — 26-й Король Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B5%D0%BB%D0%B5%D0%BC%D0%BD%D0%B0%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTelemnar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="6">
         <v>272</v>
       </c>
@@ -16369,7 +16367,7 @@
         <v>&lt;key&gt;Telumehtar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.272.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Телумехтар (синд. Небесный воитель) он же Телумехтар Умбардакил — 28-ой король Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B5%D0%BB%D1%83%D0%BC%D0%B5%D1%85%D1%82%D0%B0%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTelumehtar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="6">
         <v>273</v>
       </c>
@@ -16406,7 +16404,7 @@
         <v>&lt;key&gt;Thengel&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.273.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Его отец был злым, жадным и неуживчивым человеком. Больше всего доставалось Тенгелю, как старшему ребёнку. Возмужав, он перестал терпеть отца и уехал из Рохана в Гондор и перешёл на службу к наместнику Гондора Тургону. Тенгель стяжал немалую славу на службе у наместника. Вскоре он встретил Морвен из Лоссарнаха, и они полюбили друг друга. После смерти Фенгеля рохиррим призвали на престол Тенгеля, и он с неохотой согласился. Ещё в Гондоре Морвен родила Тенгелю сына Теодена, а уже в Рохане у них родились две дочери, вторая из которых была самой красивой и звали её Теодвин. Она в своё время вышла замуж за Эомунда, маршала Рохана и правителя Истволда. В этом браке родились Эомер и Эовин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B5%D0%BD%D0%B3%D0%B5%D0%BB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascThengel&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="6">
         <v>274</v>
       </c>
@@ -16440,7 +16438,7 @@
         <v>&lt;key&gt;Théoden&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.274.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Теоден (англ.Theoden) — один из главных персонажей трилогии «Властелин Колец» Дж. Р. Р. Толкина. Семнадцатый король (В Рохане конунг) Рохана.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B5%D0%BE%D0%B4%D0%B5%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTheoden&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="6">
         <v>275</v>
       </c>
@@ -16474,7 +16472,7 @@
         <v>&lt;key&gt;Théodred&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.275.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Теодред (англ.Theodred) — cын и единственный прямой наследник Теодена. Погиб на Первой битве при Изенских Бродах.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B5%D0%BE%D0%B4%D1%80%D0%B5%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTheodred&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="6">
         <v>276</v>
       </c>
@@ -16511,7 +16509,7 @@
         <v>&lt;key&gt;Thorondir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.276.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Торондир — 22-й наместник Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%BE%D1%80%D0%BE%D0%BD%D0%B4%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascThorondir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="6">
         <v>277</v>
       </c>
@@ -16548,7 +16546,7 @@
         <v>&lt;key&gt;Tuor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.277.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Туор (англ.Tuor) — представитель Дома Хадора, сын Хуора и Риан, отец Эарендиля, двоюродный брат Турина Турамбара.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D1%83%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTuor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="6">
         <v>278</v>
       </c>
@@ -16582,7 +16580,7 @@
         <v>&lt;key&gt;Turambar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.278.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D1%83%D1%80%D0%B0%D0%BC%D0%B1%D0%B0%D1%80_(%D0%BA%D0%BE%D1%80%D0%BE%D0%BB%D1%8C_%D0%93%D0%BE%D0%BD%D0%B4%D0%BE%D1%80%D0%B0)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTurambar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="6">
         <v>279</v>
       </c>
@@ -16616,7 +16614,7 @@
         <v>&lt;key&gt;Túrin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.279.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D1%83%D1%80%D0%B8%D0%BD_%D0%A2%D1%83%D1%80%D0%B0%D0%BC%D0%B1%D0%B0%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTurin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="6">
         <v>280</v>
       </c>
@@ -16653,7 +16651,7 @@
         <v>&lt;key&gt;Túrin I&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.280.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Турин I - 6-й Наместник-правитель Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D1%83%D1%80%D0%B8%D0%BD_I&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTurinI&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281" s="6">
         <v>281</v>
       </c>
@@ -16690,7 +16688,7 @@
         <v>&lt;key&gt;Túrin II&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.281.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Турин II — 23-й наместник Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D1%83%D1%80%D0%B8%D0%BD_II&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTurinII&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="6">
         <v>282</v>
       </c>
@@ -16718,7 +16716,7 @@
         <v>&lt;key&gt;Ulbar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.282.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUlbar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="6">
         <v>283</v>
       </c>
@@ -16755,7 +16753,7 @@
         <v>&lt;key&gt;Uldor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.283.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;По прибытие в Белерианд, присягнул на верность Карантиру, сыну Феанора. Известен тем, с братьями Улфастом и Улвартом сыграл ключевую роль в Нирнаэт Арноэдиад.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A3%D0%BB%D0%B4%D0%BE%D1%80_%D0%9F%D1%80%D0%BE%D0%BA%D0%BB%D1%8F%D1%82%D1%8B%D0%B9&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="6">
         <v>284</v>
       </c>
@@ -16789,7 +16787,7 @@
         <v>&lt;key&gt;Ulfang&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.284.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A3%D0%BB%D1%84%D0%B0%D0%BD%D0%B3&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUlfang&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="6">
         <v>285</v>
       </c>
@@ -16817,7 +16815,7 @@
         <v>&lt;key&gt;Ulfast&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.285.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUlfast&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="6">
         <v>286</v>
       </c>
@@ -16845,7 +16843,7 @@
         <v>&lt;key&gt;Ulrad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.286.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUlrad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="6">
         <v>287</v>
       </c>
@@ -16873,7 +16871,7 @@
         <v>&lt;key&gt;Ulwarth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.287.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUlwarth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="6">
         <v>288</v>
       </c>
@@ -16901,7 +16899,7 @@
         <v>&lt;key&gt;Urthel&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.288.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascUrthel&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="6">
         <v>289</v>
       </c>
@@ -16938,7 +16936,7 @@
         <v>&lt;key&gt;Valacar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.289.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Валакар — 20-й Король Гондора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%92%D0%B0%D0%BB%D0%B0%D0%BA%D0%B0%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascValacar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="6">
         <v>290</v>
       </c>
@@ -16975,7 +16973,7 @@
         <v>&lt;key&gt;Valandil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.290.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Валандиль(англ.Valandil) — первый лорд Андуниэ из рода Элроса. Его матерью была Сильмариэнь - сестра короля Нуменора Тар-Менельдура и дочь предыдущего короля Тар-Элендиля. Его отцом был Элатан из рода правителей Андуниэ. От него пошли Лорды Андуниэ (Правители Андуниэ из рода Элроса).&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%92%D0%B0%D0%BB%D0%B0%D0%BD%D0%B4%D0%B8%D0%BB%D1%8C_%D0%B8%D0%B7_%D0%90%D0%BD%D0%B4%D1%83%D0%BD%D0%B8%D1%8D&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascValandil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="6">
         <v>291</v>
       </c>
@@ -17009,7 +17007,7 @@
         <v>&lt;key&gt;Vardamir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.291.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%92%D0%B0%D1%80%D0%B4%D0%B0%D0%BC%D0%B8%D1%80_%D0%9D%D0%BE%D0%BB%D0%B8%D0%BC%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVardamir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="6">
         <v>292</v>
       </c>
@@ -17046,7 +17044,7 @@
         <v>&lt;key&gt;Vëantur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.292.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Вэантур (англ.Vëantur) - отец Альмариан знаменитый нуменорский мореход Второй Эпохи. Он был «Капитаном королевских кораблей» у короля Тар-Элендиля. Вэантур стал первым нуменорцем, достигшим Средиземья (его корабль «Энтулессэ» (англ. Entulessë, «Возвращение») бросил якорь в Серых гаванях в 600 г. Второй Эпохи). Там он подружился с эльфами Кирданом-корабелом и Верховным королём нолдор-изгнанников Гиль-галадом, что послужило предпосылкой к созданию союза между людьми Нуменора и эльфами Линдона. Вэантур обучил своего внука Алдариона  многим премудростям, касающимся кораблей и мореплавания. Когда Алдариону было 25 лет (725 г.), Вэантур взял его с собой в Средиземье, что стало первым плаванием Алдариона.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%92%D1%8D%D0%B0%D0%BD%D1%82%D1%83%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVeantur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="6">
         <v>293</v>
       </c>
@@ -17083,7 +17081,7 @@
         <v>&lt;key&gt;Vidugavia&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.293.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Видугавиа — самоназваный король Рованиона. Первый известный король из дома Королей Рованиона. У Видугавиа была дочь Видумави, к которой пришёл свататься сам принц Гондора Валакар. Видугавиа был предком короля Мархари и вождей Эотеод и естественно Королей Рохана.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%92%D0%B8%D0%B4%D1%83%D0%B3%D0%B0%D0%B2%D0%B8%D0%B0&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVidugavia&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="6">
         <v>294</v>
       </c>
@@ -17111,7 +17109,7 @@
         <v>&lt;key&gt;Von&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.294.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="6">
         <v>295</v>
       </c>
@@ -17148,7 +17146,7 @@
         <v>&lt;key&gt;Vorondil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.295.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;После смерти своего отца, Пелендура, титул Наместника Гондора стал наследным и поэтому Ворондиль наследовал отцу.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%92%D0%BE%D1%80%D0%BE%D0%BD%D0%B4%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVorondil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="6">
         <v>296</v>
       </c>
@@ -17185,35 +17183,38 @@
         <v>&lt;key&gt;Walda&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.296.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Валда (англ.Walda) — 12-й король Рохана. Правил всего 9 лет. Сын Короля Бритты, и отец Фолки охотника. В его правление орки смогли пробраться через Истволд и устроить ему засаду на пути от Дунхарроу. Он осматривал крепость, и,возвращаясь, не успел и глазом моргнуть, как на него и на его охрану напали орки. Орков разбили, но Валда был уже мёртв.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%92%D0%B0%D0%BB%D0%B4%D0%B0&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascWalda&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="6">
         <v>297</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="9" t="s">
         <v>1771</v>
       </c>
-      <c r="C297" t="s">
-        <v>1</v>
-      </c>
-      <c r="D297" s="4" t="s">
+      <c r="C297" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D297" s="10" t="s">
         <v>1772</v>
       </c>
-      <c r="E297" s="4" t="s">
+      <c r="E297" s="10" t="s">
         <v>1773</v>
       </c>
-      <c r="F297" s="4" t="s">
+      <c r="F297" s="10" t="s">
         <v>1774</v>
       </c>
-      <c r="G297" s="7" t="str">
+      <c r="G297" s="11" t="str">
         <f t="shared" si="8"/>
         <v>&lt;key&gt;Wídfara&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.297.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Wídfara was a Man of Rohan during the War of the Ring.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/W%C3%ADdfara&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascWidfara&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
-      <c r="L297" s="8" t="str">
+      <c r="H297" s="10"/>
+      <c r="I297" s="10"/>
+      <c r="K297" s="10"/>
+      <c r="L297" s="12" t="str">
         <f t="shared" si="9"/>
         <v>&lt;key&gt;Wídfara&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.297.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascWidfara&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="6">
         <v>298</v>
       </c>
@@ -17241,7 +17242,7 @@
         <v>&lt;key&gt;Agaldor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.298.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAgaldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="6">
         <v>299</v>
       </c>
@@ -17272,7 +17273,7 @@
         <v>&lt;key&gt;Agandaûr&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.299.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%B3%D0%B0%D0%BD%D0%B4%D0%B0%D1%83%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAgandaur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="6">
         <v>300</v>
       </c>
@@ -17303,7 +17304,7 @@
         <v>&lt;key&gt;Agathor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.300.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%B3%D0%B0%D1%82%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAgathor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="6">
         <v>301</v>
       </c>
@@ -17331,7 +17332,7 @@
         <v>&lt;key&gt;Amdûr&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.301.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAmdur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="6">
         <v>302</v>
       </c>
@@ -17356,7 +17357,7 @@
         <v>&lt;key&gt;Angmarim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.302.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAngmarim&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="6">
         <v>303</v>
       </c>
@@ -17384,7 +17385,7 @@
         <v>&lt;key&gt;Atanatári&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.303.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascAtanatari&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="6">
         <v>304</v>
       </c>
@@ -17412,7 +17413,7 @@
         <v>&lt;key&gt;Balchoth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.304.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBalchoth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="6">
         <v>305</v>
       </c>
@@ -17449,7 +17450,7 @@
         <v>&lt;key&gt;Beorning&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.305.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Беорнинги ведут свой род от эдайн, а их язык родствен адунаику или рохиррику.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%B5%D0%BE%D1%80%D0%BD%D0%B8%D0%BD%D0%B3%D0%B8&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBeorning&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="6">
         <v>306</v>
       </c>
@@ -17474,7 +17475,7 @@
         <v>&lt;key&gt;Berethor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.306.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBerethor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A307" s="6">
         <v>307</v>
       </c>
@@ -17502,7 +17503,7 @@
         <v>&lt;key&gt;Blackwolds&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.307.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBlackwolds&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="6">
         <v>308</v>
       </c>
@@ -17530,7 +17531,7 @@
         <v>&lt;key&gt;Blodren&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.308.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBlodren&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309" s="6">
         <v>309</v>
       </c>
@@ -17555,7 +17556,7 @@
         <v>&lt;key&gt;Braga&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.309.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascBraga&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="6">
         <v>310</v>
       </c>
@@ -17592,7 +17593,7 @@
         <v>&lt;key&gt;Drúedain&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.310.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;По всей видимости, ещё во Вторую эпоху лесовики заселили Друаданский лес, который находится в 30 милях к северо-западу от Минас Тирита. Вероятно, являются родственными народу Дру, люди которого жили в Белерианде совместно с племенем Халадин. Так же в Гондоре есть местность под названием Дру-Вэйт-Иаур (старинная пустыня народу Дру). В годы Войны Кольца вождь лесовиков Гхан-Бури-Гхан предложил роханскому королю Теодену провести его войско через лес, дабы роханцы избежали столкновения с полчищами орков на торной дороге. В награду за эту услугу король Эллесар впоследствии передал Друаданский лес в собственность лесовикам и запретил кому бы то ни было входить туда без разрешения хозяев.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%94%D1%80%D1%83%D1%8D%D0%B4%D0%B0%D0%B9%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDruedain&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="6">
         <v>311</v>
       </c>
@@ -17629,7 +17630,7 @@
         <v>&lt;key&gt;Dúnedain&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.311.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ну́менорцы (англ. Númenо́reans) также звались Ду́нэдайн (англ. Dúnedain | ед. ч. Дунадан | синд. «Люди Запада») — потомки людей-Эдайн, которые были союзниками нолдор и Валар в Первую Эпоху. Обитатели острова Эленна, на котором было основано государство Нуменор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9D%D1%83%D0%BC%D0%B5%D0%BD%D0%BE%D1%80%D1%86%D1%8B&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDunedain&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312" s="6">
         <v>312</v>
       </c>
@@ -17666,7 +17667,7 @@
         <v>&lt;key&gt;Dunlendings&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.312.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;По одной из версий, они являются потомками некоторых племён Вастаков (Истерлингов), не ушедших дальше на восток во Вторую Эпоху.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%94%D1%83%D0%BD%D0%BB%D0%B0%D0%BD%D0%B4%D1%86%D1%8B&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascDunlendings&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313" s="6">
         <v>313</v>
       </c>
@@ -17703,7 +17704,7 @@
         <v>&lt;key&gt;Easterlings&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.313.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В поздние Эпохи периодически совершали набеги на королевства людей-дунэдайн - Гондор и Рохан. Являлись жителями стран Рун и Харад. Именно королём истерлингов был один из назгул - Кхамул.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%98%D1%81%D1%82%D0%B5%D1%80%D0%BB%D0%B8%D0%BD%D0%B3%D0%B8&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEasterlings&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="6">
         <v>314</v>
       </c>
@@ -17740,7 +17741,7 @@
         <v>&lt;key&gt;Edain&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.314.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эдайн (англ.Edain) — так эльдар называли три племени людей, в третьем столетии Первой Эпохи пришедших в Белерианд. В переводе с синдарина «эдайн» означало «вторые» (ед. ч. — «адан»).&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%B4%D0%B0%D0%B9%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEdain&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315" s="6">
         <v>315</v>
       </c>
@@ -17765,7 +17766,7 @@
         <v>&lt;key&gt;Elegost&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.315.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascElegost&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="6">
         <v>316</v>
       </c>
@@ -17802,7 +17803,7 @@
         <v>&lt;key&gt;Éothéod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.316.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Слово, обозначающее «конные люди», составлено из староанглийских слов эох (éoh) — «конь», или «боевой конь» и теод (théod) — «люди», «народ», также оно напоминает древнескандинавское слово йосйод (jóþjóð) — «конные люди». Толкин использовал это слово также и для обозначения земли, занимаемой этими людьми в Долине Андуина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BE%D1%82%D0%B5%D0%BE%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascEotheod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317" s="6">
         <v>317</v>
       </c>
@@ -17827,7 +17828,7 @@
         <v>&lt;key&gt;Erland&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.317.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascErland&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="6">
         <v>318</v>
       </c>
@@ -17864,7 +17865,7 @@
         <v>&lt;key&gt;Forodwaith&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.318.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;На синдарине название Forodwaith обозначает «северные земли» (forod — север, waith — земля, народ), возможно также происхождение части названия от слова gwaith — тень.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D0%BE%D1%80%D0%BE%D0%B4%D0%B2%D0%B0%D0%B9%D1%82&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascForodwaith&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319" s="6">
         <v>319</v>
       </c>
@@ -17889,7 +17890,7 @@
         <v>&lt;key&gt;Freca&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.319.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascFreca&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="6">
         <v>320</v>
       </c>
@@ -17917,7 +17918,7 @@
         <v>&lt;key&gt;Halad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.320.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHalad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321" s="6">
         <v>321</v>
       </c>
@@ -17937,7 +17938,7 @@
         <v>1890</v>
       </c>
       <c r="G321" s="7" t="str">
-        <f t="shared" ref="G321:G344" si="10">CONCATENATE("&lt;key&gt;",B321,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;","02.02.0.",A321,".02","&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D321,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E321,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",F321,"&lt;/string&gt;&lt;/dict&gt;")</f>
+        <f t="shared" ref="G321:G342" si="10">CONCATENATE("&lt;key&gt;",B321,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;","02.02.0.",A321,".02","&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D321,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E321,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",F321,"&lt;/string&gt;&lt;/dict&gt;")</f>
         <v>&lt;key&gt;Haradrim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.321.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The Haradrim, known in Westron as the Southrons and once as the 'Swertings' by Hobbits, were a race of Men from Harad in the region of Middle-earth directly south of Gondor. Before that, in the First Age, the Atani from whom the Haradrim descended were known as Black Men. A part of the histories of the Westlands is given to the fierce people who in the Second and the Third Age of the Sun, came from the hot deserts and forests of sunlands, which lay in the South of Middle-earth. These people were ruled by many and lords, until in time Sauron the Maia corrupted them and called them to war.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Haradrim&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHaradrim&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I321" s="4" t="s">
@@ -17954,7 +17955,7 @@
         <v>&lt;key&gt;Haradrim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.321.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;В правление государя Элессара  харадрим поклялись в верности Воссоединенному королевству.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D1%80%D0%B0%D0%B4%D1%80%D0%B8%D0%BC&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHaradrim&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322" s="6">
         <v>322</v>
       </c>
@@ -17979,7 +17980,7 @@
         <v>&lt;key&gt;Hugin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.322.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHugin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="6">
         <v>323</v>
       </c>
@@ -18009,11 +18010,11 @@
         <v>1902</v>
       </c>
       <c r="L323" s="8" t="str">
-        <f t="shared" ref="L323:L344" si="11">CONCATENATE("&lt;key&gt;",B323,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;","02.02.0.",A323,".02","&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",J323,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",K323,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",F323,"&lt;/string&gt;&lt;/dict&gt;")</f>
+        <f t="shared" ref="L323:L342" si="11">CONCATENATE("&lt;key&gt;",B323,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;","02.02.0.",A323,".02","&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",J323,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",K323,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",F323,"&lt;/string&gt;&lt;/dict&gt;")</f>
         <v>&lt;key&gt;Hwaldar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.323.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%92%D0%BE%D0%B6%D0%B4%D1%8C_%D0%9D%D0%B0%D1%80%D0%BE%D0%B4%D0%B0_%D0%A5%D0%BE%D0%BB%D0%BC%D0%BE%D0%B2&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascHwaldar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324" s="6">
         <v>324</v>
       </c>
@@ -18038,7 +18039,7 @@
         <v>&lt;key&gt;Irolas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.324.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascIrolas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="6">
         <v>325</v>
       </c>
@@ -18063,7 +18064,7 @@
         <v>&lt;key&gt;Járnsmid&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.325.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascJarnsmid&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="6">
         <v>326</v>
       </c>
@@ -18094,7 +18095,7 @@
         <v>&lt;key&gt;Karsh&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.326.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D0%B0%D1%80%D1%82%D0%B0%D1%8D%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascKarsh&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327" s="6">
         <v>327</v>
       </c>
@@ -18131,7 +18132,7 @@
         <v>&lt;key&gt;Lossoth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.327.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Хотя пора владычества Моргота над землями Севера давно прошла, холода до сих пор сковывают эти земли, несмотря на то, что они лежат всего в полутораста верстах к северу от Шира. Народ Лоссотов в основном живёт в снегах, говорят, они умеют бегать по льду, привязывая к ногам острые кости, и телеги у них без колес. В основном они обитают на недоступном для врагов обширном мысе Форохель, с северо–запада вдающемся в большой залив того же имени, но стоянки их можно встретить также на юге залива и у подножия Гор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9B%D0%BE%D1%81%D1%81%D0%BE%D1%82&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascLossoth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328" s="6">
         <v>328</v>
       </c>
@@ -18159,7 +18160,7 @@
         <v>&lt;key&gt;Mahud&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.328.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascMahud&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329" s="6">
         <v>329</v>
       </c>
@@ -18184,7 +18185,7 @@
         <v>&lt;key&gt;Ottar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.329.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascOttar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330" s="6">
         <v>330</v>
       </c>
@@ -18209,7 +18210,7 @@
         <v>&lt;key&gt;Percy&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.330.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascPercy&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331" s="6">
         <v>331</v>
       </c>
@@ -18234,7 +18235,7 @@
         <v>&lt;key&gt;Rennar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.331.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRennar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A332" s="6">
         <v>332</v>
       </c>
@@ -18262,7 +18263,7 @@
         <v>&lt;key&gt;Rhûnic&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.332.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRhunic&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333" s="6">
         <v>333</v>
       </c>
@@ -18299,7 +18300,7 @@
         <v>&lt;key&gt;Rohirrim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.333.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Название состоит из двух эльфийских слов: roch — конь и kher — владеть, образующих таким образом слово Рохир (синд. Rochir) — всадник, повелитель коней, и множественного суффикса -rim.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A0%D0%BE%D1%85%D0%B8%D1%80%D1%80%D0%B8%D0%BC&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRohirrim&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334" s="6">
         <v>334</v>
       </c>
@@ -18327,7 +18328,7 @@
         <v>&lt;key&gt;Ruffians&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.334.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRuffians&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335" s="6">
         <v>335</v>
       </c>
@@ -18352,38 +18353,32 @@
         <v>&lt;key&gt;Runsig&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.335.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascRunsig&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336" s="6">
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="C336" t="s">
         <v>1</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="G336" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;Sigrid&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.336.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Sigrid&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSigrid&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-      <c r="I336" s="4" t="s">
-        <v>1955</v>
-      </c>
-      <c r="K336" s="4" t="s">
-        <v>1956</v>
+        <v>&lt;key&gt;Squint&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.336.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Squint&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSquint&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L336" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;Sigrid&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.336.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A1%D0%B8%D0%B3%D1%80%D0%B8%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSigrid&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="337" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;key&gt;Squint&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.336.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSquint&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337" s="6">
         <v>337</v>
       </c>
@@ -18401,14 +18396,14 @@
       </c>
       <c r="G337" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;Squint&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.337.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Squint&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSquint&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Suladân&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.337.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Sulad%C3%A2n&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSuladan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L337" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;Squint&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.337.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSquint&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="338" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;key&gt;Suladân&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.337.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSuladan&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338" s="6">
         <v>338</v>
       </c>
@@ -18418,214 +18413,158 @@
       <c r="C338" t="s">
         <v>1</v>
       </c>
+      <c r="D338" s="4" t="s">
+        <v>1961</v>
+      </c>
       <c r="E338" s="4" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="G338" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;Suladân&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.338.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Sulad%C3%A2n&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSuladan&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Tal-Elmar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.338.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Tal-Elmar was name of a character of an incomplete narrative of J.R.R. Tolkien's that had the same name.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Tal-Elmar&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTalElmar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L338" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;Suladân&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.338.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascSuladan&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="339" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;key&gt;Tal-Elmar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.338.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTalElmar&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339" s="6">
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="C339" t="s">
         <v>1</v>
       </c>
-      <c r="D339" s="4" t="s">
-        <v>1964</v>
-      </c>
       <c r="E339" s="4" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="G339" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;Tal-Elmar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.339.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Tal-Elmar was name of a character of an incomplete narrative of J.R.R. Tolkien's that had the same name.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Tal-Elmar&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTalElmar&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Tumna&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.339.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Tumna&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTumna&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="L339" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;Tal-Elmar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.339.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTalElmar&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="340" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;key&gt;Tumna&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.339.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTumna&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340" s="6">
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="C340" t="s">
         <v>1</v>
       </c>
+      <c r="D340" s="4" t="s">
+        <v>1970</v>
+      </c>
       <c r="E340" s="4" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="G340" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;Tilda&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.340.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Tilda&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTilda&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Variags&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.340.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The Variags were Men from the land of Khand.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Variags&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVariags&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I340" s="4" t="s">
-        <v>1970</v>
+        <v>1973</v>
+      </c>
+      <c r="J340" t="s">
+        <v>1974</v>
       </c>
       <c r="K340" s="4" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="L340" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;Tilda&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.340.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D0%B8%D0%BB%D1%8C%D0%B4%D0%B0&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTilda&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="341" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;key&gt;Variags&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.340.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Достоверных сведений о вариагах не имеется. По одной версии они являются частью вастаков, которые отсоединились от остальных из-за любви к коням, или были изгнаны вастаками из Рун по той же причине.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%92%D0%B0%D1%80%D0%B8%D0%B0%D0%B3%D0%B8&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVariags&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341" s="6">
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="C341" t="s">
         <v>1</v>
       </c>
+      <c r="D341" s="4" t="s">
+        <v>1977</v>
+      </c>
       <c r="E341" s="4" t="s">
-        <v>1973</v>
+        <v>1978</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="G341" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;Tumna&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.341.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Tumna&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTumna&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Vinyalondë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.341.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Vinyalonde was a haven built by the Numenoreans, under charge of Tar-Aldarion, first of the Ship-kings, at the mouth of the river Gwathló in Eriador.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Vinyalond%C3%AB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVinyalonde&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+      <c r="I341" s="4" t="s">
+        <v>1980</v>
+      </c>
+      <c r="J341" t="s">
+        <v>1981</v>
+      </c>
+      <c r="K341" s="4" t="s">
+        <v>1982</v>
       </c>
       <c r="L341" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;Tumna&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.341.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascTumna&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="342" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;key&gt;Vinyalondë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.341.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Враги до Виньялондэ в каком-либо заметном количестве не добирались.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%92%D0%B8%D0%BD%D1%8C%D1%8F%D0%BB%D0%BE%D0%BD%D0%B4%D0%B5&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVinyalonde&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342" s="6">
         <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="C342" t="s">
         <v>1</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>1976</v>
+        <v>1984</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="G342" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;Variags&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.342.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The Variags were Men from the land of Khand.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Variags&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVariags&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Wainriders&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.342.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Following the Great Plague they started their attacks in TA 1856, defeating the army of Gondor and killing king Narmacil II. They rode in great wagons and chariots (which gave them their name), and raided the lands of Rhovanion, destroying or enslaving its people. Gondor gradually lost all of its possessions east of Anduin to them. The thirtieth King of Gondor, Calimehtar son of Narmacil, defeated the Wainriders at the Field of Celebrant, buying some rest for his land. However the Wainriders struck back in 1944, allying themselves with the Haradrim of Near Harad and the Variags of Khand. They managed to kill king Ondoher and all his heirs, but instead of riding on to Minas Anor and taking the city, they paused to celebrate. Meanwhile, general Eärnil of Gondor's southern army had defeated the Haradrim and rode north to defend his king. He came too late to rescue Ondoher, but managed to totally defeat the Wainriders. Eärnil was crowned king. After this defeat the might of the Wainriders was broken, and they retreated east. They still held Rhovanion, but never troubled Gondor again. It later turned out that their attacks were staged by Sauron to allow him to reclaim Mordor while Gondor's watch was diverted.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Wainriders&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascWainriders&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I342" s="4" t="s">
-        <v>1979</v>
+        <v>1987</v>
       </c>
       <c r="J342" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="K342" s="4" t="s">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="L342" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;Variags&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.342.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Достоверных сведений о вариагах не имеется. По одной версии они являются частью вастаков, которые отсоединились от остальных из-за любви к коням, или были изгнаны вастаками из Рун по той же причине.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%92%D0%B0%D1%80%D0%B8%D0%B0%D0%B3%D0%B8&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVariags&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="343" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="6">
-        <v>343</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1982</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1</v>
-      </c>
-      <c r="D343" s="4" t="s">
-        <v>1983</v>
-      </c>
-      <c r="E343" s="4" t="s">
-        <v>1984</v>
-      </c>
-      <c r="F343" s="4" t="s">
-        <v>1985</v>
-      </c>
-      <c r="G343" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;key&gt;Vinyalondë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.343.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Vinyalonde was a haven built by the Numenoreans, under charge of Tar-Aldarion, first of the Ship-kings, at the mouth of the river Gwathló in Eriador.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Vinyalond%C3%AB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVinyalonde&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-      <c r="I343" s="4" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J343" t="s">
-        <v>1987</v>
-      </c>
-      <c r="K343" s="4" t="s">
-        <v>1988</v>
-      </c>
-      <c r="L343" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;key&gt;Vinyalondë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.343.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Враги до Виньялондэ в каком-либо заметном количестве не добирались.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%92%D0%B8%D0%BD%D1%8C%D1%8F%D0%BB%D0%BE%D0%BD%D0%B4%D0%B5&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascVinyalonde&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="344" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="6">
-        <v>344</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1989</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1</v>
-      </c>
-      <c r="D344" s="4" t="s">
-        <v>1990</v>
-      </c>
-      <c r="E344" s="4" t="s">
-        <v>1991</v>
-      </c>
-      <c r="F344" s="4" t="s">
-        <v>1992</v>
-      </c>
-      <c r="G344" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;key&gt;Wainriders&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.344.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Following the Great Plague they started their attacks in TA 1856, defeating the army of Gondor and killing king Narmacil II. They rode in great wagons and chariots (which gave them their name), and raided the lands of Rhovanion, destroying or enslaving its people. Gondor gradually lost all of its possessions east of Anduin to them. The thirtieth King of Gondor, Calimehtar son of Narmacil, defeated the Wainriders at the Field of Celebrant, buying some rest for his land. However the Wainriders struck back in 1944, allying themselves with the Haradrim of Near Harad and the Variags of Khand. They managed to kill king Ondoher and all his heirs, but instead of riding on to Minas Anor and taking the city, they paused to celebrate. Meanwhile, general Eärnil of Gondor's southern army had defeated the Haradrim and rode north to defend his king. He came too late to rescue Ondoher, but managed to totally defeat the Wainriders. Eärnil was crowned king. After this defeat the might of the Wainriders was broken, and they retreated east. They still held Rhovanion, but never troubled Gondor again. It later turned out that their attacks were staged by Sauron to allow him to reclaim Mordor while Gondor's watch was diverted.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Wainriders&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascWainriders&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-      <c r="I344" s="4" t="s">
-        <v>1993</v>
-      </c>
-      <c r="J344" t="s">
-        <v>1994</v>
-      </c>
-      <c r="K344" s="4" t="s">
-        <v>1995</v>
-      </c>
-      <c r="L344" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;key&gt;Wainriders&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.344.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Люди Повозок (англ. Wainriders) были конфедерацией племён истерлингов, спаянных общей ненавистью к Гондору, подогреваемой Сауроном. После Великой Чумы, ослабившей Гондор, они начали свои рейды в 1851 г. Т.Э., а через пять лет двинули в ход свои основные силы, разбив армию Гондора и убив короля Нармакиля II. Они передвигались в огромных телегах, а сражались преимущественно на боевых колесницах (что и дало им название), и постоянно нападали на земли Рованиона, уничтожая и порабощая его население. Постепенно они отобрали у Гондора все владения к востоку от Андуина, кроме Итилиэна. Тридцатый король Гондора, Калимехтар, сын Нармакиля, разбил Людей Повозок в битве при Дагорладе, обеспечив своей стране небольшую передышку среди постоянных войн.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9B%D1%8E%D0%B4%D0%B8_%D0%9F%D0%BE%D0%B2%D0%BE%D0%B7%D0%BE%D0%BA&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascWainriders&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;Wainriders&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.342.02&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Люди Повозок (англ. Wainriders) были конфедерацией племён истерлингов, спаянных общей ненавистью к Гондору, подогреваемой Сауроном. После Великой Чумы, ослабившей Гондор, они начали свои рейды в 1851 г. Т.Э., а через пять лет двинули в ход свои основные силы, разбив армию Гондора и убив короля Нармакиля II. Они передвигались в огромных телегах, а сражались преимущественно на боевых колесницах (что и дало им название), и постоянно нападали на земли Рованиона, уничтожая и порабощая его население. Постепенно они отобрали у Гондора все владения к востоку от Андуина, кроме Итилиэна. Тридцатый король Гондора, Калимехтар, сын Нармакиля, разбил Людей Повозок в битве при Дагорладе, обеспечив своей стране небольшую передышку среди постоянных войн.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9B%D1%8E%D0%B4%D0%B8_%D0%9F%D0%BE%D0%B2%D0%BE%D0%B7%D0%BE%D0%BA&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienMenMascWainriders&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -18642,36 +18581,36 @@
       <selection activeCell="C384" sqref="C384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="51.73046875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.265625" style="4" customWidth="1"/>
     <col min="3" max="3" width="57" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -18679,10 +18618,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -18693,7 +18632,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -18704,26 +18643,26 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>1777</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>1780</v>
       </c>
@@ -18734,7 +18673,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>1786</v>
       </c>
@@ -18745,7 +18684,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -18756,26 +18695,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -18786,7 +18725,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
@@ -18797,7 +18736,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
@@ -18808,7 +18747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -18816,32 +18755,32 @@
         <v>57</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
@@ -18849,10 +18788,10 @@
         <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>66</v>
       </c>
@@ -18863,7 +18802,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>1791</v>
       </c>
@@ -18871,7 +18810,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>73</v>
       </c>
@@ -18879,10 +18818,10 @@
         <v>77</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>80</v>
       </c>
@@ -18893,7 +18832,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>87</v>
       </c>
@@ -18901,10 +18840,10 @@
         <v>91</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>94</v>
       </c>
@@ -18912,18 +18851,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>98</v>
       </c>
@@ -18931,10 +18870,10 @@
         <v>102</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>105</v>
       </c>
@@ -18942,26 +18881,26 @@
         <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>120</v>
       </c>
@@ -18972,15 +18911,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>1794</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>127</v>
       </c>
@@ -18988,10 +18927,10 @@
         <v>130</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>133</v>
       </c>
@@ -19002,7 +18941,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>140</v>
       </c>
@@ -19010,10 +18949,10 @@
         <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>147</v>
       </c>
@@ -19021,10 +18960,10 @@
         <v>151</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>154</v>
       </c>
@@ -19032,18 +18971,18 @@
         <v>158</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>165</v>
       </c>
@@ -19054,7 +18993,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
         <v>172</v>
       </c>
@@ -19062,10 +19001,10 @@
         <v>176</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>179</v>
       </c>
@@ -19073,10 +19012,10 @@
         <v>183</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>186</v>
       </c>
@@ -19084,10 +19023,10 @@
         <v>190</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>193</v>
       </c>
@@ -19095,10 +19034,10 @@
         <v>197</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
         <v>200</v>
       </c>
@@ -19106,10 +19045,10 @@
         <v>204</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>207</v>
       </c>
@@ -19117,18 +19056,18 @@
         <v>211</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>218</v>
       </c>
@@ -19136,10 +19075,10 @@
         <v>222</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
         <v>225</v>
       </c>
@@ -19147,26 +19086,26 @@
         <v>229</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>1798</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
         <v>232</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>236</v>
       </c>
@@ -19174,18 +19113,18 @@
         <v>240</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
         <v>1802</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>243</v>
       </c>
@@ -19193,10 +19132,10 @@
         <v>247</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
         <v>250</v>
       </c>
@@ -19204,10 +19143,10 @@
         <v>254</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>257</v>
       </c>
@@ -19218,7 +19157,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
         <v>264</v>
       </c>
@@ -19226,10 +19165,10 @@
         <v>268</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>271</v>
       </c>
@@ -19240,7 +19179,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
         <v>278</v>
       </c>
@@ -19248,7 +19187,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>282</v>
       </c>
@@ -19256,7 +19195,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>286</v>
       </c>
@@ -19267,18 +19206,18 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
         <v>293</v>
       </c>
@@ -19289,7 +19228,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>300</v>
       </c>
@@ -19300,7 +19239,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
         <v>307</v>
       </c>
@@ -19311,7 +19250,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>313</v>
       </c>
@@ -19319,10 +19258,10 @@
         <v>317</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
         <v>320</v>
       </c>
@@ -19330,10 +19269,10 @@
         <v>324</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>327</v>
       </c>
@@ -19341,21 +19280,21 @@
         <v>331</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>334</v>
       </c>
@@ -19366,7 +19305,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="4" t="s">
         <v>1806</v>
       </c>
@@ -19377,7 +19316,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>341</v>
       </c>
@@ -19385,10 +19324,10 @@
         <v>345</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="4" t="s">
         <v>348</v>
       </c>
@@ -19396,7 +19335,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>352</v>
       </c>
@@ -19404,18 +19343,18 @@
         <v>356</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>363</v>
       </c>
@@ -19423,45 +19362,45 @@
         <v>367</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="4" t="s">
         <v>1812</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>370</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="4" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="4" t="s">
         <v>1816</v>
       </c>
@@ -19469,7 +19408,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>374</v>
       </c>
@@ -19480,7 +19419,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="4" t="s">
         <v>1820</v>
       </c>
@@ -19488,7 +19427,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>381</v>
       </c>
@@ -19499,7 +19438,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="4" t="s">
         <v>388</v>
       </c>
@@ -19510,7 +19449,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>395</v>
       </c>
@@ -19518,10 +19457,10 @@
         <v>399</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="4" t="s">
         <v>402</v>
       </c>
@@ -19529,7 +19468,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>406</v>
       </c>
@@ -19537,10 +19476,10 @@
         <v>410</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="4" t="s">
         <v>413</v>
       </c>
@@ -19551,15 +19490,15 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>420</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="4" t="s">
         <v>424</v>
       </c>
@@ -19570,15 +19509,15 @@
         <v>345</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>1823</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="4" t="s">
         <v>431</v>
       </c>
@@ -19589,7 +19528,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>437</v>
       </c>
@@ -19597,10 +19536,10 @@
         <v>440</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="4" t="s">
         <v>443</v>
       </c>
@@ -19608,10 +19547,10 @@
         <v>447</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>450</v>
       </c>
@@ -19622,7 +19561,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="4" t="s">
         <v>457</v>
       </c>
@@ -19633,7 +19572,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>463</v>
       </c>
@@ -19644,7 +19583,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="4" t="s">
         <v>469</v>
       </c>
@@ -19655,7 +19594,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>476</v>
       </c>
@@ -19663,7 +19602,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="4" t="s">
         <v>480</v>
       </c>
@@ -19674,7 +19613,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>487</v>
       </c>
@@ -19685,15 +19624,15 @@
         <v>428</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="4" t="s">
         <v>494</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>498</v>
       </c>
@@ -19701,10 +19640,10 @@
         <v>502</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="4" t="s">
         <v>505</v>
       </c>
@@ -19712,10 +19651,10 @@
         <v>509</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>512</v>
       </c>
@@ -19726,7 +19665,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="4" t="s">
         <v>519</v>
       </c>
@@ -19737,7 +19676,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>526</v>
       </c>
@@ -19745,15 +19684,15 @@
         <v>447</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="4" t="s">
         <v>530</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
         <v>534</v>
       </c>
@@ -19761,7 +19700,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="4" t="s">
         <v>538</v>
       </c>
@@ -19772,7 +19711,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
         <v>545</v>
       </c>
@@ -19780,10 +19719,10 @@
         <v>549</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="4" t="s">
         <v>552</v>
       </c>
@@ -19794,7 +19733,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
         <v>559</v>
       </c>
@@ -19802,26 +19741,26 @@
         <v>563</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="4" t="s">
         <v>566</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="4" t="s">
         <v>570</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="4" t="s">
         <v>574</v>
       </c>
@@ -19829,7 +19768,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
         <v>578</v>
       </c>
@@ -19840,15 +19779,15 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="4" t="s">
         <v>585</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="4" t="s">
         <v>589</v>
       </c>
@@ -19859,7 +19798,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="4" t="s">
         <v>1827</v>
       </c>
@@ -19867,10 +19806,10 @@
         <v>1831</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
         <v>596</v>
       </c>
@@ -19878,15 +19817,15 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="4" t="s">
         <v>600</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
         <v>1834</v>
       </c>
@@ -19897,15 +19836,15 @@
         <v>885</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="4" t="s">
         <v>604</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
         <v>1841</v>
       </c>
@@ -19913,10 +19852,10 @@
         <v>1845</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="4" t="s">
         <v>608</v>
       </c>
@@ -19927,7 +19866,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="4" t="s">
         <v>615</v>
       </c>
@@ -19935,10 +19874,10 @@
         <v>619</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="4" t="s">
         <v>622</v>
       </c>
@@ -19949,7 +19888,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="4" t="s">
         <v>629</v>
       </c>
@@ -19957,10 +19896,10 @@
         <v>633</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="4" t="s">
         <v>636</v>
       </c>
@@ -19971,7 +19910,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
         <v>1848</v>
       </c>
@@ -19979,10 +19918,10 @@
         <v>1852</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="4" t="s">
         <v>643</v>
       </c>
@@ -19990,10 +19929,10 @@
         <v>647</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
         <v>650</v>
       </c>
@@ -20001,10 +19940,10 @@
         <v>654</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="4" t="s">
         <v>1855</v>
       </c>
@@ -20012,10 +19951,10 @@
         <v>1859</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
         <v>657</v>
       </c>
@@ -20023,29 +19962,29 @@
         <v>661</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="4" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="4" t="s">
         <v>664</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="4" t="s">
         <v>668</v>
       </c>
@@ -20056,7 +19995,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="4" t="s">
         <v>675</v>
       </c>
@@ -20067,7 +20006,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="4" t="s">
         <v>681</v>
       </c>
@@ -20075,10 +20014,10 @@
         <v>685</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="4" t="s">
         <v>688</v>
       </c>
@@ -20089,15 +20028,15 @@
         <v>951</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="4" t="s">
         <v>1861</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="4" t="s">
         <v>695</v>
       </c>
@@ -20108,7 +20047,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="4" t="s">
         <v>702</v>
       </c>
@@ -20119,7 +20058,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="4" t="s">
         <v>709</v>
       </c>
@@ -20130,15 +20069,15 @@
         <v>971</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="4" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="4" t="s">
         <v>716</v>
       </c>
@@ -20149,7 +20088,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="4" t="s">
         <v>723</v>
       </c>
@@ -20157,10 +20096,10 @@
         <v>727</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="4" t="s">
         <v>730</v>
       </c>
@@ -20171,26 +20110,26 @@
         <v>989</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="4" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="4" t="s">
         <v>737</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="4" t="s">
         <v>741</v>
       </c>
@@ -20201,7 +20140,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="4" t="s">
         <v>747</v>
       </c>
@@ -20212,7 +20151,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="4" t="s">
         <v>754</v>
       </c>
@@ -20220,10 +20159,10 @@
         <v>758</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="4" t="s">
         <v>761</v>
       </c>
@@ -20234,15 +20173,15 @@
         <v>582</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="4" t="s">
         <v>767</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="4" t="s">
         <v>1865</v>
       </c>
@@ -20253,18 +20192,18 @@
         <v>593</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="4" t="s">
-        <v>2100</v>
+        <v>2094</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="4" t="s">
         <v>771</v>
       </c>
@@ -20275,7 +20214,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="4" t="s">
         <v>778</v>
       </c>
@@ -20283,21 +20222,21 @@
         <v>781</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="4" t="s">
-        <v>2103</v>
+        <v>2097</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="4" t="s">
         <v>783</v>
       </c>
@@ -20305,26 +20244,26 @@
         <v>787</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="4" t="s">
         <v>1871</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="4" t="s">
         <v>790</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="4" t="s">
         <v>794</v>
       </c>
@@ -20335,7 +20274,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="4" t="s">
         <v>801</v>
       </c>
@@ -20343,26 +20282,26 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="4" t="s">
-        <v>2109</v>
+        <v>2103</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>2110</v>
+        <v>2104</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="4" t="s">
         <v>805</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="4" t="s">
         <v>809</v>
       </c>
@@ -20370,29 +20309,29 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="4" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="4" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="4" t="s">
         <v>813</v>
       </c>
@@ -20403,15 +20342,15 @@
         <v>466</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="4" t="s">
         <v>819</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="4" t="s">
         <v>823</v>
       </c>
@@ -20422,7 +20361,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="4" t="s">
         <v>830</v>
       </c>
@@ -20430,10 +20369,10 @@
         <v>834</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="4" t="s">
         <v>1875</v>
       </c>
@@ -20441,10 +20380,10 @@
         <v>1879</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="4" t="s">
         <v>837</v>
       </c>
@@ -20452,18 +20391,18 @@
         <v>840</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="4" t="s">
         <v>843</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="4" t="s">
         <v>847</v>
       </c>
@@ -20471,10 +20410,10 @@
         <v>851</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="4" t="s">
         <v>854</v>
       </c>
@@ -20485,7 +20424,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="4" t="s">
         <v>860</v>
       </c>
@@ -20496,7 +20435,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="4" t="s">
         <v>867</v>
       </c>
@@ -20507,7 +20446,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="4" t="s">
         <v>1881</v>
       </c>
@@ -20515,7 +20454,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="4" t="s">
         <v>874</v>
       </c>
@@ -20523,10 +20462,10 @@
         <v>878</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="4" t="s">
         <v>881</v>
       </c>
@@ -20534,10 +20473,10 @@
         <v>885</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="4" t="s">
         <v>888</v>
       </c>
@@ -20545,10 +20484,10 @@
         <v>892</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="4" t="s">
         <v>895</v>
       </c>
@@ -20556,7 +20495,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="4" t="s">
         <v>898</v>
       </c>
@@ -20567,23 +20506,23 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="4" t="s">
         <v>905</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="4" t="s">
         <v>909</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="4" t="s">
         <v>913</v>
       </c>
@@ -20591,7 +20530,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="4" t="s">
         <v>917</v>
       </c>
@@ -20599,10 +20538,10 @@
         <v>921</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="4" t="s">
         <v>924</v>
       </c>
@@ -20610,7 +20549,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="4" t="s">
         <v>928</v>
       </c>
@@ -20618,37 +20557,37 @@
         <v>932</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="4" t="s">
         <v>935</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="4" t="s">
         <v>939</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="4" t="s">
-        <v>2133</v>
+        <v>2127</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="4" t="s">
         <v>943</v>
       </c>
@@ -20656,7 +20595,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="4" t="s">
         <v>947</v>
       </c>
@@ -20667,7 +20606,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="4" t="s">
         <v>954</v>
       </c>
@@ -20678,7 +20617,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="4" t="s">
         <v>961</v>
       </c>
@@ -20689,7 +20628,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="4" t="s">
         <v>967</v>
       </c>
@@ -20697,10 +20636,10 @@
         <v>971</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="4" t="s">
         <v>974</v>
       </c>
@@ -20711,15 +20650,15 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="4" t="s">
         <v>981</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="4" t="s">
         <v>985</v>
       </c>
@@ -20730,15 +20669,15 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="4" t="s">
         <v>992</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="4" t="s">
         <v>996</v>
       </c>
@@ -20746,18 +20685,18 @@
         <v>1000</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="4" t="s">
         <v>1885</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="4" t="s">
         <v>1003</v>
       </c>
@@ -20765,10 +20704,10 @@
         <v>1007</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="4" t="s">
         <v>1010</v>
       </c>
@@ -20779,7 +20718,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="4" t="s">
         <v>1017</v>
       </c>
@@ -20790,18 +20729,18 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="4" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="4" t="s">
         <v>1024</v>
       </c>
@@ -20809,7 +20748,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="4" t="s">
         <v>1028</v>
       </c>
@@ -20820,7 +20759,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="4" t="s">
         <v>1035</v>
       </c>
@@ -20828,7 +20767,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="4" t="s">
         <v>1039</v>
       </c>
@@ -20836,10 +20775,10 @@
         <v>1043</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="4" t="s">
         <v>1045</v>
       </c>
@@ -20847,10 +20786,10 @@
         <v>1049</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="4" t="s">
         <v>1052</v>
       </c>
@@ -20861,7 +20800,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="4" t="s">
         <v>1889</v>
       </c>
@@ -20872,7 +20811,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="4" t="s">
         <v>1059</v>
       </c>
@@ -20883,7 +20822,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="4" t="s">
         <v>1066</v>
       </c>
@@ -20894,23 +20833,23 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="4" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="4" t="s">
         <v>1073</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="4" t="s">
         <v>1077</v>
       </c>
@@ -20918,10 +20857,10 @@
         <v>1080</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="4" t="s">
         <v>1083</v>
       </c>
@@ -20929,10 +20868,10 @@
         <v>1087</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="4" t="s">
         <v>1090</v>
       </c>
@@ -20940,7 +20879,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="4" t="s">
         <v>1094</v>
       </c>
@@ -20948,7 +20887,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="4" t="s">
         <v>1098</v>
       </c>
@@ -20959,15 +20898,15 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="4" t="s">
         <v>1105</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="4" t="s">
         <v>1109</v>
       </c>
@@ -20978,26 +20917,26 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="4" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="4" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="4" t="s">
         <v>1116</v>
       </c>
@@ -21005,7 +20944,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="4" t="s">
         <v>1120</v>
       </c>
@@ -21013,7 +20952,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="4" t="s">
         <v>1124</v>
       </c>
@@ -21021,7 +20960,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="4" t="s">
         <v>1895</v>
       </c>
@@ -21029,7 +20968,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="4" t="s">
         <v>1128</v>
       </c>
@@ -21037,15 +20976,15 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="4" t="s">
         <v>1132</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="4" t="s">
         <v>1136</v>
       </c>
@@ -21056,7 +20995,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="4" t="s">
         <v>1143</v>
       </c>
@@ -21067,7 +21006,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="4" t="s">
         <v>1150</v>
       </c>
@@ -21078,7 +21017,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="4" t="s">
         <v>1157</v>
       </c>
@@ -21086,10 +21025,10 @@
         <v>1161</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="4" t="s">
         <v>1164</v>
       </c>
@@ -21100,7 +21039,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="4" t="s">
         <v>1899</v>
       </c>
@@ -21108,10 +21047,10 @@
         <v>1902</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="4" t="s">
         <v>1171</v>
       </c>
@@ -21122,7 +21061,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="4" t="s">
         <v>1178</v>
       </c>
@@ -21133,7 +21072,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="4" t="s">
         <v>1185</v>
       </c>
@@ -21141,23 +21080,23 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="4" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="4" t="s">
         <v>1189</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="4" t="s">
         <v>1193</v>
       </c>
@@ -21168,7 +21107,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="4" t="s">
         <v>1200</v>
       </c>
@@ -21179,7 +21118,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="4" t="s">
         <v>1207</v>
       </c>
@@ -21187,31 +21126,31 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="4" t="s">
         <v>1210</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="4" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="4" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="4" t="s">
         <v>1214</v>
       </c>
@@ -21219,23 +21158,23 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="4" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="4" t="s">
         <v>1904</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="4" t="s">
         <v>1218</v>
       </c>
@@ -21246,15 +21185,15 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="4" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="4" t="s">
         <v>1224</v>
       </c>
@@ -21265,15 +21204,15 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="4" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>1659</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="4" t="s">
         <v>1907</v>
       </c>
@@ -21281,7 +21220,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="4" t="s">
         <v>1910</v>
       </c>
@@ -21289,10 +21228,10 @@
         <v>1913</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="4" t="s">
         <v>1230</v>
       </c>
@@ -21303,26 +21242,26 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="4" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>2125</v>
+        <v>2119</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="4" t="s">
         <v>1237</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="4" t="s">
         <v>1241</v>
       </c>
@@ -21330,26 +21269,26 @@
         <v>1245</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="4" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="4" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="4" t="s">
         <v>1248</v>
       </c>
@@ -21360,7 +21299,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="4" t="s">
         <v>1916</v>
       </c>
@@ -21368,21 +21307,21 @@
         <v>1920</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="4" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="4" t="s">
         <v>1254</v>
       </c>
@@ -21393,7 +21332,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="4" t="s">
         <v>1260</v>
       </c>
@@ -21401,26 +21340,26 @@
         <v>1264</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="4" t="s">
         <v>1923</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="4" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="4" t="s">
         <v>1267</v>
       </c>
@@ -21428,18 +21367,18 @@
         <v>1270</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="4" t="s">
         <v>1273</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="4" t="s">
         <v>1277</v>
       </c>
@@ -21447,7 +21386,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281" s="4" t="s">
         <v>1281</v>
       </c>
@@ -21458,15 +21397,15 @@
         <v>827</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="4" t="s">
         <v>1288</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="4" t="s">
         <v>1292</v>
       </c>
@@ -21474,10 +21413,10 @@
         <v>1296</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="4" t="s">
         <v>1299</v>
       </c>
@@ -21488,7 +21427,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="4" t="s">
         <v>1305</v>
       </c>
@@ -21499,7 +21438,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="4" t="s">
         <v>1311</v>
       </c>
@@ -21510,7 +21449,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="4" t="s">
         <v>1318</v>
       </c>
@@ -21518,15 +21457,15 @@
         <v>857</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="4" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="4" t="s">
         <v>1322</v>
       </c>
@@ -21537,7 +21476,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="4" t="s">
         <v>1329</v>
       </c>
@@ -21545,10 +21484,10 @@
         <v>1333</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="4" t="s">
         <v>1336</v>
       </c>
@@ -21556,7 +21495,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="4" t="s">
         <v>1340</v>
       </c>
@@ -21564,10 +21503,10 @@
         <v>1344</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="4" t="s">
         <v>1347</v>
       </c>
@@ -21575,21 +21514,21 @@
         <v>1350</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="4" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>2136</v>
+        <v>2130</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="4" t="s">
         <v>1353</v>
       </c>
@@ -21600,7 +21539,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="4" t="s">
         <v>1359</v>
       </c>
@@ -21611,34 +21550,34 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="4" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="4" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="4" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="4" t="s">
         <v>1366</v>
       </c>
@@ -21646,7 +21585,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="4" t="s">
         <v>1370</v>
       </c>
@@ -21654,18 +21593,18 @@
         <v>1373</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="4" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="4" t="s">
         <v>1376</v>
       </c>
@@ -21676,15 +21615,15 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="4" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="4" t="s">
         <v>1383</v>
       </c>
@@ -21695,7 +21634,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="4" t="s">
         <v>1390</v>
       </c>
@@ -21706,7 +21645,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A307" s="4" t="s">
         <v>1397</v>
       </c>
@@ -21714,15 +21653,15 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="4" t="s">
         <v>1401</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309" s="4" t="s">
         <v>1405</v>
       </c>
@@ -21730,10 +21669,10 @@
         <v>1409</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="4" t="s">
         <v>1412</v>
       </c>
@@ -21741,7 +21680,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="4" t="s">
         <v>1416</v>
       </c>
@@ -21752,15 +21691,15 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312" s="4" t="s">
         <v>1926</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313" s="4" t="s">
         <v>1423</v>
       </c>
@@ -21768,69 +21707,69 @@
         <v>1427</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="4" t="s">
         <v>1929</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315" s="4" t="s">
         <v>1430</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="4" t="s">
         <v>1434</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317" s="4" t="s">
         <v>1438</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="4" t="s">
         <v>1932</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319" s="4" t="s">
         <v>1936</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="4" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321" s="4" t="s">
         <v>1940</v>
       </c>
@@ -21841,7 +21780,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322" s="4" t="s">
         <v>1442</v>
       </c>
@@ -21852,7 +21791,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="4" t="s">
         <v>1449</v>
       </c>
@@ -21860,10 +21799,10 @@
         <v>1453</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324" s="4" t="s">
         <v>1947</v>
       </c>
@@ -21871,7 +21810,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="4" t="s">
         <v>1950</v>
       </c>
@@ -21879,7 +21818,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="4" t="s">
         <v>1456</v>
       </c>
@@ -21887,10 +21826,10 @@
         <v>1460</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327" s="4" t="s">
         <v>1463</v>
       </c>
@@ -21898,7 +21837,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328" s="4" t="s">
         <v>1467</v>
       </c>
@@ -21906,45 +21845,45 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329" s="4" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330" s="4" t="s">
         <v>1471</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B331" s="4" t="s">
         <v>1953</v>
       </c>
-      <c r="B331" s="4" t="s">
-        <v>1956</v>
-      </c>
       <c r="C331" s="4" t="s">
-        <v>2211</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A332" s="4" t="s">
-        <v>2212</v>
+        <v>2206</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333" s="4" t="s">
         <v>1475</v>
       </c>
@@ -21955,7 +21894,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334" s="4" t="s">
         <v>1482</v>
       </c>
@@ -21966,31 +21905,31 @@
         <v>633</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335" s="4" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336" s="4" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>1859</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337" s="4" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338" s="4" t="s">
         <v>1489</v>
       </c>
@@ -22001,7 +21940,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339" s="4" t="s">
         <v>1495</v>
       </c>
@@ -22012,7 +21951,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340" s="4" t="s">
         <v>1502</v>
       </c>
@@ -22023,7 +21962,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341" s="4" t="s">
         <v>1509</v>
       </c>
@@ -22034,7 +21973,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342" s="4" t="s">
         <v>1515</v>
       </c>
@@ -22042,21 +21981,21 @@
         <v>1518</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A343" s="4" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344" s="4" t="s">
         <v>1521</v>
       </c>
@@ -22064,10 +22003,10 @@
         <v>1525</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>2216</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345" s="4" t="s">
         <v>1528</v>
       </c>
@@ -22075,10 +22014,10 @@
         <v>1531</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346" s="4" t="s">
         <v>1534</v>
       </c>
@@ -22089,7 +22028,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A347" s="4" t="s">
         <v>1541</v>
       </c>
@@ -22100,7 +22039,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348" s="4" t="s">
         <v>1548</v>
       </c>
@@ -22108,10 +22047,10 @@
         <v>1552</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A349" s="4" t="s">
         <v>1555</v>
       </c>
@@ -22119,7 +22058,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A350" s="4" t="s">
         <v>1559</v>
       </c>
@@ -22127,10 +22066,10 @@
         <v>1563</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A351" s="4" t="s">
         <v>1565</v>
       </c>
@@ -22141,7 +22080,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A352" s="4" t="s">
         <v>1572</v>
       </c>
@@ -22149,7 +22088,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353" s="4" t="s">
         <v>1576</v>
       </c>
@@ -22160,7 +22099,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A354" s="4" t="s">
         <v>1582</v>
       </c>
@@ -22171,18 +22110,18 @@
         <v>713</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A355" s="4" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A356" s="4" t="s">
         <v>1588</v>
       </c>
@@ -22190,10 +22129,10 @@
         <v>1592</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A357" s="4" t="s">
         <v>1595</v>
       </c>
@@ -22201,10 +22140,10 @@
         <v>1599</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A358" s="4" t="s">
         <v>1602</v>
       </c>
@@ -22215,7 +22154,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A359" s="4" t="s">
         <v>1608</v>
       </c>
@@ -22226,29 +22165,29 @@
         <v>758</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A360" s="4" t="s">
-        <v>2222</v>
+        <v>2216</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A361" s="4" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A362" s="4" t="s">
         <v>1615</v>
       </c>
@@ -22259,7 +22198,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A363" s="4" t="s">
         <v>1622</v>
       </c>
@@ -22270,7 +22209,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A364" s="4" t="s">
         <v>1629</v>
       </c>
@@ -22278,10 +22217,10 @@
         <v>1633</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A365" s="4" t="s">
         <v>1635</v>
       </c>
@@ -22292,7 +22231,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A366" s="4" t="s">
         <v>1641</v>
       </c>
@@ -22303,18 +22242,18 @@
         <v>781</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367" s="4" t="s">
-        <v>2224</v>
+        <v>2218</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A368" s="4" t="s">
         <v>1648</v>
       </c>
@@ -22322,25 +22261,25 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A369" s="4" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370" s="4" t="s">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371" s="4" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A372" s="4" t="s">
         <v>1655</v>
       </c>
@@ -22348,7 +22287,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A373" s="4" t="s">
         <v>1662</v>
       </c>
@@ -22356,7 +22295,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A374" s="4" t="s">
         <v>1668</v>
       </c>
@@ -22364,7 +22303,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A375" s="4" t="s">
         <v>1674</v>
       </c>
@@ -22372,7 +22311,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A376" s="4" t="s">
         <v>1681</v>
       </c>
@@ -22380,12 +22319,12 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377" s="4" t="s">
         <v>1688</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A378" s="4" t="s">
         <v>1692</v>
       </c>
@@ -22393,7 +22332,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A379" s="4" t="s">
         <v>1699</v>
       </c>
@@ -22401,27 +22340,27 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380" s="4" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A381" s="4" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382" s="4" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383" s="4" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A384" s="4" t="s">
         <v>1721</v>
       </c>
@@ -22429,7 +22368,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A385" s="4" t="s">
         <v>1728</v>
       </c>
@@ -22437,7 +22376,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A386" s="4" t="s">
         <v>1735</v>
       </c>
@@ -22445,20 +22384,20 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387" s="4" t="s">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A388" s="4" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A389" s="4" t="s">
         <v>1741</v>
       </c>
@@ -22466,7 +22405,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A390" s="4" t="s">
         <v>1748</v>
       </c>
@@ -22474,28 +22413,28 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A391" s="4" t="s">
-        <v>2228</v>
+        <v>2222</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A392" s="4" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393" s="4" t="s">
         <v>1755</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A394" s="4" t="s">
         <v>1759</v>
       </c>
@@ -22503,15 +22442,15 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A395" s="4" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A396" s="4" t="s">
         <v>1766</v>
       </c>
@@ -22519,24 +22458,24 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397" s="4" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398" s="4" t="s">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399" s="4" t="s">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400" s="4" t="s">
-        <v>2231</v>
+        <v>2225</v>
       </c>
     </row>
   </sheetData>
